--- a/data/expense_tracker.xlsx
+++ b/data/expense_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\solutions\learning_python\expense_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21503CDD-D891-4AC9-A529-622461B4D5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A394EEC-3430-42DF-BD06-B89BCDED0A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="859" xr2:uid="{7A62D1F9-0105-4F41-8BB8-21CA3D721AF6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$L$1630</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$L$1724</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6363" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6429" uniqueCount="986">
   <si>
     <t>expense_type</t>
   </si>
@@ -2986,6 +2986,18 @@
   </si>
   <si>
     <t>cottage cheese 250g</t>
+  </si>
+  <si>
+    <t>spotify</t>
+  </si>
+  <si>
+    <t>spotify subscription</t>
+  </si>
+  <si>
+    <t>netflix subscription</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
 </sst>
 </file>
@@ -3338,11 +3350,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397426C9-9494-4E73-BF9B-2DE40DB1433B}">
-  <dimension ref="A1:L1724"/>
+  <dimension ref="A1:L1746"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1702" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1711" sqref="I1711"/>
+      <pane ySplit="1" topLeftCell="A1728" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1737" sqref="J1737:J1746"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66032,23 +66044,23 @@
         <v>0.99</v>
       </c>
       <c r="E1715">
-        <f t="shared" ref="E1715:E1724" si="253">MONTH(A1715)</f>
+        <f t="shared" ref="E1715:E1735" si="253">MONTH(A1715)</f>
         <v>4</v>
       </c>
       <c r="F1715">
-        <f t="shared" ref="F1715:F1724" si="254">YEAR(A1715)</f>
+        <f t="shared" ref="F1715:F1735" si="254">YEAR(A1715)</f>
         <v>2024</v>
       </c>
       <c r="G1715">
-        <f t="shared" ref="G1715:G1724" si="255">WEEKDAY(A1715, 2)</f>
+        <f t="shared" ref="G1715:G1735" si="255">WEEKDAY(A1715, 2)</f>
         <v>6</v>
       </c>
       <c r="H1715" t="str">
-        <f t="shared" ref="H1715:H1724" si="256">CHOOSE(WEEKDAY(A1715, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1715:H1735" si="256">CHOOSE(WEEKDAY(A1715, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Saturday</v>
       </c>
       <c r="I1715" t="str">
-        <f t="shared" ref="I1715:I1724" si="257">TEXT(A1715, "MMM")</f>
+        <f t="shared" ref="I1715:I1735" si="257">TEXT(A1715, "MMM")</f>
         <v>Apr</v>
       </c>
       <c r="J1715" t="s">
@@ -66418,6 +66430,820 @@
       </c>
       <c r="K1724" t="s">
         <v>730</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1725" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>983</v>
+      </c>
+      <c r="D1725">
+        <v>5.99</v>
+      </c>
+      <c r="E1725">
+        <f t="shared" si="253"/>
+        <v>6</v>
+      </c>
+      <c r="F1725">
+        <f t="shared" si="254"/>
+        <v>2023</v>
+      </c>
+      <c r="G1725">
+        <f t="shared" si="255"/>
+        <v>4</v>
+      </c>
+      <c r="H1725" t="str">
+        <f t="shared" si="256"/>
+        <v>Thursday</v>
+      </c>
+      <c r="I1725" t="str">
+        <f t="shared" si="257"/>
+        <v>Jun</v>
+      </c>
+      <c r="J1725" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1726" s="1">
+        <v>45122</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>983</v>
+      </c>
+      <c r="D1726">
+        <v>5.99</v>
+      </c>
+      <c r="E1726">
+        <f t="shared" si="253"/>
+        <v>7</v>
+      </c>
+      <c r="F1726">
+        <f t="shared" si="254"/>
+        <v>2023</v>
+      </c>
+      <c r="G1726">
+        <f t="shared" si="255"/>
+        <v>6</v>
+      </c>
+      <c r="H1726" t="str">
+        <f t="shared" si="256"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1726" t="str">
+        <f t="shared" si="257"/>
+        <v>Jul</v>
+      </c>
+      <c r="J1726" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1727" s="1">
+        <v>45153</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>983</v>
+      </c>
+      <c r="D1727">
+        <v>5.99</v>
+      </c>
+      <c r="E1727">
+        <f t="shared" si="253"/>
+        <v>8</v>
+      </c>
+      <c r="F1727">
+        <f t="shared" si="254"/>
+        <v>2023</v>
+      </c>
+      <c r="G1727">
+        <f t="shared" si="255"/>
+        <v>2</v>
+      </c>
+      <c r="H1727" t="str">
+        <f t="shared" si="256"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1727" t="str">
+        <f t="shared" si="257"/>
+        <v>Aug</v>
+      </c>
+      <c r="J1727" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1728" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>983</v>
+      </c>
+      <c r="D1728">
+        <v>5.99</v>
+      </c>
+      <c r="E1728">
+        <f t="shared" si="253"/>
+        <v>9</v>
+      </c>
+      <c r="F1728">
+        <f t="shared" si="254"/>
+        <v>2023</v>
+      </c>
+      <c r="G1728">
+        <f t="shared" si="255"/>
+        <v>5</v>
+      </c>
+      <c r="H1728" t="str">
+        <f t="shared" si="256"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1728" t="str">
+        <f t="shared" si="257"/>
+        <v>Sep</v>
+      </c>
+      <c r="J1728" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1729" s="1">
+        <v>45214</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>983</v>
+      </c>
+      <c r="D1729">
+        <v>5.99</v>
+      </c>
+      <c r="E1729">
+        <f t="shared" si="253"/>
+        <v>10</v>
+      </c>
+      <c r="F1729">
+        <f t="shared" si="254"/>
+        <v>2023</v>
+      </c>
+      <c r="G1729">
+        <f t="shared" si="255"/>
+        <v>7</v>
+      </c>
+      <c r="H1729" t="str">
+        <f t="shared" si="256"/>
+        <v>Sunday</v>
+      </c>
+      <c r="I1729" t="str">
+        <f t="shared" si="257"/>
+        <v>Oct</v>
+      </c>
+      <c r="J1729" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1730" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>983</v>
+      </c>
+      <c r="D1730">
+        <v>5.99</v>
+      </c>
+      <c r="E1730">
+        <f t="shared" si="253"/>
+        <v>11</v>
+      </c>
+      <c r="F1730">
+        <f t="shared" si="254"/>
+        <v>2023</v>
+      </c>
+      <c r="G1730">
+        <f t="shared" si="255"/>
+        <v>3</v>
+      </c>
+      <c r="H1730" t="str">
+        <f t="shared" si="256"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="I1730" t="str">
+        <f t="shared" si="257"/>
+        <v>Nov</v>
+      </c>
+      <c r="J1730" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1731" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>983</v>
+      </c>
+      <c r="D1731">
+        <v>5.99</v>
+      </c>
+      <c r="E1731">
+        <f t="shared" si="253"/>
+        <v>12</v>
+      </c>
+      <c r="F1731">
+        <f t="shared" si="254"/>
+        <v>2023</v>
+      </c>
+      <c r="G1731">
+        <f t="shared" si="255"/>
+        <v>5</v>
+      </c>
+      <c r="H1731" t="str">
+        <f t="shared" si="256"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1731" t="str">
+        <f t="shared" si="257"/>
+        <v>Dec</v>
+      </c>
+      <c r="J1731" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1732" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>983</v>
+      </c>
+      <c r="D1732">
+        <v>5.99</v>
+      </c>
+      <c r="E1732">
+        <f t="shared" si="253"/>
+        <v>1</v>
+      </c>
+      <c r="F1732">
+        <f t="shared" si="254"/>
+        <v>2024</v>
+      </c>
+      <c r="G1732">
+        <f t="shared" si="255"/>
+        <v>1</v>
+      </c>
+      <c r="H1732" t="str">
+        <f t="shared" si="256"/>
+        <v>Monday</v>
+      </c>
+      <c r="I1732" t="str">
+        <f t="shared" si="257"/>
+        <v>Jan</v>
+      </c>
+      <c r="J1732" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1733" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>983</v>
+      </c>
+      <c r="D1733">
+        <v>5.99</v>
+      </c>
+      <c r="E1733">
+        <f t="shared" si="253"/>
+        <v>2</v>
+      </c>
+      <c r="F1733">
+        <f t="shared" si="254"/>
+        <v>2024</v>
+      </c>
+      <c r="G1733">
+        <f t="shared" si="255"/>
+        <v>4</v>
+      </c>
+      <c r="H1733" t="str">
+        <f t="shared" si="256"/>
+        <v>Thursday</v>
+      </c>
+      <c r="I1733" t="str">
+        <f t="shared" si="257"/>
+        <v>Feb</v>
+      </c>
+      <c r="J1733" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1734" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>983</v>
+      </c>
+      <c r="D1734">
+        <v>5.99</v>
+      </c>
+      <c r="E1734">
+        <f t="shared" si="253"/>
+        <v>3</v>
+      </c>
+      <c r="F1734">
+        <f t="shared" si="254"/>
+        <v>2024</v>
+      </c>
+      <c r="G1734">
+        <f t="shared" si="255"/>
+        <v>5</v>
+      </c>
+      <c r="H1734" t="str">
+        <f t="shared" si="256"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1734" t="str">
+        <f t="shared" si="257"/>
+        <v>Mar</v>
+      </c>
+      <c r="J1734" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1735" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>983</v>
+      </c>
+      <c r="D1735">
+        <v>5.99</v>
+      </c>
+      <c r="E1735">
+        <f t="shared" si="253"/>
+        <v>4</v>
+      </c>
+      <c r="F1735">
+        <f t="shared" si="254"/>
+        <v>2024</v>
+      </c>
+      <c r="G1735">
+        <f t="shared" si="255"/>
+        <v>1</v>
+      </c>
+      <c r="H1735" t="str">
+        <f t="shared" si="256"/>
+        <v>Monday</v>
+      </c>
+      <c r="I1735" t="str">
+        <f t="shared" si="257"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1735" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1736" s="1">
+        <v>45082</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1736">
+        <v>7.99</v>
+      </c>
+      <c r="E1736">
+        <f t="shared" ref="E1736:E1746" si="258">MONTH(A1736)</f>
+        <v>6</v>
+      </c>
+      <c r="F1736">
+        <f t="shared" ref="F1736:F1746" si="259">YEAR(A1736)</f>
+        <v>2023</v>
+      </c>
+      <c r="G1736">
+        <f t="shared" ref="G1736:G1746" si="260">WEEKDAY(A1736, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="H1736" t="str">
+        <f t="shared" ref="H1736:H1746" si="261">CHOOSE(WEEKDAY(A1736, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Monday</v>
+      </c>
+      <c r="I1736" t="str">
+        <f t="shared" ref="I1736:I1746" si="262">TEXT(A1736, "MMM")</f>
+        <v>Jun</v>
+      </c>
+      <c r="J1736" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1737" s="1">
+        <v>45112</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1737">
+        <v>7.99</v>
+      </c>
+      <c r="E1737">
+        <f t="shared" si="258"/>
+        <v>7</v>
+      </c>
+      <c r="F1737">
+        <f t="shared" si="259"/>
+        <v>2023</v>
+      </c>
+      <c r="G1737">
+        <f t="shared" si="260"/>
+        <v>3</v>
+      </c>
+      <c r="H1737" t="str">
+        <f t="shared" si="261"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="I1737" t="str">
+        <f t="shared" si="262"/>
+        <v>Jul</v>
+      </c>
+      <c r="J1737" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1738" s="1">
+        <v>45143</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1738">
+        <v>7.99</v>
+      </c>
+      <c r="E1738">
+        <f t="shared" si="258"/>
+        <v>8</v>
+      </c>
+      <c r="F1738">
+        <f t="shared" si="259"/>
+        <v>2023</v>
+      </c>
+      <c r="G1738">
+        <f t="shared" si="260"/>
+        <v>6</v>
+      </c>
+      <c r="H1738" t="str">
+        <f t="shared" si="261"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1738" t="str">
+        <f t="shared" si="262"/>
+        <v>Aug</v>
+      </c>
+      <c r="J1738" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1739" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1739">
+        <v>7.99</v>
+      </c>
+      <c r="E1739">
+        <f t="shared" si="258"/>
+        <v>9</v>
+      </c>
+      <c r="F1739">
+        <f t="shared" si="259"/>
+        <v>2023</v>
+      </c>
+      <c r="G1739">
+        <f t="shared" si="260"/>
+        <v>2</v>
+      </c>
+      <c r="H1739" t="str">
+        <f t="shared" si="261"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1739" t="str">
+        <f t="shared" si="262"/>
+        <v>Sep</v>
+      </c>
+      <c r="J1739" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1740" s="1">
+        <v>45204</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1740">
+        <v>7.99</v>
+      </c>
+      <c r="E1740">
+        <f t="shared" si="258"/>
+        <v>10</v>
+      </c>
+      <c r="F1740">
+        <f t="shared" si="259"/>
+        <v>2023</v>
+      </c>
+      <c r="G1740">
+        <f t="shared" si="260"/>
+        <v>4</v>
+      </c>
+      <c r="H1740" t="str">
+        <f t="shared" si="261"/>
+        <v>Thursday</v>
+      </c>
+      <c r="I1740" t="str">
+        <f t="shared" si="262"/>
+        <v>Oct</v>
+      </c>
+      <c r="J1740" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1741" s="1">
+        <v>45235</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1741">
+        <v>7.99</v>
+      </c>
+      <c r="E1741">
+        <f t="shared" si="258"/>
+        <v>11</v>
+      </c>
+      <c r="F1741">
+        <f t="shared" si="259"/>
+        <v>2023</v>
+      </c>
+      <c r="G1741">
+        <f t="shared" si="260"/>
+        <v>7</v>
+      </c>
+      <c r="H1741" t="str">
+        <f t="shared" si="261"/>
+        <v>Sunday</v>
+      </c>
+      <c r="I1741" t="str">
+        <f t="shared" si="262"/>
+        <v>Nov</v>
+      </c>
+      <c r="J1741" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1742" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1742">
+        <v>7.99</v>
+      </c>
+      <c r="E1742">
+        <f t="shared" si="258"/>
+        <v>12</v>
+      </c>
+      <c r="F1742">
+        <f t="shared" si="259"/>
+        <v>2023</v>
+      </c>
+      <c r="G1742">
+        <f t="shared" si="260"/>
+        <v>2</v>
+      </c>
+      <c r="H1742" t="str">
+        <f t="shared" si="261"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1742" t="str">
+        <f t="shared" si="262"/>
+        <v>Dec</v>
+      </c>
+      <c r="J1742" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1743" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1743">
+        <v>7.99</v>
+      </c>
+      <c r="E1743">
+        <f t="shared" si="258"/>
+        <v>1</v>
+      </c>
+      <c r="F1743">
+        <f t="shared" si="259"/>
+        <v>2024</v>
+      </c>
+      <c r="G1743">
+        <f t="shared" si="260"/>
+        <v>5</v>
+      </c>
+      <c r="H1743" t="str">
+        <f t="shared" si="261"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1743" t="str">
+        <f t="shared" si="262"/>
+        <v>Jan</v>
+      </c>
+      <c r="J1743" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1744" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1744">
+        <v>7.99</v>
+      </c>
+      <c r="E1744">
+        <f t="shared" si="258"/>
+        <v>2</v>
+      </c>
+      <c r="F1744">
+        <f t="shared" si="259"/>
+        <v>2024</v>
+      </c>
+      <c r="G1744">
+        <f t="shared" si="260"/>
+        <v>1</v>
+      </c>
+      <c r="H1744" t="str">
+        <f t="shared" si="261"/>
+        <v>Monday</v>
+      </c>
+      <c r="I1744" t="str">
+        <f t="shared" si="262"/>
+        <v>Feb</v>
+      </c>
+      <c r="J1744" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1745" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1745">
+        <v>7.99</v>
+      </c>
+      <c r="E1745">
+        <f t="shared" si="258"/>
+        <v>3</v>
+      </c>
+      <c r="F1745">
+        <f t="shared" si="259"/>
+        <v>2024</v>
+      </c>
+      <c r="G1745">
+        <f t="shared" si="260"/>
+        <v>2</v>
+      </c>
+      <c r="H1745" t="str">
+        <f t="shared" si="261"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1745" t="str">
+        <f t="shared" si="262"/>
+        <v>Mar</v>
+      </c>
+      <c r="J1745" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1746" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1746">
+        <v>7.99</v>
+      </c>
+      <c r="E1746">
+        <f t="shared" si="258"/>
+        <v>4</v>
+      </c>
+      <c r="F1746">
+        <f t="shared" si="259"/>
+        <v>2024</v>
+      </c>
+      <c r="G1746">
+        <f t="shared" si="260"/>
+        <v>5</v>
+      </c>
+      <c r="H1746" t="str">
+        <f t="shared" si="261"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1746" t="str">
+        <f t="shared" si="262"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1746" t="s">
+        <v>985</v>
       </c>
     </row>
   </sheetData>

--- a/data/expense_tracker.xlsx
+++ b/data/expense_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\solutions\learning_python\expense_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A394EEC-3430-42DF-BD06-B89BCDED0A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EDA535-3CE7-4F94-9A83-49CAEC66042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="859" xr2:uid="{7A62D1F9-0105-4F41-8BB8-21CA3D721AF6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$L$1724</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$L$1803</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6429" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6732" uniqueCount="1030">
   <si>
     <t>expense_type</t>
   </si>
@@ -2998,6 +2998,138 @@
   </si>
   <si>
     <t>netflix</t>
+  </si>
+  <si>
+    <t>sparheuminatur 500g</t>
+  </si>
+  <si>
+    <t>sbudget p-geschnetz</t>
+  </si>
+  <si>
+    <t>prem. bio zwiebel</t>
+  </si>
+  <si>
+    <t>veggie pitabrot 400g</t>
+  </si>
+  <si>
+    <t>sbudget kokosmilch</t>
+  </si>
+  <si>
+    <t>sbudgetjo1%500g</t>
+  </si>
+  <si>
+    <t>sbudget eier bh m</t>
+  </si>
+  <si>
+    <t>sbudget langk.reis</t>
+  </si>
+  <si>
+    <t>shan shi yellowcurry</t>
+  </si>
+  <si>
+    <t>sbu paprika mix</t>
+  </si>
+  <si>
+    <t>spar bio zwiebel</t>
+  </si>
+  <si>
+    <t>bermuda chino</t>
+  </si>
+  <si>
+    <t>kleider bauer</t>
+  </si>
+  <si>
+    <t>apfel tasse evelina</t>
+  </si>
+  <si>
+    <t>sriracha saucen</t>
+  </si>
+  <si>
+    <t>bananen chiquita 0.550kgx2,29 eur/kg</t>
+  </si>
+  <si>
+    <t>sbudget gurken 670g</t>
+  </si>
+  <si>
+    <t>suntat gefullte</t>
+  </si>
+  <si>
+    <t>tramezzino</t>
+  </si>
+  <si>
+    <t>la gestione srl</t>
+  </si>
+  <si>
+    <t>marghera</t>
+  </si>
+  <si>
+    <t>t pam nespresso deca</t>
+  </si>
+  <si>
+    <t>ark det liq aloe</t>
+  </si>
+  <si>
+    <t>ark det liq clas</t>
+  </si>
+  <si>
+    <t>ark det liq igie</t>
+  </si>
+  <si>
+    <t>new parodontax com</t>
+  </si>
+  <si>
+    <t>parodontax comp pr</t>
+  </si>
+  <si>
+    <t>v meridol alito fre</t>
+  </si>
+  <si>
+    <t>dent. Parodontax</t>
+  </si>
+  <si>
+    <t>transito</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>acqua easy nat.s.benedetto lt1</t>
+  </si>
+  <si>
+    <t>parcheggio</t>
+  </si>
+  <si>
+    <t>venezia mestre</t>
+  </si>
+  <si>
+    <t>avm holding</t>
+  </si>
+  <si>
+    <t>odstore</t>
+  </si>
+  <si>
+    <t>valigetta amaretti e vino</t>
+  </si>
+  <si>
+    <t>torroncini assortiti 250g</t>
+  </si>
+  <si>
+    <t>don peppe</t>
+  </si>
+  <si>
+    <t>pizza rustichella</t>
+  </si>
+  <si>
+    <t>naturale cl. 50</t>
+  </si>
+  <si>
+    <t>caffe espresso</t>
+  </si>
+  <si>
+    <t>sf mozza. Light</t>
+  </si>
+  <si>
+    <t>best moments 85%</t>
   </si>
 </sst>
 </file>
@@ -3350,11 +3482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397426C9-9494-4E73-BF9B-2DE40DB1433B}">
-  <dimension ref="A1:L1746"/>
+  <dimension ref="A1:L1824"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1728" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1737" sqref="J1737:J1746"/>
+      <pane ySplit="1" topLeftCell="A1801" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1810" sqref="I1810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66853,23 +66985,23 @@
         <v>7.99</v>
       </c>
       <c r="E1736">
-        <f t="shared" ref="E1736:E1746" si="258">MONTH(A1736)</f>
+        <f t="shared" ref="E1736:E1747" si="258">MONTH(A1736)</f>
         <v>6</v>
       </c>
       <c r="F1736">
-        <f t="shared" ref="F1736:F1746" si="259">YEAR(A1736)</f>
+        <f t="shared" ref="F1736:F1747" si="259">YEAR(A1736)</f>
         <v>2023</v>
       </c>
       <c r="G1736">
-        <f t="shared" ref="G1736:G1746" si="260">WEEKDAY(A1736, 2)</f>
+        <f t="shared" ref="G1736:G1747" si="260">WEEKDAY(A1736, 2)</f>
         <v>1</v>
       </c>
       <c r="H1736" t="str">
-        <f t="shared" ref="H1736:H1746" si="261">CHOOSE(WEEKDAY(A1736, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1736:H1747" si="261">CHOOSE(WEEKDAY(A1736, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Monday</v>
       </c>
       <c r="I1736" t="str">
-        <f t="shared" ref="I1736:I1746" si="262">TEXT(A1736, "MMM")</f>
+        <f t="shared" ref="I1736:I1747" si="262">TEXT(A1736, "MMM")</f>
         <v>Jun</v>
       </c>
       <c r="J1736" t="s">
@@ -67172,7 +67304,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1745" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1745" s="1">
         <v>45356</v>
       </c>
@@ -67209,7 +67341,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1746" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1746" s="1">
         <v>45387</v>
       </c>
@@ -67246,7 +67378,3122 @@
         <v>985</v>
       </c>
     </row>
+    <row r="1747" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1747" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>986</v>
+      </c>
+      <c r="D1747">
+        <v>0.89</v>
+      </c>
+      <c r="E1747">
+        <f t="shared" si="258"/>
+        <v>4</v>
+      </c>
+      <c r="F1747">
+        <f t="shared" si="259"/>
+        <v>2024</v>
+      </c>
+      <c r="G1747">
+        <f t="shared" si="260"/>
+        <v>6</v>
+      </c>
+      <c r="H1747" t="str">
+        <f t="shared" si="261"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1747" t="str">
+        <f t="shared" si="262"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1747" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1748" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>986</v>
+      </c>
+      <c r="D1748">
+        <v>0.89</v>
+      </c>
+      <c r="E1748">
+        <f t="shared" ref="E1748" si="263">MONTH(A1748)</f>
+        <v>4</v>
+      </c>
+      <c r="F1748">
+        <f t="shared" ref="F1748" si="264">YEAR(A1748)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1748">
+        <f t="shared" ref="G1748" si="265">WEEKDAY(A1748, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1748" t="str">
+        <f t="shared" ref="H1748" si="266">CHOOSE(WEEKDAY(A1748, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1748" t="str">
+        <f t="shared" ref="I1748" si="267">TEXT(A1748, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1748" t="s">
+        <v>973</v>
+      </c>
+      <c r="K1748" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1749" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>987</v>
+      </c>
+      <c r="D1749">
+        <v>3.99</v>
+      </c>
+      <c r="E1749">
+        <f t="shared" ref="E1749:E1755" si="268">MONTH(A1749)</f>
+        <v>4</v>
+      </c>
+      <c r="F1749">
+        <f t="shared" ref="F1749:F1755" si="269">YEAR(A1749)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1749">
+        <f t="shared" ref="G1749:G1755" si="270">WEEKDAY(A1749, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1749" t="str">
+        <f t="shared" ref="H1749:H1755" si="271">CHOOSE(WEEKDAY(A1749, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1749" t="str">
+        <f t="shared" ref="I1749:I1755" si="272">TEXT(A1749, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1749" t="s">
+        <v>973</v>
+      </c>
+      <c r="K1749" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1750" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1750">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E1750">
+        <f t="shared" si="268"/>
+        <v>4</v>
+      </c>
+      <c r="F1750">
+        <f t="shared" si="269"/>
+        <v>2024</v>
+      </c>
+      <c r="G1750">
+        <f t="shared" si="270"/>
+        <v>6</v>
+      </c>
+      <c r="H1750" t="str">
+        <f t="shared" si="271"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1750" t="str">
+        <f t="shared" si="272"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1750" t="s">
+        <v>973</v>
+      </c>
+      <c r="K1750" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1751" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1751">
+        <v>1.99</v>
+      </c>
+      <c r="E1751">
+        <f t="shared" si="268"/>
+        <v>4</v>
+      </c>
+      <c r="F1751">
+        <f t="shared" si="269"/>
+        <v>2024</v>
+      </c>
+      <c r="G1751">
+        <f t="shared" si="270"/>
+        <v>6</v>
+      </c>
+      <c r="H1751" t="str">
+        <f t="shared" si="271"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1751" t="str">
+        <f t="shared" si="272"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1751" t="s">
+        <v>973</v>
+      </c>
+      <c r="K1751" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1752" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>988</v>
+      </c>
+      <c r="D1752">
+        <v>3.99</v>
+      </c>
+      <c r="E1752">
+        <f t="shared" si="268"/>
+        <v>4</v>
+      </c>
+      <c r="F1752">
+        <f t="shared" si="269"/>
+        <v>2024</v>
+      </c>
+      <c r="G1752">
+        <f t="shared" si="270"/>
+        <v>6</v>
+      </c>
+      <c r="H1752" t="str">
+        <f t="shared" si="271"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1752" t="str">
+        <f t="shared" si="272"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1752" t="s">
+        <v>973</v>
+      </c>
+      <c r="K1752" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1753" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1753">
+        <f>1.89-0.475</f>
+        <v>1.415</v>
+      </c>
+      <c r="E1753">
+        <f t="shared" si="268"/>
+        <v>4</v>
+      </c>
+      <c r="F1753">
+        <f t="shared" si="269"/>
+        <v>2024</v>
+      </c>
+      <c r="G1753">
+        <f t="shared" si="270"/>
+        <v>6</v>
+      </c>
+      <c r="H1753" t="str">
+        <f t="shared" si="271"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1753" t="str">
+        <f t="shared" si="272"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1753" t="s">
+        <v>973</v>
+      </c>
+      <c r="K1753" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1754" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1754">
+        <f>1.89-0.475</f>
+        <v>1.415</v>
+      </c>
+      <c r="E1754">
+        <f t="shared" si="268"/>
+        <v>4</v>
+      </c>
+      <c r="F1754">
+        <f t="shared" si="269"/>
+        <v>2024</v>
+      </c>
+      <c r="G1754">
+        <f t="shared" si="270"/>
+        <v>6</v>
+      </c>
+      <c r="H1754" t="str">
+        <f t="shared" si="271"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1754" t="str">
+        <f t="shared" si="272"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1754" t="s">
+        <v>973</v>
+      </c>
+      <c r="K1754" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1755" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1755">
+        <v>4.16</v>
+      </c>
+      <c r="E1755">
+        <f t="shared" si="268"/>
+        <v>4</v>
+      </c>
+      <c r="F1755">
+        <f t="shared" si="269"/>
+        <v>2024</v>
+      </c>
+      <c r="G1755">
+        <f t="shared" si="270"/>
+        <v>5</v>
+      </c>
+      <c r="H1755" t="str">
+        <f t="shared" si="271"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1755" t="str">
+        <f t="shared" si="272"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1755" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1756" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1756">
+        <v>0.79</v>
+      </c>
+      <c r="E1756">
+        <f t="shared" ref="E1756" si="273">MONTH(A1756)</f>
+        <v>4</v>
+      </c>
+      <c r="F1756">
+        <f t="shared" ref="F1756" si="274">YEAR(A1756)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1756">
+        <f t="shared" ref="G1756" si="275">WEEKDAY(A1756, 2)</f>
+        <v>5</v>
+      </c>
+      <c r="H1756" t="str">
+        <f t="shared" ref="H1756" si="276">CHOOSE(WEEKDAY(A1756, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Friday</v>
+      </c>
+      <c r="I1756" t="str">
+        <f t="shared" ref="I1756" si="277">TEXT(A1756, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1756" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1757" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1757">
+        <v>2.9</v>
+      </c>
+      <c r="E1757">
+        <f t="shared" ref="E1757:E1760" si="278">MONTH(A1757)</f>
+        <v>4</v>
+      </c>
+      <c r="F1757">
+        <f t="shared" ref="F1757:F1760" si="279">YEAR(A1757)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1757">
+        <f t="shared" ref="G1757:G1760" si="280">WEEKDAY(A1757, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H1757" t="str">
+        <f t="shared" ref="H1757:H1760" si="281">CHOOSE(WEEKDAY(A1757, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1757" t="str">
+        <f t="shared" ref="I1757:I1760" si="282">TEXT(A1757, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1757" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1758" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1758">
+        <v>2.9</v>
+      </c>
+      <c r="E1758">
+        <f t="shared" si="278"/>
+        <v>4</v>
+      </c>
+      <c r="F1758">
+        <f t="shared" si="279"/>
+        <v>2024</v>
+      </c>
+      <c r="G1758">
+        <f t="shared" si="280"/>
+        <v>3</v>
+      </c>
+      <c r="H1758" t="str">
+        <f t="shared" si="281"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="I1758" t="str">
+        <f t="shared" si="282"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1758" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1759" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1759">
+        <v>2.9</v>
+      </c>
+      <c r="E1759">
+        <f t="shared" si="278"/>
+        <v>4</v>
+      </c>
+      <c r="F1759">
+        <f t="shared" si="279"/>
+        <v>2024</v>
+      </c>
+      <c r="G1759">
+        <f t="shared" si="280"/>
+        <v>1</v>
+      </c>
+      <c r="H1759" t="str">
+        <f t="shared" si="281"/>
+        <v>Monday</v>
+      </c>
+      <c r="I1759" t="str">
+        <f t="shared" si="282"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1759" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1760" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>990</v>
+      </c>
+      <c r="D1760">
+        <v>0.99</v>
+      </c>
+      <c r="E1760">
+        <f t="shared" si="278"/>
+        <v>4</v>
+      </c>
+      <c r="F1760">
+        <f t="shared" si="279"/>
+        <v>2024</v>
+      </c>
+      <c r="G1760">
+        <f t="shared" si="280"/>
+        <v>2</v>
+      </c>
+      <c r="H1760" t="str">
+        <f t="shared" si="281"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1760" t="str">
+        <f t="shared" si="282"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1760" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1760" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1761" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>969</v>
+      </c>
+      <c r="D1761">
+        <f>2.99-0.75</f>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E1761">
+        <f t="shared" ref="E1761:E1767" si="283">MONTH(A1761)</f>
+        <v>4</v>
+      </c>
+      <c r="F1761">
+        <f t="shared" ref="F1761:F1767" si="284">YEAR(A1761)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1761">
+        <f t="shared" ref="G1761:G1767" si="285">WEEKDAY(A1761, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H1761" t="str">
+        <f t="shared" ref="H1761:H1767" si="286">CHOOSE(WEEKDAY(A1761, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1761" t="str">
+        <f t="shared" ref="I1761:I1767" si="287">TEXT(A1761, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1761" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1761" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1762" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>991</v>
+      </c>
+      <c r="D1762">
+        <v>0.79</v>
+      </c>
+      <c r="E1762">
+        <f t="shared" si="283"/>
+        <v>4</v>
+      </c>
+      <c r="F1762">
+        <f t="shared" si="284"/>
+        <v>2024</v>
+      </c>
+      <c r="G1762">
+        <f t="shared" si="285"/>
+        <v>2</v>
+      </c>
+      <c r="H1762" t="str">
+        <f t="shared" si="286"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1762" t="str">
+        <f t="shared" si="287"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1762" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1762" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1763" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>992</v>
+      </c>
+      <c r="D1763">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E1763">
+        <f t="shared" si="283"/>
+        <v>4</v>
+      </c>
+      <c r="F1763">
+        <f t="shared" si="284"/>
+        <v>2024</v>
+      </c>
+      <c r="G1763">
+        <f t="shared" si="285"/>
+        <v>2</v>
+      </c>
+      <c r="H1763" t="str">
+        <f t="shared" si="286"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1763" t="str">
+        <f t="shared" si="287"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1763" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1763" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1764" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>993</v>
+      </c>
+      <c r="D1764">
+        <v>1.19</v>
+      </c>
+      <c r="E1764">
+        <f t="shared" si="283"/>
+        <v>4</v>
+      </c>
+      <c r="F1764">
+        <f t="shared" si="284"/>
+        <v>2024</v>
+      </c>
+      <c r="G1764">
+        <f t="shared" si="285"/>
+        <v>2</v>
+      </c>
+      <c r="H1764" t="str">
+        <f t="shared" si="286"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1764" t="str">
+        <f t="shared" si="287"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1764" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1764" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1765" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>994</v>
+      </c>
+      <c r="D1765">
+        <f>2.99-0.75</f>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E1765">
+        <f t="shared" si="283"/>
+        <v>4</v>
+      </c>
+      <c r="F1765">
+        <f t="shared" si="284"/>
+        <v>2024</v>
+      </c>
+      <c r="G1765">
+        <f t="shared" si="285"/>
+        <v>2</v>
+      </c>
+      <c r="H1765" t="str">
+        <f t="shared" si="286"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1765" t="str">
+        <f t="shared" si="287"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1765" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1765" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1766" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1766">
+        <f>5.99-1.5</f>
+        <v>4.49</v>
+      </c>
+      <c r="E1766">
+        <f t="shared" si="283"/>
+        <v>4</v>
+      </c>
+      <c r="F1766">
+        <f t="shared" si="284"/>
+        <v>2024</v>
+      </c>
+      <c r="G1766">
+        <f t="shared" si="285"/>
+        <v>2</v>
+      </c>
+      <c r="H1766" t="str">
+        <f t="shared" si="286"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1766" t="str">
+        <f t="shared" si="287"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1766" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1766" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1767" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>995</v>
+      </c>
+      <c r="D1767">
+        <v>1.99</v>
+      </c>
+      <c r="E1767">
+        <f t="shared" si="283"/>
+        <v>4</v>
+      </c>
+      <c r="F1767">
+        <f t="shared" si="284"/>
+        <v>2024</v>
+      </c>
+      <c r="G1767">
+        <f t="shared" si="285"/>
+        <v>2</v>
+      </c>
+      <c r="H1767" t="str">
+        <f t="shared" si="286"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1767" t="str">
+        <f t="shared" si="287"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1767" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1767" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1768" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1768">
+        <v>1.44</v>
+      </c>
+      <c r="E1768">
+        <f t="shared" ref="E1768:E1772" si="288">MONTH(A1768)</f>
+        <v>4</v>
+      </c>
+      <c r="F1768">
+        <f t="shared" ref="F1768:F1772" si="289">YEAR(A1768)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1768">
+        <f t="shared" ref="G1768:G1772" si="290">WEEKDAY(A1768, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H1768" t="str">
+        <f t="shared" ref="H1768:H1772" si="291">CHOOSE(WEEKDAY(A1768, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1768" t="str">
+        <f t="shared" ref="I1768:I1772" si="292">TEXT(A1768, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1768" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1768" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1769" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1769">
+        <v>1.99</v>
+      </c>
+      <c r="E1769">
+        <f t="shared" si="288"/>
+        <v>4</v>
+      </c>
+      <c r="F1769">
+        <f t="shared" si="289"/>
+        <v>2024</v>
+      </c>
+      <c r="G1769">
+        <f t="shared" si="290"/>
+        <v>2</v>
+      </c>
+      <c r="H1769" t="str">
+        <f t="shared" si="291"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1769" t="str">
+        <f t="shared" si="292"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1769" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1769" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1770" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>996</v>
+      </c>
+      <c r="D1770">
+        <f>2.19-0.55</f>
+        <v>1.64</v>
+      </c>
+      <c r="E1770">
+        <f t="shared" si="288"/>
+        <v>4</v>
+      </c>
+      <c r="F1770">
+        <f t="shared" si="289"/>
+        <v>2024</v>
+      </c>
+      <c r="G1770">
+        <f t="shared" si="290"/>
+        <v>2</v>
+      </c>
+      <c r="H1770" t="str">
+        <f t="shared" si="291"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1770" t="str">
+        <f t="shared" si="292"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1770" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1770" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1771" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>997</v>
+      </c>
+      <c r="D1771">
+        <v>24.6</v>
+      </c>
+      <c r="E1771">
+        <f t="shared" si="288"/>
+        <v>4</v>
+      </c>
+      <c r="F1771">
+        <f t="shared" si="289"/>
+        <v>2024</v>
+      </c>
+      <c r="G1771">
+        <f t="shared" si="290"/>
+        <v>6</v>
+      </c>
+      <c r="H1771" t="str">
+        <f t="shared" si="291"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1771" t="str">
+        <f t="shared" si="292"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1771" t="s">
+        <v>998</v>
+      </c>
+      <c r="K1771" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1772" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1772">
+        <v>0.59</v>
+      </c>
+      <c r="E1772">
+        <f t="shared" si="288"/>
+        <v>4</v>
+      </c>
+      <c r="F1772">
+        <f t="shared" si="289"/>
+        <v>2024</v>
+      </c>
+      <c r="G1772">
+        <f t="shared" si="290"/>
+        <v>1</v>
+      </c>
+      <c r="H1772" t="str">
+        <f t="shared" si="291"/>
+        <v>Monday</v>
+      </c>
+      <c r="I1772" t="str">
+        <f t="shared" si="292"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1772" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1772" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1773" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1773">
+        <v>1.29</v>
+      </c>
+      <c r="E1773">
+        <f t="shared" ref="E1773:E1780" si="293">MONTH(A1773)</f>
+        <v>4</v>
+      </c>
+      <c r="F1773">
+        <f t="shared" ref="F1773:F1780" si="294">YEAR(A1773)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1773">
+        <f t="shared" ref="G1773:G1780" si="295">WEEKDAY(A1773, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1773" t="str">
+        <f t="shared" ref="H1773:H1780" si="296">CHOOSE(WEEKDAY(A1773, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1773" t="str">
+        <f t="shared" ref="I1773:I1780" si="297">TEXT(A1773, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1773" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1773" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1774" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1774">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E1774">
+        <f t="shared" si="293"/>
+        <v>4</v>
+      </c>
+      <c r="F1774">
+        <f t="shared" si="294"/>
+        <v>2024</v>
+      </c>
+      <c r="G1774">
+        <f t="shared" si="295"/>
+        <v>6</v>
+      </c>
+      <c r="H1774" t="str">
+        <f t="shared" si="296"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1774" t="str">
+        <f t="shared" si="297"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1774" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1774" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1775" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>999</v>
+      </c>
+      <c r="D1775">
+        <v>2.06</v>
+      </c>
+      <c r="E1775">
+        <f t="shared" si="293"/>
+        <v>4</v>
+      </c>
+      <c r="F1775">
+        <f t="shared" si="294"/>
+        <v>2024</v>
+      </c>
+      <c r="G1775">
+        <f t="shared" si="295"/>
+        <v>6</v>
+      </c>
+      <c r="H1775" t="str">
+        <f t="shared" si="296"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1775" t="str">
+        <f t="shared" si="297"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1775" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1775" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1776" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1776">
+        <f>2.89-0.7</f>
+        <v>2.1900000000000004</v>
+      </c>
+      <c r="E1776">
+        <f t="shared" si="293"/>
+        <v>4</v>
+      </c>
+      <c r="F1776">
+        <f t="shared" si="294"/>
+        <v>2024</v>
+      </c>
+      <c r="G1776">
+        <f t="shared" si="295"/>
+        <v>6</v>
+      </c>
+      <c r="H1776" t="str">
+        <f t="shared" si="296"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1776" t="str">
+        <f t="shared" si="297"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1776" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1776" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1777" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D1777">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E1777">
+        <f t="shared" si="293"/>
+        <v>4</v>
+      </c>
+      <c r="F1777">
+        <f t="shared" si="294"/>
+        <v>2024</v>
+      </c>
+      <c r="G1777">
+        <f t="shared" si="295"/>
+        <v>6</v>
+      </c>
+      <c r="H1777" t="str">
+        <f t="shared" si="296"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1777" t="str">
+        <f t="shared" si="297"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1777" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1777" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1778" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D1778">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E1778">
+        <f t="shared" si="293"/>
+        <v>4</v>
+      </c>
+      <c r="F1778">
+        <f t="shared" si="294"/>
+        <v>2024</v>
+      </c>
+      <c r="G1778">
+        <f t="shared" si="295"/>
+        <v>6</v>
+      </c>
+      <c r="H1778" t="str">
+        <f t="shared" si="296"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1778" t="str">
+        <f t="shared" si="297"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1778" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1778" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1779" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>737</v>
+      </c>
+      <c r="D1779">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E1779">
+        <f t="shared" si="293"/>
+        <v>4</v>
+      </c>
+      <c r="F1779">
+        <f t="shared" si="294"/>
+        <v>2024</v>
+      </c>
+      <c r="G1779">
+        <f t="shared" si="295"/>
+        <v>6</v>
+      </c>
+      <c r="H1779" t="str">
+        <f t="shared" si="296"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1779" t="str">
+        <f t="shared" si="297"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1779" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1779" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1780" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D1780">
+        <v>1.26</v>
+      </c>
+      <c r="E1780">
+        <f t="shared" si="293"/>
+        <v>4</v>
+      </c>
+      <c r="F1780">
+        <f t="shared" si="294"/>
+        <v>2024</v>
+      </c>
+      <c r="G1780">
+        <f t="shared" si="295"/>
+        <v>5</v>
+      </c>
+      <c r="H1780" t="str">
+        <f t="shared" si="296"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1780" t="str">
+        <f t="shared" si="297"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1780" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1780" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1781" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1781">
+        <v>1.58</v>
+      </c>
+      <c r="E1781">
+        <f t="shared" ref="E1781:E1782" si="298">MONTH(A1781)</f>
+        <v>4</v>
+      </c>
+      <c r="F1781">
+        <f t="shared" ref="F1781:F1782" si="299">YEAR(A1781)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1781">
+        <f t="shared" ref="G1781:G1782" si="300">WEEKDAY(A1781, 2)</f>
+        <v>5</v>
+      </c>
+      <c r="H1781" t="str">
+        <f t="shared" ref="H1781:H1782" si="301">CHOOSE(WEEKDAY(A1781, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Friday</v>
+      </c>
+      <c r="I1781" t="str">
+        <f t="shared" ref="I1781:I1782" si="302">TEXT(A1781, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1781" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1781" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1782" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1782">
+        <v>0.99</v>
+      </c>
+      <c r="E1782">
+        <f t="shared" si="298"/>
+        <v>4</v>
+      </c>
+      <c r="F1782">
+        <f t="shared" si="299"/>
+        <v>2024</v>
+      </c>
+      <c r="G1782">
+        <f t="shared" si="300"/>
+        <v>4</v>
+      </c>
+      <c r="H1782" t="str">
+        <f t="shared" si="301"/>
+        <v>Thursday</v>
+      </c>
+      <c r="I1782" t="str">
+        <f t="shared" si="302"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1782" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1782" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1783" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1783">
+        <v>1.69</v>
+      </c>
+      <c r="E1783">
+        <f t="shared" ref="E1783:E1784" si="303">MONTH(A1783)</f>
+        <v>4</v>
+      </c>
+      <c r="F1783">
+        <f t="shared" ref="F1783:F1784" si="304">YEAR(A1783)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1783">
+        <f t="shared" ref="G1783:G1784" si="305">WEEKDAY(A1783, 2)</f>
+        <v>4</v>
+      </c>
+      <c r="H1783" t="str">
+        <f t="shared" ref="H1783:H1784" si="306">CHOOSE(WEEKDAY(A1783, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="I1783" t="str">
+        <f t="shared" ref="I1783:I1784" si="307">TEXT(A1783, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1783" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1783" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1784" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1784">
+        <v>0.99</v>
+      </c>
+      <c r="E1784">
+        <f t="shared" si="303"/>
+        <v>4</v>
+      </c>
+      <c r="F1784">
+        <f t="shared" si="304"/>
+        <v>2024</v>
+      </c>
+      <c r="G1784">
+        <f t="shared" si="305"/>
+        <v>5</v>
+      </c>
+      <c r="H1784" t="str">
+        <f t="shared" si="306"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1784" t="str">
+        <f t="shared" si="307"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1784" t="s">
+        <v>973</v>
+      </c>
+      <c r="K1784" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1785" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1785">
+        <v>0.99</v>
+      </c>
+      <c r="E1785">
+        <f t="shared" ref="E1785:E1788" si="308">MONTH(A1785)</f>
+        <v>4</v>
+      </c>
+      <c r="F1785">
+        <f t="shared" ref="F1785:F1788" si="309">YEAR(A1785)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1785">
+        <f t="shared" ref="G1785:G1788" si="310">WEEKDAY(A1785, 2)</f>
+        <v>5</v>
+      </c>
+      <c r="H1785" t="str">
+        <f t="shared" ref="H1785:H1788" si="311">CHOOSE(WEEKDAY(A1785, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Friday</v>
+      </c>
+      <c r="I1785" t="str">
+        <f t="shared" ref="I1785:I1788" si="312">TEXT(A1785, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1785" t="s">
+        <v>973</v>
+      </c>
+      <c r="K1785" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1786" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1786">
+        <v>0.79</v>
+      </c>
+      <c r="E1786">
+        <f t="shared" si="308"/>
+        <v>4</v>
+      </c>
+      <c r="F1786">
+        <f t="shared" si="309"/>
+        <v>2024</v>
+      </c>
+      <c r="G1786">
+        <f t="shared" si="310"/>
+        <v>5</v>
+      </c>
+      <c r="H1786" t="str">
+        <f t="shared" si="311"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1786" t="str">
+        <f t="shared" si="312"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1786" t="s">
+        <v>973</v>
+      </c>
+      <c r="K1786" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1787" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D1787">
+        <v>0.99</v>
+      </c>
+      <c r="E1787">
+        <f t="shared" si="308"/>
+        <v>4</v>
+      </c>
+      <c r="F1787">
+        <f t="shared" si="309"/>
+        <v>2024</v>
+      </c>
+      <c r="G1787">
+        <f t="shared" si="310"/>
+        <v>5</v>
+      </c>
+      <c r="H1787" t="str">
+        <f t="shared" si="311"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1787" t="str">
+        <f t="shared" si="312"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1787" t="s">
+        <v>973</v>
+      </c>
+      <c r="K1787" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1788" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1788">
+        <v>0.99</v>
+      </c>
+      <c r="E1788">
+        <f t="shared" si="308"/>
+        <v>4</v>
+      </c>
+      <c r="F1788">
+        <f t="shared" si="309"/>
+        <v>2024</v>
+      </c>
+      <c r="G1788">
+        <f t="shared" si="310"/>
+        <v>5</v>
+      </c>
+      <c r="H1788" t="str">
+        <f t="shared" si="311"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1788" t="str">
+        <f t="shared" si="312"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1788" t="s">
+        <v>973</v>
+      </c>
+      <c r="K1788" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1789" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>971</v>
+      </c>
+      <c r="D1789">
+        <f>1.69-0.43</f>
+        <v>1.26</v>
+      </c>
+      <c r="E1789">
+        <f t="shared" ref="E1789:E1791" si="313">MONTH(A1789)</f>
+        <v>4</v>
+      </c>
+      <c r="F1789">
+        <f t="shared" ref="F1789:F1791" si="314">YEAR(A1789)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1789">
+        <f t="shared" ref="G1789:G1791" si="315">WEEKDAY(A1789, 2)</f>
+        <v>5</v>
+      </c>
+      <c r="H1789" t="str">
+        <f t="shared" ref="H1789:H1791" si="316">CHOOSE(WEEKDAY(A1789, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Friday</v>
+      </c>
+      <c r="I1789" t="str">
+        <f t="shared" ref="I1789:I1791" si="317">TEXT(A1789, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1789" t="s">
+        <v>269</v>
+      </c>
+      <c r="K1789" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1790" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D1790">
+        <v>2.85</v>
+      </c>
+      <c r="E1790">
+        <f t="shared" si="313"/>
+        <v>4</v>
+      </c>
+      <c r="F1790">
+        <f t="shared" si="314"/>
+        <v>2024</v>
+      </c>
+      <c r="G1790">
+        <f t="shared" si="315"/>
+        <v>5</v>
+      </c>
+      <c r="H1790" t="str">
+        <f t="shared" si="316"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1790" t="str">
+        <f t="shared" si="317"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1790" t="s">
+        <v>269</v>
+      </c>
+      <c r="K1790" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1791" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>745</v>
+      </c>
+      <c r="D1791">
+        <v>2.6</v>
+      </c>
+      <c r="E1791">
+        <f t="shared" si="313"/>
+        <v>4</v>
+      </c>
+      <c r="F1791">
+        <f t="shared" si="314"/>
+        <v>2024</v>
+      </c>
+      <c r="G1791">
+        <f t="shared" si="315"/>
+        <v>6</v>
+      </c>
+      <c r="H1791" t="str">
+        <f t="shared" si="316"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1791" t="str">
+        <f t="shared" si="317"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1791" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K1791" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1792" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D1792">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E1792">
+        <f t="shared" ref="E1792" si="318">MONTH(A1792)</f>
+        <v>4</v>
+      </c>
+      <c r="F1792">
+        <f t="shared" ref="F1792" si="319">YEAR(A1792)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1792">
+        <f t="shared" ref="G1792" si="320">WEEKDAY(A1792, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1792" t="str">
+        <f t="shared" ref="H1792" si="321">CHOOSE(WEEKDAY(A1792, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1792" t="str">
+        <f t="shared" ref="I1792" si="322">TEXT(A1792, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1792" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K1792" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1793" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1793">
+        <v>2</v>
+      </c>
+      <c r="E1793">
+        <f t="shared" ref="E1793:E1803" si="323">MONTH(A1793)</f>
+        <v>4</v>
+      </c>
+      <c r="F1793">
+        <f t="shared" ref="F1793:F1803" si="324">YEAR(A1793)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1793">
+        <f t="shared" ref="G1793:G1803" si="325">WEEKDAY(A1793, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1793" t="str">
+        <f t="shared" ref="H1793:H1803" si="326">CHOOSE(WEEKDAY(A1793, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1793" t="str">
+        <f t="shared" ref="I1793:I1803" si="327">TEXT(A1793, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1793" t="s">
+        <v>403</v>
+      </c>
+      <c r="K1793" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1794" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1794">
+        <v>2</v>
+      </c>
+      <c r="E1794">
+        <f t="shared" si="323"/>
+        <v>4</v>
+      </c>
+      <c r="F1794">
+        <f t="shared" si="324"/>
+        <v>2024</v>
+      </c>
+      <c r="G1794">
+        <f t="shared" si="325"/>
+        <v>6</v>
+      </c>
+      <c r="H1794" t="str">
+        <f t="shared" si="326"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1794" t="str">
+        <f t="shared" si="327"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1794" t="s">
+        <v>403</v>
+      </c>
+      <c r="K1794" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1795" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1795">
+        <v>2</v>
+      </c>
+      <c r="E1795">
+        <f t="shared" si="323"/>
+        <v>4</v>
+      </c>
+      <c r="F1795">
+        <f t="shared" si="324"/>
+        <v>2024</v>
+      </c>
+      <c r="G1795">
+        <f t="shared" si="325"/>
+        <v>6</v>
+      </c>
+      <c r="H1795" t="str">
+        <f t="shared" si="326"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1795" t="str">
+        <f t="shared" si="327"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1795" t="s">
+        <v>403</v>
+      </c>
+      <c r="K1795" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1796" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>895</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D1796">
+        <f>4.2/2</f>
+        <v>2.1</v>
+      </c>
+      <c r="E1796">
+        <f t="shared" si="323"/>
+        <v>4</v>
+      </c>
+      <c r="F1796">
+        <f t="shared" si="324"/>
+        <v>2024</v>
+      </c>
+      <c r="G1796">
+        <f t="shared" si="325"/>
+        <v>6</v>
+      </c>
+      <c r="H1796" t="str">
+        <f t="shared" si="326"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1796" t="str">
+        <f t="shared" si="327"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1796" t="s">
+        <v>403</v>
+      </c>
+      <c r="K1796" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1797" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>895</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1797">
+        <f>4.2/2</f>
+        <v>2.1</v>
+      </c>
+      <c r="E1797">
+        <f t="shared" si="323"/>
+        <v>4</v>
+      </c>
+      <c r="F1797">
+        <f t="shared" si="324"/>
+        <v>2024</v>
+      </c>
+      <c r="G1797">
+        <f t="shared" si="325"/>
+        <v>6</v>
+      </c>
+      <c r="H1797" t="str">
+        <f t="shared" si="326"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1797" t="str">
+        <f t="shared" si="327"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1797" t="s">
+        <v>403</v>
+      </c>
+      <c r="K1797" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1798" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>895</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1798">
+        <f>4.2/2</f>
+        <v>2.1</v>
+      </c>
+      <c r="E1798">
+        <f t="shared" si="323"/>
+        <v>4</v>
+      </c>
+      <c r="F1798">
+        <f t="shared" si="324"/>
+        <v>2024</v>
+      </c>
+      <c r="G1798">
+        <f t="shared" si="325"/>
+        <v>6</v>
+      </c>
+      <c r="H1798" t="str">
+        <f t="shared" si="326"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1798" t="str">
+        <f t="shared" si="327"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1798" t="s">
+        <v>403</v>
+      </c>
+      <c r="K1798" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1799" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>934</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D1799">
+        <v>3.7</v>
+      </c>
+      <c r="E1799">
+        <f t="shared" si="323"/>
+        <v>4</v>
+      </c>
+      <c r="F1799">
+        <f t="shared" si="324"/>
+        <v>2024</v>
+      </c>
+      <c r="G1799">
+        <f t="shared" si="325"/>
+        <v>6</v>
+      </c>
+      <c r="H1799" t="str">
+        <f t="shared" si="326"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1799" t="str">
+        <f t="shared" si="327"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1799" t="s">
+        <v>403</v>
+      </c>
+      <c r="K1799" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1800" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>934</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D1800">
+        <v>3.7</v>
+      </c>
+      <c r="E1800">
+        <f t="shared" si="323"/>
+        <v>4</v>
+      </c>
+      <c r="F1800">
+        <f t="shared" si="324"/>
+        <v>2024</v>
+      </c>
+      <c r="G1800">
+        <f t="shared" si="325"/>
+        <v>6</v>
+      </c>
+      <c r="H1800" t="str">
+        <f t="shared" si="326"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1800" t="str">
+        <f t="shared" si="327"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1800" t="s">
+        <v>403</v>
+      </c>
+      <c r="K1800" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1801" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>934</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D1801">
+        <f>5.2-2.6</f>
+        <v>2.6</v>
+      </c>
+      <c r="E1801">
+        <f t="shared" si="323"/>
+        <v>4</v>
+      </c>
+      <c r="F1801">
+        <f t="shared" si="324"/>
+        <v>2024</v>
+      </c>
+      <c r="G1801">
+        <f t="shared" si="325"/>
+        <v>6</v>
+      </c>
+      <c r="H1801" t="str">
+        <f t="shared" si="326"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1801" t="str">
+        <f t="shared" si="327"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1801" t="s">
+        <v>403</v>
+      </c>
+      <c r="K1801" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1802" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>934</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D1802">
+        <f>5.2-2.6</f>
+        <v>2.6</v>
+      </c>
+      <c r="E1802">
+        <f t="shared" si="323"/>
+        <v>4</v>
+      </c>
+      <c r="F1802">
+        <f t="shared" si="324"/>
+        <v>2024</v>
+      </c>
+      <c r="G1802">
+        <f t="shared" si="325"/>
+        <v>6</v>
+      </c>
+      <c r="H1802" t="str">
+        <f t="shared" si="326"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1802" t="str">
+        <f t="shared" si="327"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1802" t="s">
+        <v>403</v>
+      </c>
+      <c r="K1802" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1803" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>934</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D1803">
+        <v>3.7</v>
+      </c>
+      <c r="E1803">
+        <f t="shared" si="323"/>
+        <v>4</v>
+      </c>
+      <c r="F1803">
+        <f t="shared" si="324"/>
+        <v>2024</v>
+      </c>
+      <c r="G1803">
+        <f t="shared" si="325"/>
+        <v>6</v>
+      </c>
+      <c r="H1803" t="str">
+        <f t="shared" si="326"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1803" t="str">
+        <f t="shared" si="327"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1803" t="s">
+        <v>403</v>
+      </c>
+      <c r="K1803" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1804" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D1804">
+        <f>7.9/2</f>
+        <v>3.95</v>
+      </c>
+      <c r="E1804">
+        <f t="shared" ref="E1804" si="328">MONTH(A1804)</f>
+        <v>4</v>
+      </c>
+      <c r="F1804">
+        <f t="shared" ref="F1804" si="329">YEAR(A1804)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1804">
+        <f t="shared" ref="G1804" si="330">WEEKDAY(A1804, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1804" t="str">
+        <f t="shared" ref="H1804" si="331">CHOOSE(WEEKDAY(A1804, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1804" t="str">
+        <f t="shared" ref="I1804" si="332">TEXT(A1804, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1804" t="s">
+        <v>318</v>
+      </c>
+      <c r="K1804" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1805" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D1805">
+        <v>0.27</v>
+      </c>
+      <c r="E1805">
+        <f t="shared" ref="E1805:E1808" si="333">MONTH(A1805)</f>
+        <v>4</v>
+      </c>
+      <c r="F1805">
+        <f t="shared" ref="F1805:F1808" si="334">YEAR(A1805)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1805">
+        <f t="shared" ref="G1805:G1808" si="335">WEEKDAY(A1805, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1805" t="str">
+        <f t="shared" ref="H1805:H1808" si="336">CHOOSE(WEEKDAY(A1805, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1805" t="str">
+        <f t="shared" ref="I1805:I1808" si="337">TEXT(A1805, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1805" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K1805" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1806" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D1806">
+        <v>0.27</v>
+      </c>
+      <c r="E1806">
+        <f t="shared" si="333"/>
+        <v>4</v>
+      </c>
+      <c r="F1806">
+        <f t="shared" si="334"/>
+        <v>2024</v>
+      </c>
+      <c r="G1806">
+        <f t="shared" si="335"/>
+        <v>6</v>
+      </c>
+      <c r="H1806" t="str">
+        <f t="shared" si="336"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1806" t="str">
+        <f t="shared" si="337"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1806" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K1806" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1807" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1807">
+        <v>2.9</v>
+      </c>
+      <c r="E1807">
+        <f t="shared" si="333"/>
+        <v>4</v>
+      </c>
+      <c r="F1807">
+        <f t="shared" si="334"/>
+        <v>2024</v>
+      </c>
+      <c r="G1807">
+        <f t="shared" si="335"/>
+        <v>1</v>
+      </c>
+      <c r="H1807" t="str">
+        <f t="shared" si="336"/>
+        <v>Monday</v>
+      </c>
+      <c r="I1807" t="str">
+        <f t="shared" si="337"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1807" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1808" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1808">
+        <v>2.9</v>
+      </c>
+      <c r="E1808">
+        <f t="shared" si="333"/>
+        <v>4</v>
+      </c>
+      <c r="F1808">
+        <f t="shared" si="334"/>
+        <v>2024</v>
+      </c>
+      <c r="G1808">
+        <f t="shared" si="335"/>
+        <v>2</v>
+      </c>
+      <c r="H1808" t="str">
+        <f t="shared" si="336"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1808" t="str">
+        <f t="shared" si="337"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1808" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1809" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1809">
+        <v>0.79</v>
+      </c>
+      <c r="E1809">
+        <f t="shared" ref="E1809" si="338">MONTH(A1809)</f>
+        <v>4</v>
+      </c>
+      <c r="F1809">
+        <f t="shared" ref="F1809" si="339">YEAR(A1809)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1809">
+        <f t="shared" ref="G1809" si="340">WEEKDAY(A1809, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H1809" t="str">
+        <f t="shared" ref="H1809" si="341">CHOOSE(WEEKDAY(A1809, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1809" t="str">
+        <f t="shared" ref="I1809" si="342">TEXT(A1809, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1809" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1810" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>959</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D1810">
+        <f>1.5/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="E1810">
+        <f t="shared" ref="E1810" si="343">MONTH(A1810)</f>
+        <v>4</v>
+      </c>
+      <c r="F1810">
+        <f t="shared" ref="F1810" si="344">YEAR(A1810)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1810">
+        <f t="shared" ref="G1810" si="345">WEEKDAY(A1810, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1810" t="str">
+        <f t="shared" ref="H1810" si="346">CHOOSE(WEEKDAY(A1810, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1810" t="str">
+        <f t="shared" ref="I1810" si="347">TEXT(A1810, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1810" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K1810" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1811" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1811">
+        <f>9.99/2</f>
+        <v>4.9950000000000001</v>
+      </c>
+      <c r="E1811">
+        <f t="shared" ref="E1811" si="348">MONTH(A1811)</f>
+        <v>4</v>
+      </c>
+      <c r="F1811">
+        <f t="shared" ref="F1811" si="349">YEAR(A1811)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1811">
+        <f t="shared" ref="G1811" si="350">WEEKDAY(A1811, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1811" t="str">
+        <f t="shared" ref="H1811" si="351">CHOOSE(WEEKDAY(A1811, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1811" t="str">
+        <f t="shared" ref="I1811" si="352">TEXT(A1811, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1811" t="s">
+        <v>1021</v>
+      </c>
+      <c r="K1811" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1812" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1812">
+        <f>(7.99-7)/2</f>
+        <v>0.49500000000000011</v>
+      </c>
+      <c r="E1812">
+        <f t="shared" ref="E1812" si="353">MONTH(A1812)</f>
+        <v>4</v>
+      </c>
+      <c r="F1812">
+        <f t="shared" ref="F1812" si="354">YEAR(A1812)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1812">
+        <f t="shared" ref="G1812" si="355">WEEKDAY(A1812, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1812" t="str">
+        <f t="shared" ref="H1812" si="356">CHOOSE(WEEKDAY(A1812, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1812" t="str">
+        <f t="shared" ref="I1812" si="357">TEXT(A1812, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1812" t="s">
+        <v>1021</v>
+      </c>
+      <c r="K1812" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1813" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1813">
+        <v>2</v>
+      </c>
+      <c r="E1813">
+        <f t="shared" ref="E1813:E1814" si="358">MONTH(A1813)</f>
+        <v>4</v>
+      </c>
+      <c r="F1813">
+        <f t="shared" ref="F1813:F1814" si="359">YEAR(A1813)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1813">
+        <f t="shared" ref="G1813:G1814" si="360">WEEKDAY(A1813, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1813" t="str">
+        <f t="shared" ref="H1813:H1814" si="361">CHOOSE(WEEKDAY(A1813, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1813" t="str">
+        <f t="shared" ref="I1813:I1814" si="362">TEXT(A1813, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1813" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K1813" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1814" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D1814">
+        <f>11/2</f>
+        <v>5.5</v>
+      </c>
+      <c r="E1814">
+        <f t="shared" si="358"/>
+        <v>4</v>
+      </c>
+      <c r="F1814">
+        <f t="shared" si="359"/>
+        <v>2024</v>
+      </c>
+      <c r="G1814">
+        <f t="shared" si="360"/>
+        <v>6</v>
+      </c>
+      <c r="H1814" t="str">
+        <f t="shared" si="361"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1814" t="str">
+        <f t="shared" si="362"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1814" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K1814" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1815" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D1815">
+        <f>1.5/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="E1815">
+        <f t="shared" ref="E1815" si="363">MONTH(A1815)</f>
+        <v>4</v>
+      </c>
+      <c r="F1815">
+        <f t="shared" ref="F1815" si="364">YEAR(A1815)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1815">
+        <f t="shared" ref="G1815" si="365">WEEKDAY(A1815, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1815" t="str">
+        <f t="shared" ref="H1815" si="366">CHOOSE(WEEKDAY(A1815, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1815" t="str">
+        <f t="shared" ref="I1815" si="367">TEXT(A1815, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1815" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K1815" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1816" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1816">
+        <v>1.3</v>
+      </c>
+      <c r="E1816">
+        <f t="shared" ref="E1816:E1817" si="368">MONTH(A1816)</f>
+        <v>4</v>
+      </c>
+      <c r="F1816">
+        <f t="shared" ref="F1816:F1817" si="369">YEAR(A1816)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1816">
+        <f t="shared" ref="G1816:G1817" si="370">WEEKDAY(A1816, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1816" t="str">
+        <f t="shared" ref="H1816:H1817" si="371">CHOOSE(WEEKDAY(A1816, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1816" t="str">
+        <f t="shared" ref="I1816:I1817" si="372">TEXT(A1816, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1816" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K1816" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1817" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1817">
+        <f>2.89-0.7</f>
+        <v>2.1900000000000004</v>
+      </c>
+      <c r="E1817">
+        <f t="shared" si="368"/>
+        <v>4</v>
+      </c>
+      <c r="F1817">
+        <f t="shared" si="369"/>
+        <v>2024</v>
+      </c>
+      <c r="G1817">
+        <f t="shared" si="370"/>
+        <v>2</v>
+      </c>
+      <c r="H1817" t="str">
+        <f t="shared" si="371"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1817" t="str">
+        <f t="shared" si="372"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1817" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1817" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1818" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1818">
+        <f>2.89-0.7</f>
+        <v>2.1900000000000004</v>
+      </c>
+      <c r="E1818">
+        <f t="shared" ref="E1818" si="373">MONTH(A1818)</f>
+        <v>4</v>
+      </c>
+      <c r="F1818">
+        <f t="shared" ref="F1818" si="374">YEAR(A1818)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1818">
+        <f t="shared" ref="G1818" si="375">WEEKDAY(A1818, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H1818" t="str">
+        <f t="shared" ref="H1818" si="376">CHOOSE(WEEKDAY(A1818, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1818" t="str">
+        <f t="shared" ref="I1818" si="377">TEXT(A1818, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1818" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1818" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1819" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D1819">
+        <v>0.99</v>
+      </c>
+      <c r="E1819">
+        <f t="shared" ref="E1819:E1824" si="378">MONTH(A1819)</f>
+        <v>4</v>
+      </c>
+      <c r="F1819">
+        <f t="shared" ref="F1819:F1824" si="379">YEAR(A1819)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1819">
+        <f t="shared" ref="G1819:G1824" si="380">WEEKDAY(A1819, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H1819" t="str">
+        <f t="shared" ref="H1819:H1824" si="381">CHOOSE(WEEKDAY(A1819, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1819" t="str">
+        <f t="shared" ref="I1819:I1824" si="382">TEXT(A1819, "MMM")</f>
+        <v>Apr</v>
+      </c>
+      <c r="J1819" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1819" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1820" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D1820">
+        <v>0.99</v>
+      </c>
+      <c r="E1820">
+        <f t="shared" si="378"/>
+        <v>4</v>
+      </c>
+      <c r="F1820">
+        <f t="shared" si="379"/>
+        <v>2024</v>
+      </c>
+      <c r="G1820">
+        <f t="shared" si="380"/>
+        <v>2</v>
+      </c>
+      <c r="H1820" t="str">
+        <f t="shared" si="381"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1820" t="str">
+        <f t="shared" si="382"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1820" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1820" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1821" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D1821">
+        <v>0.99</v>
+      </c>
+      <c r="E1821">
+        <f t="shared" si="378"/>
+        <v>4</v>
+      </c>
+      <c r="F1821">
+        <f t="shared" si="379"/>
+        <v>2024</v>
+      </c>
+      <c r="G1821">
+        <f t="shared" si="380"/>
+        <v>2</v>
+      </c>
+      <c r="H1821" t="str">
+        <f t="shared" si="381"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1821" t="str">
+        <f t="shared" si="382"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1821" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1821" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1822" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D1822">
+        <v>1.19</v>
+      </c>
+      <c r="E1822">
+        <f t="shared" si="378"/>
+        <v>4</v>
+      </c>
+      <c r="F1822">
+        <f t="shared" si="379"/>
+        <v>2024</v>
+      </c>
+      <c r="G1822">
+        <f t="shared" si="380"/>
+        <v>2</v>
+      </c>
+      <c r="H1822" t="str">
+        <f t="shared" si="381"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1822" t="str">
+        <f t="shared" si="382"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1822" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1822" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1823" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D1823">
+        <v>1.19</v>
+      </c>
+      <c r="E1823">
+        <f t="shared" si="378"/>
+        <v>4</v>
+      </c>
+      <c r="F1823">
+        <f t="shared" si="379"/>
+        <v>2024</v>
+      </c>
+      <c r="G1823">
+        <f t="shared" si="380"/>
+        <v>2</v>
+      </c>
+      <c r="H1823" t="str">
+        <f t="shared" si="381"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1823" t="str">
+        <f t="shared" si="382"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1823" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1823" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1824" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D1824">
+        <v>1.19</v>
+      </c>
+      <c r="E1824">
+        <f t="shared" si="378"/>
+        <v>4</v>
+      </c>
+      <c r="F1824">
+        <f t="shared" si="379"/>
+        <v>2024</v>
+      </c>
+      <c r="G1824">
+        <f t="shared" si="380"/>
+        <v>2</v>
+      </c>
+      <c r="H1824" t="str">
+        <f t="shared" si="381"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1824" t="str">
+        <f t="shared" si="382"/>
+        <v>Apr</v>
+      </c>
+      <c r="J1824" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1824" t="s">
+        <v>730</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:L1803" xr:uid="{397426C9-9494-4E73-BF9B-2DE40DB1433B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E984">
     <sortCondition ref="A965:A984"/>
   </sortState>

--- a/data/expense_tracker.xlsx
+++ b/data/expense_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\solutions\learning_python\expense_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EDA535-3CE7-4F94-9A83-49CAEC66042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49257D50-E4AB-4A03-B4FA-05C79BFBE8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="859" xr2:uid="{7A62D1F9-0105-4F41-8BB8-21CA3D721AF6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6732" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6821" uniqueCount="1042">
   <si>
     <t>expense_type</t>
   </si>
@@ -3130,6 +3130,42 @@
   </si>
   <si>
     <t>best moments 85%</t>
+  </si>
+  <si>
+    <t>flying goose sriracha wasabi 200ml</t>
+  </si>
+  <si>
+    <t>pocky cookies &amp; cream 40g</t>
+  </si>
+  <si>
+    <t>modern asia market</t>
+  </si>
+  <si>
+    <t>basic kuchenrolle</t>
+  </si>
+  <si>
+    <t>vanillejog. Schokomuesli</t>
+  </si>
+  <si>
+    <t>protein pita roll chicken</t>
+  </si>
+  <si>
+    <t>franziskaner fi.</t>
+  </si>
+  <si>
+    <t>rm apfel rot tasse 0.797kgx1.99</t>
+  </si>
+  <si>
+    <t>apfel 0,998x1,89kg</t>
+  </si>
+  <si>
+    <t>spar curly-fries 600g</t>
+  </si>
+  <si>
+    <t>spar gitterpommes</t>
+  </si>
+  <si>
+    <t>spar highprotknm 500g</t>
   </si>
 </sst>
 </file>
@@ -3482,11 +3518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397426C9-9494-4E73-BF9B-2DE40DB1433B}">
-  <dimension ref="A1:L1824"/>
+  <dimension ref="A1:L1848"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1801" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1810" sqref="I1810"/>
+      <pane ySplit="1" topLeftCell="A1826" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1835" sqref="H1835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70266,23 +70302,23 @@
         <v>0.99</v>
       </c>
       <c r="E1819">
-        <f t="shared" ref="E1819:E1824" si="378">MONTH(A1819)</f>
+        <f t="shared" ref="E1819:E1825" si="378">MONTH(A1819)</f>
         <v>4</v>
       </c>
       <c r="F1819">
-        <f t="shared" ref="F1819:F1824" si="379">YEAR(A1819)</f>
+        <f t="shared" ref="F1819:F1825" si="379">YEAR(A1819)</f>
         <v>2024</v>
       </c>
       <c r="G1819">
-        <f t="shared" ref="G1819:G1824" si="380">WEEKDAY(A1819, 2)</f>
+        <f t="shared" ref="G1819:G1825" si="380">WEEKDAY(A1819, 2)</f>
         <v>2</v>
       </c>
       <c r="H1819" t="str">
-        <f t="shared" ref="H1819:H1824" si="381">CHOOSE(WEEKDAY(A1819, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1819:H1825" si="381">CHOOSE(WEEKDAY(A1819, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Tuesday</v>
       </c>
       <c r="I1819" t="str">
-        <f t="shared" ref="I1819:I1824" si="382">TEXT(A1819, "MMM")</f>
+        <f t="shared" ref="I1819:I1825" si="382">TEXT(A1819, "MMM")</f>
         <v>Apr</v>
       </c>
       <c r="J1819" t="s">
@@ -70489,6 +70525,950 @@
         <v>47</v>
       </c>
       <c r="K1824" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1825" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1825">
+        <v>2.9</v>
+      </c>
+      <c r="E1825">
+        <f t="shared" si="378"/>
+        <v>5</v>
+      </c>
+      <c r="F1825">
+        <f t="shared" si="379"/>
+        <v>2024</v>
+      </c>
+      <c r="G1825">
+        <f t="shared" si="380"/>
+        <v>4</v>
+      </c>
+      <c r="H1825" t="str">
+        <f t="shared" si="381"/>
+        <v>Thursday</v>
+      </c>
+      <c r="I1825" t="str">
+        <f t="shared" si="382"/>
+        <v>May</v>
+      </c>
+      <c r="J1825" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1826" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1826">
+        <v>0.79</v>
+      </c>
+      <c r="E1826">
+        <f t="shared" ref="E1826:E1827" si="383">MONTH(A1826)</f>
+        <v>5</v>
+      </c>
+      <c r="F1826">
+        <f t="shared" ref="F1826:F1827" si="384">YEAR(A1826)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1826">
+        <f t="shared" ref="G1826:G1827" si="385">WEEKDAY(A1826, 2)</f>
+        <v>4</v>
+      </c>
+      <c r="H1826" t="str">
+        <f t="shared" ref="H1826:H1827" si="386">CHOOSE(WEEKDAY(A1826, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="I1826" t="str">
+        <f t="shared" ref="I1826:I1827" si="387">TEXT(A1826, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1826" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1827" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1827">
+        <v>3.3</v>
+      </c>
+      <c r="E1827">
+        <f t="shared" si="383"/>
+        <v>5</v>
+      </c>
+      <c r="F1827">
+        <f t="shared" si="384"/>
+        <v>2024</v>
+      </c>
+      <c r="G1827">
+        <f t="shared" si="385"/>
+        <v>5</v>
+      </c>
+      <c r="H1827" t="str">
+        <f t="shared" si="386"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1827" t="str">
+        <f t="shared" si="387"/>
+        <v>May</v>
+      </c>
+      <c r="J1827" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1828" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>640</v>
+      </c>
+      <c r="D1828">
+        <v>0.79</v>
+      </c>
+      <c r="E1828">
+        <f t="shared" ref="E1828:E1829" si="388">MONTH(A1828)</f>
+        <v>5</v>
+      </c>
+      <c r="F1828">
+        <f t="shared" ref="F1828:F1829" si="389">YEAR(A1828)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1828">
+        <f t="shared" ref="G1828:G1829" si="390">WEEKDAY(A1828, 2)</f>
+        <v>5</v>
+      </c>
+      <c r="H1828" t="str">
+        <f t="shared" ref="H1828:H1829" si="391">CHOOSE(WEEKDAY(A1828, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Friday</v>
+      </c>
+      <c r="I1828" t="str">
+        <f t="shared" ref="I1828:I1829" si="392">TEXT(A1828, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1828" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1829" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D1829">
+        <v>2.6</v>
+      </c>
+      <c r="E1829">
+        <f t="shared" si="388"/>
+        <v>5</v>
+      </c>
+      <c r="F1829">
+        <f t="shared" si="389"/>
+        <v>2024</v>
+      </c>
+      <c r="G1829">
+        <f t="shared" si="390"/>
+        <v>6</v>
+      </c>
+      <c r="H1829" t="str">
+        <f t="shared" si="391"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1829" t="str">
+        <f t="shared" si="392"/>
+        <v>May</v>
+      </c>
+      <c r="J1829" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K1829" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1830" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1830">
+        <v>2.5</v>
+      </c>
+      <c r="E1830">
+        <f t="shared" ref="E1830" si="393">MONTH(A1830)</f>
+        <v>5</v>
+      </c>
+      <c r="F1830">
+        <f t="shared" ref="F1830" si="394">YEAR(A1830)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1830">
+        <f t="shared" ref="G1830" si="395">WEEKDAY(A1830, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1830" t="str">
+        <f t="shared" ref="H1830" si="396">CHOOSE(WEEKDAY(A1830, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1830" t="str">
+        <f t="shared" ref="I1830" si="397">TEXT(A1830, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1830" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K1830" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1831" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1831">
+        <f>2.39/2</f>
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="E1831">
+        <f t="shared" ref="E1831:E1833" si="398">MONTH(A1831)</f>
+        <v>5</v>
+      </c>
+      <c r="F1831">
+        <f t="shared" ref="F1831:F1833" si="399">YEAR(A1831)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1831">
+        <f t="shared" ref="G1831:G1833" si="400">WEEKDAY(A1831, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1831" t="str">
+        <f t="shared" ref="H1831:H1833" si="401">CHOOSE(WEEKDAY(A1831, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1831" t="str">
+        <f t="shared" ref="I1831:I1833" si="402">TEXT(A1831, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1831" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1831" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1832" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D1832">
+        <f>3.82-1.91</f>
+        <v>1.91</v>
+      </c>
+      <c r="E1832">
+        <f t="shared" si="398"/>
+        <v>5</v>
+      </c>
+      <c r="F1832">
+        <f t="shared" si="399"/>
+        <v>2024</v>
+      </c>
+      <c r="G1832">
+        <f t="shared" si="400"/>
+        <v>6</v>
+      </c>
+      <c r="H1832" t="str">
+        <f t="shared" si="401"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1832" t="str">
+        <f t="shared" si="402"/>
+        <v>May</v>
+      </c>
+      <c r="J1832" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1832" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1833" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>938</v>
+      </c>
+      <c r="D1833">
+        <v>2.4</v>
+      </c>
+      <c r="E1833">
+        <f t="shared" si="398"/>
+        <v>5</v>
+      </c>
+      <c r="F1833">
+        <f t="shared" si="399"/>
+        <v>2024</v>
+      </c>
+      <c r="G1833">
+        <f t="shared" si="400"/>
+        <v>1</v>
+      </c>
+      <c r="H1833" t="str">
+        <f t="shared" si="401"/>
+        <v>Monday</v>
+      </c>
+      <c r="I1833" t="str">
+        <f t="shared" si="402"/>
+        <v>May</v>
+      </c>
+      <c r="J1833" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1834" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1834">
+        <v>4.16</v>
+      </c>
+      <c r="E1834">
+        <f t="shared" ref="E1834:E1836" si="403">MONTH(A1834)</f>
+        <v>5</v>
+      </c>
+      <c r="F1834">
+        <f t="shared" ref="F1834:F1836" si="404">YEAR(A1834)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1834">
+        <f t="shared" ref="G1834:G1836" si="405">WEEKDAY(A1834, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H1834" t="str">
+        <f t="shared" ref="H1834:H1836" si="406">CHOOSE(WEEKDAY(A1834, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1834" t="str">
+        <f t="shared" ref="I1834:I1836" si="407">TEXT(A1834, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1834" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1835" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1835">
+        <v>2.9</v>
+      </c>
+      <c r="E1835">
+        <f t="shared" si="403"/>
+        <v>5</v>
+      </c>
+      <c r="F1835">
+        <f t="shared" si="404"/>
+        <v>2024</v>
+      </c>
+      <c r="G1835">
+        <f t="shared" si="405"/>
+        <v>3</v>
+      </c>
+      <c r="H1835" t="str">
+        <f t="shared" si="406"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="I1835" t="str">
+        <f t="shared" si="407"/>
+        <v>May</v>
+      </c>
+      <c r="J1835" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1836" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D1836">
+        <v>3.79</v>
+      </c>
+      <c r="E1836">
+        <f t="shared" si="403"/>
+        <v>5</v>
+      </c>
+      <c r="F1836">
+        <f t="shared" si="404"/>
+        <v>2024</v>
+      </c>
+      <c r="G1836">
+        <f t="shared" si="405"/>
+        <v>2</v>
+      </c>
+      <c r="H1836" t="str">
+        <f t="shared" si="406"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1836" t="str">
+        <f t="shared" si="407"/>
+        <v>May</v>
+      </c>
+      <c r="J1836" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1836" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1837" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1837">
+        <v>1.69</v>
+      </c>
+      <c r="E1837">
+        <f t="shared" ref="E1837:E1839" si="408">MONTH(A1837)</f>
+        <v>5</v>
+      </c>
+      <c r="F1837">
+        <f t="shared" ref="F1837:F1839" si="409">YEAR(A1837)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1837">
+        <f t="shared" ref="G1837:G1839" si="410">WEEKDAY(A1837, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H1837" t="str">
+        <f t="shared" ref="H1837:H1839" si="411">CHOOSE(WEEKDAY(A1837, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1837" t="str">
+        <f t="shared" ref="I1837:I1839" si="412">TEXT(A1837, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1837" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1837" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1838" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D1838">
+        <v>1.29</v>
+      </c>
+      <c r="E1838">
+        <f t="shared" si="408"/>
+        <v>5</v>
+      </c>
+      <c r="F1838">
+        <f t="shared" si="409"/>
+        <v>2024</v>
+      </c>
+      <c r="G1838">
+        <f t="shared" si="410"/>
+        <v>2</v>
+      </c>
+      <c r="H1838" t="str">
+        <f t="shared" si="411"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1838" t="str">
+        <f t="shared" si="412"/>
+        <v>May</v>
+      </c>
+      <c r="J1838" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1838" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1839" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D1839">
+        <v>1.59</v>
+      </c>
+      <c r="E1839">
+        <f t="shared" si="408"/>
+        <v>5</v>
+      </c>
+      <c r="F1839">
+        <f t="shared" si="409"/>
+        <v>2024</v>
+      </c>
+      <c r="G1839">
+        <f t="shared" si="410"/>
+        <v>3</v>
+      </c>
+      <c r="H1839" t="str">
+        <f t="shared" si="411"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="I1839" t="str">
+        <f t="shared" si="412"/>
+        <v>May</v>
+      </c>
+      <c r="J1839" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1839" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1840" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1840">
+        <v>1.69</v>
+      </c>
+      <c r="E1840">
+        <f t="shared" ref="E1840:E1842" si="413">MONTH(A1840)</f>
+        <v>5</v>
+      </c>
+      <c r="F1840">
+        <f t="shared" ref="F1840:F1842" si="414">YEAR(A1840)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1840">
+        <f t="shared" ref="G1840:G1842" si="415">WEEKDAY(A1840, 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H1840" t="str">
+        <f t="shared" ref="H1840:H1842" si="416">CHOOSE(WEEKDAY(A1840, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="I1840" t="str">
+        <f t="shared" ref="I1840:I1842" si="417">TEXT(A1840, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1840" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1840" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1841" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1841">
+        <f>49.33/2</f>
+        <v>24.664999999999999</v>
+      </c>
+      <c r="E1841">
+        <f t="shared" si="413"/>
+        <v>5</v>
+      </c>
+      <c r="F1841">
+        <f t="shared" si="414"/>
+        <v>2024</v>
+      </c>
+      <c r="G1841">
+        <f t="shared" si="415"/>
+        <v>6</v>
+      </c>
+      <c r="H1841" t="str">
+        <f t="shared" si="416"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1841" t="str">
+        <f t="shared" si="417"/>
+        <v>May</v>
+      </c>
+      <c r="J1841" t="s">
+        <v>864</v>
+      </c>
+      <c r="K1841" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1842" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D1842">
+        <v>1.89</v>
+      </c>
+      <c r="E1842">
+        <f t="shared" si="413"/>
+        <v>5</v>
+      </c>
+      <c r="F1842">
+        <f t="shared" si="414"/>
+        <v>2024</v>
+      </c>
+      <c r="G1842">
+        <f t="shared" si="415"/>
+        <v>1</v>
+      </c>
+      <c r="H1842" t="str">
+        <f t="shared" si="416"/>
+        <v>Monday</v>
+      </c>
+      <c r="I1842" t="str">
+        <f t="shared" si="417"/>
+        <v>May</v>
+      </c>
+      <c r="J1842" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1842" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1843" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>818</v>
+      </c>
+      <c r="D1843">
+        <v>0.99</v>
+      </c>
+      <c r="E1843">
+        <f t="shared" ref="E1843:E1845" si="418">MONTH(A1843)</f>
+        <v>5</v>
+      </c>
+      <c r="F1843">
+        <f t="shared" ref="F1843:F1845" si="419">YEAR(A1843)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1843">
+        <f t="shared" ref="G1843:G1845" si="420">WEEKDAY(A1843, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="H1843" t="str">
+        <f t="shared" ref="H1843:H1845" si="421">CHOOSE(WEEKDAY(A1843, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Monday</v>
+      </c>
+      <c r="I1843" t="str">
+        <f t="shared" ref="I1843:I1845" si="422">TEXT(A1843, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1843" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1843" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1844" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>604</v>
+      </c>
+      <c r="D1844">
+        <v>0.99</v>
+      </c>
+      <c r="E1844">
+        <f t="shared" si="418"/>
+        <v>5</v>
+      </c>
+      <c r="F1844">
+        <f t="shared" si="419"/>
+        <v>2024</v>
+      </c>
+      <c r="G1844">
+        <f t="shared" si="420"/>
+        <v>1</v>
+      </c>
+      <c r="H1844" t="str">
+        <f t="shared" si="421"/>
+        <v>Monday</v>
+      </c>
+      <c r="I1844" t="str">
+        <f t="shared" si="422"/>
+        <v>May</v>
+      </c>
+      <c r="J1844" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1844" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1845" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D1845">
+        <f>(2.99-1)/2</f>
+        <v>0.99500000000000011</v>
+      </c>
+      <c r="E1845">
+        <f t="shared" si="418"/>
+        <v>5</v>
+      </c>
+      <c r="F1845">
+        <f t="shared" si="419"/>
+        <v>2024</v>
+      </c>
+      <c r="G1845">
+        <f t="shared" si="420"/>
+        <v>3</v>
+      </c>
+      <c r="H1845" t="str">
+        <f t="shared" si="421"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="I1845" t="str">
+        <f t="shared" si="422"/>
+        <v>May</v>
+      </c>
+      <c r="J1845" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1845" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1846" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D1846">
+        <f>(2.99-1)/2</f>
+        <v>0.99500000000000011</v>
+      </c>
+      <c r="E1846">
+        <f t="shared" ref="E1846" si="423">MONTH(A1846)</f>
+        <v>5</v>
+      </c>
+      <c r="F1846">
+        <f t="shared" ref="F1846" si="424">YEAR(A1846)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1846">
+        <f t="shared" ref="G1846" si="425">WEEKDAY(A1846, 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H1846" t="str">
+        <f t="shared" ref="H1846" si="426">CHOOSE(WEEKDAY(A1846, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="I1846" t="str">
+        <f t="shared" ref="I1846" si="427">TEXT(A1846, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1846" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1846" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1847" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1847">
+        <v>1.99</v>
+      </c>
+      <c r="E1847">
+        <f t="shared" ref="E1847" si="428">MONTH(A1847)</f>
+        <v>5</v>
+      </c>
+      <c r="F1847">
+        <f t="shared" ref="F1847" si="429">YEAR(A1847)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1847">
+        <f t="shared" ref="G1847" si="430">WEEKDAY(A1847, 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H1847" t="str">
+        <f t="shared" ref="H1847" si="431">CHOOSE(WEEKDAY(A1847, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="I1847" t="str">
+        <f t="shared" ref="I1847" si="432">TEXT(A1847, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1847" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1847" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1848" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D1848">
+        <v>3.19</v>
+      </c>
+      <c r="E1848">
+        <f t="shared" ref="E1848" si="433">MONTH(A1848)</f>
+        <v>5</v>
+      </c>
+      <c r="F1848">
+        <f t="shared" ref="F1848" si="434">YEAR(A1848)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1848">
+        <f t="shared" ref="G1848" si="435">WEEKDAY(A1848, 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H1848" t="str">
+        <f t="shared" ref="H1848" si="436">CHOOSE(WEEKDAY(A1848, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="I1848" t="str">
+        <f t="shared" ref="I1848" si="437">TEXT(A1848, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1848" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1848" t="s">
         <v>730</v>
       </c>
     </row>

--- a/data/expense_tracker.xlsx
+++ b/data/expense_tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\solutions\learning_python\expense_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE50BC89-28E9-4B82-A3B9-8B694B0A5D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFB028B-31E0-4099-8ECA-B8D04AECDC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="859" xr2:uid="{7A62D1F9-0105-4F41-8BB8-21CA3D721AF6}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$L$1848</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6797" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6896" uniqueCount="1050">
   <si>
     <t>expense_type</t>
   </si>
@@ -3156,6 +3156,39 @@
   </si>
   <si>
     <t>spar highprotknm 500g</t>
+  </si>
+  <si>
+    <t>laugenbrezel</t>
+  </si>
+  <si>
+    <t>hamburger mix 300g</t>
+  </si>
+  <si>
+    <t>bio-datteltomaten</t>
+  </si>
+  <si>
+    <t>grie. Oliven gefu.</t>
+  </si>
+  <si>
+    <t>vegane vielfalt</t>
+  </si>
+  <si>
+    <t>mill squeeze bbq</t>
+  </si>
+  <si>
+    <t>sbudgernaturjo3,6%500g</t>
+  </si>
+  <si>
+    <t>spar highprotrote 500g</t>
+  </si>
+  <si>
+    <t>sanlucar bananen (0,666kgx2.29eur/kg)</t>
+  </si>
+  <si>
+    <t>lagencroissant</t>
+  </si>
+  <si>
+    <t>apfel evelina (0,902kgx2.49eur/kg)</t>
   </si>
 </sst>
 </file>
@@ -3509,11 +3542,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397426C9-9494-4E73-BF9B-2DE40DB1433B}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L1848"/>
+  <dimension ref="A1:L1875"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C951" sqref="C951"/>
+      <pane ySplit="1" topLeftCell="A1855" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1870" sqref="I1870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75065,23 +75098,23 @@
         <v>2.9</v>
       </c>
       <c r="E1825">
-        <f t="shared" ref="E1825:E1848" si="161">MONTH(A1825)</f>
+        <f t="shared" ref="E1825:E1849" si="161">MONTH(A1825)</f>
         <v>5</v>
       </c>
       <c r="F1825">
-        <f t="shared" ref="F1825:F1848" si="162">YEAR(A1825)</f>
+        <f t="shared" ref="F1825:F1849" si="162">YEAR(A1825)</f>
         <v>2024</v>
       </c>
       <c r="G1825">
-        <f t="shared" ref="G1825:G1848" si="163">WEEKDAY(A1825, 2)</f>
+        <f t="shared" ref="G1825:G1849" si="163">WEEKDAY(A1825, 2)</f>
         <v>4</v>
       </c>
       <c r="H1825" t="str">
-        <f t="shared" ref="H1825:H1848" si="164">CHOOSE(WEEKDAY(A1825, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1825:H1849" si="164">CHOOSE(WEEKDAY(A1825, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Thursday</v>
       </c>
       <c r="I1825" t="str">
-        <f t="shared" ref="I1825:I1848" si="165">TEXT(A1825, "MMM")</f>
+        <f t="shared" ref="I1825:I1849" si="165">TEXT(A1825, "MMM")</f>
         <v>May</v>
       </c>
       <c r="J1825" t="s">
@@ -75993,6 +76026,1063 @@
       </c>
       <c r="K1848" t="s">
         <v>729</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1849" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>844</v>
+      </c>
+      <c r="D1849">
+        <v>0.59</v>
+      </c>
+      <c r="E1849">
+        <f t="shared" si="161"/>
+        <v>5</v>
+      </c>
+      <c r="F1849">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="G1849">
+        <f t="shared" si="163"/>
+        <v>6</v>
+      </c>
+      <c r="H1849" t="str">
+        <f t="shared" si="164"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1849" t="str">
+        <f t="shared" si="165"/>
+        <v>May</v>
+      </c>
+      <c r="J1849" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1849" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1850" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D1850">
+        <v>0.45</v>
+      </c>
+      <c r="E1850">
+        <f t="shared" ref="E1850:E1863" si="166">MONTH(A1850)</f>
+        <v>5</v>
+      </c>
+      <c r="F1850">
+        <f t="shared" ref="F1850:F1863" si="167">YEAR(A1850)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1850">
+        <f t="shared" ref="G1850:G1863" si="168">WEEKDAY(A1850, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H1850" t="str">
+        <f t="shared" ref="H1850:H1863" si="169">CHOOSE(WEEKDAY(A1850, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I1850" t="str">
+        <f t="shared" ref="I1850:I1863" si="170">TEXT(A1850, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1850" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1850" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1851" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D1851">
+        <v>1.49</v>
+      </c>
+      <c r="E1851">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="F1851">
+        <f t="shared" si="167"/>
+        <v>2024</v>
+      </c>
+      <c r="G1851">
+        <f t="shared" si="168"/>
+        <v>6</v>
+      </c>
+      <c r="H1851" t="str">
+        <f t="shared" si="169"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1851" t="str">
+        <f t="shared" si="170"/>
+        <v>May</v>
+      </c>
+      <c r="J1851" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1851" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1852" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>817</v>
+      </c>
+      <c r="D1852">
+        <v>0.99</v>
+      </c>
+      <c r="E1852">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="F1852">
+        <f t="shared" si="167"/>
+        <v>2024</v>
+      </c>
+      <c r="G1852">
+        <f t="shared" si="168"/>
+        <v>6</v>
+      </c>
+      <c r="H1852" t="str">
+        <f t="shared" si="169"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1852" t="str">
+        <f t="shared" si="170"/>
+        <v>May</v>
+      </c>
+      <c r="J1852" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1852" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1853" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D1853">
+        <v>1.68</v>
+      </c>
+      <c r="E1853">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="F1853">
+        <f t="shared" si="167"/>
+        <v>2024</v>
+      </c>
+      <c r="G1853">
+        <f t="shared" si="168"/>
+        <v>5</v>
+      </c>
+      <c r="H1853" t="str">
+        <f t="shared" si="169"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1853" t="str">
+        <f t="shared" si="170"/>
+        <v>May</v>
+      </c>
+      <c r="J1853" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1853" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1854" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D1854">
+        <v>1.69</v>
+      </c>
+      <c r="E1854">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="F1854">
+        <f t="shared" si="167"/>
+        <v>2024</v>
+      </c>
+      <c r="G1854">
+        <f t="shared" si="168"/>
+        <v>5</v>
+      </c>
+      <c r="H1854" t="str">
+        <f t="shared" si="169"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1854" t="str">
+        <f t="shared" si="170"/>
+        <v>May</v>
+      </c>
+      <c r="J1854" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1854" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1855" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>844</v>
+      </c>
+      <c r="D1855">
+        <v>0.59</v>
+      </c>
+      <c r="E1855">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="F1855">
+        <f t="shared" si="167"/>
+        <v>2024</v>
+      </c>
+      <c r="G1855">
+        <f t="shared" si="168"/>
+        <v>5</v>
+      </c>
+      <c r="H1855" t="str">
+        <f t="shared" si="169"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1855" t="str">
+        <f t="shared" si="170"/>
+        <v>May</v>
+      </c>
+      <c r="J1855" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1855" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1856" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D1856">
+        <v>1.86</v>
+      </c>
+      <c r="E1856">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="F1856">
+        <f t="shared" si="167"/>
+        <v>2024</v>
+      </c>
+      <c r="G1856">
+        <f t="shared" si="168"/>
+        <v>5</v>
+      </c>
+      <c r="H1856" t="str">
+        <f t="shared" si="169"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1856" t="str">
+        <f t="shared" si="170"/>
+        <v>May</v>
+      </c>
+      <c r="J1856" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1856" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1857" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>937</v>
+      </c>
+      <c r="D1857">
+        <v>2.4</v>
+      </c>
+      <c r="E1857">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="F1857">
+        <f t="shared" si="167"/>
+        <v>2024</v>
+      </c>
+      <c r="G1857">
+        <f t="shared" si="168"/>
+        <v>5</v>
+      </c>
+      <c r="H1857" t="str">
+        <f t="shared" si="169"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1857" t="str">
+        <f t="shared" si="170"/>
+        <v>May</v>
+      </c>
+      <c r="J1857" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1858" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1858">
+        <f>1.99/2</f>
+        <v>0.995</v>
+      </c>
+      <c r="E1858">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="F1858">
+        <f t="shared" si="167"/>
+        <v>2024</v>
+      </c>
+      <c r="G1858">
+        <f t="shared" si="168"/>
+        <v>6</v>
+      </c>
+      <c r="H1858" t="str">
+        <f t="shared" si="169"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1858" t="str">
+        <f t="shared" si="170"/>
+        <v>May</v>
+      </c>
+      <c r="J1858" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1858" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1859" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D1859">
+        <v>0.79</v>
+      </c>
+      <c r="E1859">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="F1859">
+        <f t="shared" si="167"/>
+        <v>2024</v>
+      </c>
+      <c r="G1859">
+        <f t="shared" si="168"/>
+        <v>6</v>
+      </c>
+      <c r="H1859" t="str">
+        <f t="shared" si="169"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1859" t="str">
+        <f t="shared" si="170"/>
+        <v>May</v>
+      </c>
+      <c r="J1859" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1859" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1860" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D1860">
+        <v>0.79</v>
+      </c>
+      <c r="E1860">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="F1860">
+        <f t="shared" si="167"/>
+        <v>2024</v>
+      </c>
+      <c r="G1860">
+        <f t="shared" si="168"/>
+        <v>6</v>
+      </c>
+      <c r="H1860" t="str">
+        <f t="shared" si="169"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1860" t="str">
+        <f t="shared" si="170"/>
+        <v>May</v>
+      </c>
+      <c r="J1860" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1860" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1861" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>710</v>
+      </c>
+      <c r="D1861">
+        <f>2.43/2</f>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="E1861">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="F1861">
+        <f t="shared" si="167"/>
+        <v>2024</v>
+      </c>
+      <c r="G1861">
+        <f t="shared" si="168"/>
+        <v>6</v>
+      </c>
+      <c r="H1861" t="str">
+        <f t="shared" si="169"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1861" t="str">
+        <f t="shared" si="170"/>
+        <v>May</v>
+      </c>
+      <c r="J1861" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1861" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1862" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D1862">
+        <v>3.19</v>
+      </c>
+      <c r="E1862">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="F1862">
+        <f t="shared" si="167"/>
+        <v>2024</v>
+      </c>
+      <c r="G1862">
+        <f t="shared" si="168"/>
+        <v>6</v>
+      </c>
+      <c r="H1862" t="str">
+        <f t="shared" si="169"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I1862" t="str">
+        <f t="shared" si="170"/>
+        <v>May</v>
+      </c>
+      <c r="J1862" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1862" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1863" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1863">
+        <v>2.9</v>
+      </c>
+      <c r="E1863">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="F1863">
+        <f t="shared" si="167"/>
+        <v>2024</v>
+      </c>
+      <c r="G1863">
+        <f t="shared" si="168"/>
+        <v>1</v>
+      </c>
+      <c r="H1863" t="str">
+        <f t="shared" si="169"/>
+        <v>Monday</v>
+      </c>
+      <c r="I1863" t="str">
+        <f t="shared" si="170"/>
+        <v>May</v>
+      </c>
+      <c r="J1863" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1864" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D1864">
+        <v>1.53</v>
+      </c>
+      <c r="E1864">
+        <f t="shared" ref="E1864:E1866" si="171">MONTH(A1864)</f>
+        <v>5</v>
+      </c>
+      <c r="F1864">
+        <f t="shared" ref="F1864:F1866" si="172">YEAR(A1864)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1864">
+        <f t="shared" ref="G1864:G1866" si="173">WEEKDAY(A1864, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="H1864" t="str">
+        <f t="shared" ref="H1864:H1866" si="174">CHOOSE(WEEKDAY(A1864, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Monday</v>
+      </c>
+      <c r="I1864" t="str">
+        <f t="shared" ref="I1864:I1866" si="175">TEXT(A1864, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1864" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1864" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1865" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D1865">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E1865">
+        <f t="shared" si="171"/>
+        <v>5</v>
+      </c>
+      <c r="F1865">
+        <f t="shared" si="172"/>
+        <v>2024</v>
+      </c>
+      <c r="G1865">
+        <f t="shared" si="173"/>
+        <v>1</v>
+      </c>
+      <c r="H1865" t="str">
+        <f t="shared" si="174"/>
+        <v>Monday</v>
+      </c>
+      <c r="I1865" t="str">
+        <f t="shared" si="175"/>
+        <v>May</v>
+      </c>
+      <c r="J1865" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1865" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1866" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1866">
+        <v>2.9</v>
+      </c>
+      <c r="E1866">
+        <f t="shared" si="171"/>
+        <v>5</v>
+      </c>
+      <c r="F1866">
+        <f t="shared" si="172"/>
+        <v>2024</v>
+      </c>
+      <c r="G1866">
+        <f t="shared" si="173"/>
+        <v>2</v>
+      </c>
+      <c r="H1866" t="str">
+        <f t="shared" si="174"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1866" t="str">
+        <f t="shared" si="175"/>
+        <v>May</v>
+      </c>
+      <c r="J1866" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1867" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1867">
+        <v>0.79</v>
+      </c>
+      <c r="E1867">
+        <f t="shared" ref="E1867:E1869" si="176">MONTH(A1867)</f>
+        <v>5</v>
+      </c>
+      <c r="F1867">
+        <f t="shared" ref="F1867:F1869" si="177">YEAR(A1867)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1867">
+        <f t="shared" ref="G1867:G1869" si="178">WEEKDAY(A1867, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H1867" t="str">
+        <f t="shared" ref="H1867:H1869" si="179">CHOOSE(WEEKDAY(A1867, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="I1867" t="str">
+        <f t="shared" ref="I1867:I1869" si="180">TEXT(A1867, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1867" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1868" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1868">
+        <v>2.9</v>
+      </c>
+      <c r="E1868">
+        <f t="shared" si="176"/>
+        <v>5</v>
+      </c>
+      <c r="F1868">
+        <f t="shared" si="177"/>
+        <v>2024</v>
+      </c>
+      <c r="G1868">
+        <f t="shared" si="178"/>
+        <v>3</v>
+      </c>
+      <c r="H1868" t="str">
+        <f t="shared" si="179"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="I1868" t="str">
+        <f t="shared" si="180"/>
+        <v>May</v>
+      </c>
+      <c r="J1868" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1869" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1869">
+        <v>2.9</v>
+      </c>
+      <c r="E1869">
+        <f t="shared" si="176"/>
+        <v>5</v>
+      </c>
+      <c r="F1869">
+        <f t="shared" si="177"/>
+        <v>2024</v>
+      </c>
+      <c r="G1869">
+        <f t="shared" si="178"/>
+        <v>4</v>
+      </c>
+      <c r="H1869" t="str">
+        <f t="shared" si="179"/>
+        <v>Thursday</v>
+      </c>
+      <c r="I1869" t="str">
+        <f t="shared" si="180"/>
+        <v>May</v>
+      </c>
+      <c r="J1869" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1870" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1870">
+        <v>0.79</v>
+      </c>
+      <c r="E1870">
+        <f t="shared" ref="E1870:E1871" si="181">MONTH(A1870)</f>
+        <v>5</v>
+      </c>
+      <c r="F1870">
+        <f t="shared" ref="F1870:F1871" si="182">YEAR(A1870)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1870">
+        <f t="shared" ref="G1870:G1871" si="183">WEEKDAY(A1870, 2)</f>
+        <v>4</v>
+      </c>
+      <c r="H1870" t="str">
+        <f t="shared" ref="H1870:H1871" si="184">CHOOSE(WEEKDAY(A1870, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="I1870" t="str">
+        <f t="shared" ref="I1870:I1871" si="185">TEXT(A1870, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1870" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1871" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>937</v>
+      </c>
+      <c r="D1871">
+        <v>2.4</v>
+      </c>
+      <c r="E1871">
+        <f t="shared" si="181"/>
+        <v>5</v>
+      </c>
+      <c r="F1871">
+        <f t="shared" si="182"/>
+        <v>2024</v>
+      </c>
+      <c r="G1871">
+        <f t="shared" si="183"/>
+        <v>5</v>
+      </c>
+      <c r="H1871" t="str">
+        <f t="shared" si="184"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1871" t="str">
+        <f t="shared" si="185"/>
+        <v>May</v>
+      </c>
+      <c r="J1871" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1872" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1872">
+        <v>0.79</v>
+      </c>
+      <c r="E1872">
+        <f t="shared" ref="E1872" si="186">MONTH(A1872)</f>
+        <v>5</v>
+      </c>
+      <c r="F1872">
+        <f t="shared" ref="F1872" si="187">YEAR(A1872)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1872">
+        <f t="shared" ref="G1872" si="188">WEEKDAY(A1872, 2)</f>
+        <v>5</v>
+      </c>
+      <c r="H1872" t="str">
+        <f t="shared" ref="H1872" si="189">CHOOSE(WEEKDAY(A1872, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Friday</v>
+      </c>
+      <c r="I1872" t="str">
+        <f t="shared" ref="I1872" si="190">TEXT(A1872, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1872" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1873" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D1873">
+        <f>2.25-1.13</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E1873">
+        <f t="shared" ref="E1873:E1875" si="191">MONTH(A1873)</f>
+        <v>5</v>
+      </c>
+      <c r="F1873">
+        <f t="shared" ref="F1873:F1875" si="192">YEAR(A1873)</f>
+        <v>2024</v>
+      </c>
+      <c r="G1873">
+        <f t="shared" ref="G1873:G1875" si="193">WEEKDAY(A1873, 2)</f>
+        <v>5</v>
+      </c>
+      <c r="H1873" t="str">
+        <f t="shared" ref="H1873:H1875" si="194">CHOOSE(WEEKDAY(A1873, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Friday</v>
+      </c>
+      <c r="I1873" t="str">
+        <f t="shared" ref="I1873:I1875" si="195">TEXT(A1873, "MMM")</f>
+        <v>May</v>
+      </c>
+      <c r="J1873" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1873" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1874" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D1874">
+        <f>2.25-1.13</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E1874">
+        <f t="shared" si="191"/>
+        <v>5</v>
+      </c>
+      <c r="F1874">
+        <f t="shared" si="192"/>
+        <v>2024</v>
+      </c>
+      <c r="G1874">
+        <f t="shared" si="193"/>
+        <v>5</v>
+      </c>
+      <c r="H1874" t="str">
+        <f t="shared" si="194"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1874" t="str">
+        <f t="shared" si="195"/>
+        <v>May</v>
+      </c>
+      <c r="J1874" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1874" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1875" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1875">
+        <v>1.69</v>
+      </c>
+      <c r="E1875">
+        <f t="shared" si="191"/>
+        <v>5</v>
+      </c>
+      <c r="F1875">
+        <f t="shared" si="192"/>
+        <v>2024</v>
+      </c>
+      <c r="G1875">
+        <f t="shared" si="193"/>
+        <v>5</v>
+      </c>
+      <c r="H1875" t="str">
+        <f t="shared" si="194"/>
+        <v>Friday</v>
+      </c>
+      <c r="I1875" t="str">
+        <f t="shared" si="195"/>
+        <v>May</v>
+      </c>
+      <c r="J1875" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1875" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>

--- a/data/expense_tracker.xlsx
+++ b/data/expense_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\solutions\learning_python\expense_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFB028B-31E0-4099-8ECA-B8D04AECDC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCC8FB9-0FBA-4B67-9734-6251217DC365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="859" xr2:uid="{7A62D1F9-0105-4F41-8BB8-21CA3D721AF6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6896" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6900" uniqueCount="1051">
   <si>
     <t>expense_type</t>
   </si>
@@ -3189,6 +3189,9 @@
   </si>
   <si>
     <t>apfel evelina (0,902kgx2.49eur/kg)</t>
+  </si>
+  <si>
+    <t>discont</t>
   </si>
 </sst>
 </file>
@@ -3542,11 +3545,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397426C9-9494-4E73-BF9B-2DE40DB1433B}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L1875"/>
+  <dimension ref="A1:L1876"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1855" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1870" sqref="I1870"/>
+      <selection pane="bottomLeft" activeCell="A1877" sqref="A1877"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76978,23 +76981,23 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E1873">
-        <f t="shared" ref="E1873:E1875" si="191">MONTH(A1873)</f>
+        <f t="shared" ref="E1873:E1876" si="191">MONTH(A1873)</f>
         <v>5</v>
       </c>
       <c r="F1873">
-        <f t="shared" ref="F1873:F1875" si="192">YEAR(A1873)</f>
+        <f t="shared" ref="F1873:F1876" si="192">YEAR(A1873)</f>
         <v>2024</v>
       </c>
       <c r="G1873">
-        <f t="shared" ref="G1873:G1875" si="193">WEEKDAY(A1873, 2)</f>
+        <f t="shared" ref="G1873:G1876" si="193">WEEKDAY(A1873, 2)</f>
         <v>5</v>
       </c>
       <c r="H1873" t="str">
-        <f t="shared" ref="H1873:H1875" si="194">CHOOSE(WEEKDAY(A1873, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1873:H1876" si="194">CHOOSE(WEEKDAY(A1873, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Friday</v>
       </c>
       <c r="I1873" t="str">
-        <f t="shared" ref="I1873:I1875" si="195">TEXT(A1873, "MMM")</f>
+        <f t="shared" ref="I1873:I1876" si="195">TEXT(A1873, "MMM")</f>
         <v>May</v>
       </c>
       <c r="J1873" t="s">
@@ -77082,6 +77085,46 @@
         <v>49</v>
       </c>
       <c r="K1875" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1876" s="1">
+        <v>45431</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1876">
+        <v>27</v>
+      </c>
+      <c r="E1876">
+        <f t="shared" si="191"/>
+        <v>5</v>
+      </c>
+      <c r="F1876">
+        <f t="shared" si="192"/>
+        <v>2024</v>
+      </c>
+      <c r="G1876">
+        <f t="shared" si="193"/>
+        <v>7</v>
+      </c>
+      <c r="H1876" t="str">
+        <f t="shared" si="194"/>
+        <v>Sunday</v>
+      </c>
+      <c r="I1876" t="str">
+        <f t="shared" si="195"/>
+        <v>May</v>
+      </c>
+      <c r="J1876" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K1876" t="s">
         <v>743</v>
       </c>
     </row>

--- a/data/expense_tracker.xlsx
+++ b/data/expense_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\solutions\learning_python\expense_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0461DB4-3BD6-4234-9FD2-E4D794BCF6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A03A493-54F7-4C0A-AA4A-0741B2424DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="859" xr2:uid="{7A62D1F9-0105-4F41-8BB8-21CA3D721AF6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7902" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7954" uniqueCount="1184">
   <si>
     <t>expense_type</t>
   </si>
@@ -3582,6 +3582,15 @@
   </si>
   <si>
     <t>drautank</t>
+  </si>
+  <si>
+    <t>home expenses</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>kelag</t>
   </si>
 </sst>
 </file>
@@ -3617,10 +3626,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3643,8 +3651,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5E4D08B-0AE3-4009-9C71-DC64AACB5EC7}" name="Table1" displayName="Table1" ref="A1:K2143" totalsRowShown="0">
-  <autoFilter ref="A1:K2143" xr:uid="{C5E4D08B-0AE3-4009-9C71-DC64AACB5EC7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5E4D08B-0AE3-4009-9C71-DC64AACB5EC7}" name="Table1" displayName="Table1" ref="A1:K2155" totalsRowShown="0">
+  <autoFilter ref="A1:K2155" xr:uid="{C5E4D08B-0AE3-4009-9C71-DC64AACB5EC7}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{7921C31E-1C58-4EDB-B4E5-19C6D998988C}" name="date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{5A85DFE0-5B93-4DD1-B190-AB928B34ED86}" name="expense_category"/>
@@ -3969,11 +3977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397426C9-9494-4E73-BF9B-2DE40DB1433B}">
-  <dimension ref="A1:K2142"/>
+  <dimension ref="A1:K2155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2138" sqref="N2138"/>
+      <pane ySplit="1" topLeftCell="A2127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2144" sqref="J2144:K2155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77502,23 +77510,23 @@
         <v>2.2450000000000001</v>
       </c>
       <c r="E1877">
-        <f>MONTH(A1877)</f>
+        <f t="shared" ref="E1877:E1893" si="196">MONTH(A1877)</f>
         <v>6</v>
       </c>
       <c r="F1877">
-        <f>YEAR(A1877)</f>
+        <f t="shared" ref="F1877:F1893" si="197">YEAR(A1877)</f>
         <v>2024</v>
       </c>
       <c r="G1877">
-        <f>WEEKDAY(A1877, 2)</f>
+        <f t="shared" ref="G1877:G1893" si="198">WEEKDAY(A1877, 2)</f>
         <v>6</v>
       </c>
       <c r="H1877" t="str">
-        <f>CHOOSE(WEEKDAY(A1877, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1877:H1893" si="199">CHOOSE(WEEKDAY(A1877, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Saturday</v>
       </c>
       <c r="I1877" t="str">
-        <f>TEXT(A1877, "MMM")</f>
+        <f t="shared" ref="I1877:I1893" si="200">TEXT(A1877, "MMM")</f>
         <v>Jun</v>
       </c>
       <c r="J1877" t="s">
@@ -77543,23 +77551,23 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="E1878">
-        <f>MONTH(A1878)</f>
+        <f t="shared" si="196"/>
         <v>6</v>
       </c>
       <c r="F1878">
-        <f>YEAR(A1878)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1878">
-        <f>WEEKDAY(A1878, 2)</f>
+        <f t="shared" si="198"/>
         <v>6</v>
       </c>
       <c r="H1878" t="str">
-        <f>CHOOSE(WEEKDAY(A1878, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Saturday</v>
       </c>
       <c r="I1878" t="str">
-        <f>TEXT(A1878, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>Jun</v>
       </c>
       <c r="J1878" t="s">
@@ -77583,23 +77591,23 @@
         <v>0.99</v>
       </c>
       <c r="E1879">
-        <f>MONTH(A1879)</f>
+        <f t="shared" si="196"/>
         <v>6</v>
       </c>
       <c r="F1879">
-        <f>YEAR(A1879)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1879">
-        <f>WEEKDAY(A1879, 2)</f>
+        <f t="shared" si="198"/>
         <v>6</v>
       </c>
       <c r="H1879" t="str">
-        <f>CHOOSE(WEEKDAY(A1879, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Saturday</v>
       </c>
       <c r="I1879" t="str">
-        <f>TEXT(A1879, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>Jun</v>
       </c>
       <c r="J1879" t="s">
@@ -77623,23 +77631,23 @@
         <v>0.99</v>
       </c>
       <c r="E1880">
-        <f>MONTH(A1880)</f>
+        <f t="shared" si="196"/>
         <v>6</v>
       </c>
       <c r="F1880">
-        <f>YEAR(A1880)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1880">
-        <f>WEEKDAY(A1880, 2)</f>
+        <f t="shared" si="198"/>
         <v>6</v>
       </c>
       <c r="H1880" t="str">
-        <f>CHOOSE(WEEKDAY(A1880, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Saturday</v>
       </c>
       <c r="I1880" t="str">
-        <f>TEXT(A1880, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>Jun</v>
       </c>
       <c r="J1880" t="s">
@@ -77663,23 +77671,23 @@
         <v>2.19</v>
       </c>
       <c r="E1881">
-        <f>MONTH(A1881)</f>
+        <f t="shared" si="196"/>
         <v>6</v>
       </c>
       <c r="F1881">
-        <f>YEAR(A1881)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1881">
-        <f>WEEKDAY(A1881, 2)</f>
+        <f t="shared" si="198"/>
         <v>6</v>
       </c>
       <c r="H1881" t="str">
-        <f>CHOOSE(WEEKDAY(A1881, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Saturday</v>
       </c>
       <c r="I1881" t="str">
-        <f>TEXT(A1881, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>Jun</v>
       </c>
       <c r="J1881" t="s">
@@ -77704,23 +77712,23 @@
         <v>1.2749999999999999</v>
       </c>
       <c r="E1882">
-        <f>MONTH(A1882)</f>
+        <f t="shared" si="196"/>
         <v>6</v>
       </c>
       <c r="F1882">
-        <f>YEAR(A1882)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1882">
-        <f>WEEKDAY(A1882, 2)</f>
+        <f t="shared" si="198"/>
         <v>6</v>
       </c>
       <c r="H1882" t="str">
-        <f>CHOOSE(WEEKDAY(A1882, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Saturday</v>
       </c>
       <c r="I1882" t="str">
-        <f>TEXT(A1882, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>Jun</v>
       </c>
       <c r="J1882" t="s">
@@ -77745,23 +77753,23 @@
         <v>1.7450000000000001</v>
       </c>
       <c r="E1883">
-        <f>MONTH(A1883)</f>
+        <f t="shared" si="196"/>
         <v>6</v>
       </c>
       <c r="F1883">
-        <f>YEAR(A1883)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1883">
-        <f>WEEKDAY(A1883, 2)</f>
+        <f t="shared" si="198"/>
         <v>6</v>
       </c>
       <c r="H1883" t="str">
-        <f>CHOOSE(WEEKDAY(A1883, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Saturday</v>
       </c>
       <c r="I1883" t="str">
-        <f>TEXT(A1883, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>Jun</v>
       </c>
       <c r="J1883" t="s">
@@ -77786,23 +77794,23 @@
         <v>1.2450000000000001</v>
       </c>
       <c r="E1884">
-        <f>MONTH(A1884)</f>
+        <f t="shared" si="196"/>
         <v>6</v>
       </c>
       <c r="F1884">
-        <f>YEAR(A1884)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1884">
-        <f>WEEKDAY(A1884, 2)</f>
+        <f t="shared" si="198"/>
         <v>6</v>
       </c>
       <c r="H1884" t="str">
-        <f>CHOOSE(WEEKDAY(A1884, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Saturday</v>
       </c>
       <c r="I1884" t="str">
-        <f>TEXT(A1884, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>Jun</v>
       </c>
       <c r="J1884" t="s">
@@ -77826,23 +77834,23 @@
         <v>20</v>
       </c>
       <c r="E1885">
-        <f>MONTH(A1885)</f>
+        <f t="shared" si="196"/>
         <v>5</v>
       </c>
       <c r="F1885">
-        <f>YEAR(A1885)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1885">
-        <f>WEEKDAY(A1885, 2)</f>
+        <f t="shared" si="198"/>
         <v>5</v>
       </c>
       <c r="H1885" t="str">
-        <f>CHOOSE(WEEKDAY(A1885, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Friday</v>
       </c>
       <c r="I1885" t="str">
-        <f>TEXT(A1885, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>May</v>
       </c>
       <c r="J1885" t="s">
@@ -77866,23 +77874,23 @@
         <v>0.99</v>
       </c>
       <c r="E1886">
-        <f>MONTH(A1886)</f>
+        <f t="shared" si="196"/>
         <v>5</v>
       </c>
       <c r="F1886">
-        <f>YEAR(A1886)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1886">
-        <f>WEEKDAY(A1886, 2)</f>
+        <f t="shared" si="198"/>
         <v>6</v>
       </c>
       <c r="H1886" t="str">
-        <f>CHOOSE(WEEKDAY(A1886, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Saturday</v>
       </c>
       <c r="I1886" t="str">
-        <f>TEXT(A1886, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>May</v>
       </c>
       <c r="J1886" t="s">
@@ -77906,23 +77914,23 @@
         <v>0.85</v>
       </c>
       <c r="E1887">
-        <f>MONTH(A1887)</f>
+        <f t="shared" si="196"/>
         <v>5</v>
       </c>
       <c r="F1887">
-        <f>YEAR(A1887)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1887">
-        <f>WEEKDAY(A1887, 2)</f>
+        <f t="shared" si="198"/>
         <v>6</v>
       </c>
       <c r="H1887" t="str">
-        <f>CHOOSE(WEEKDAY(A1887, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Saturday</v>
       </c>
       <c r="I1887" t="str">
-        <f>TEXT(A1887, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>May</v>
       </c>
       <c r="J1887" t="s">
@@ -77946,23 +77954,23 @@
         <v>1.29</v>
       </c>
       <c r="E1888">
-        <f>MONTH(A1888)</f>
+        <f t="shared" si="196"/>
         <v>5</v>
       </c>
       <c r="F1888">
-        <f>YEAR(A1888)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1888">
-        <f>WEEKDAY(A1888, 2)</f>
+        <f t="shared" si="198"/>
         <v>6</v>
       </c>
       <c r="H1888" t="str">
-        <f>CHOOSE(WEEKDAY(A1888, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Saturday</v>
       </c>
       <c r="I1888" t="str">
-        <f>TEXT(A1888, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>May</v>
       </c>
       <c r="J1888" t="s">
@@ -77986,23 +77994,23 @@
         <v>0.17</v>
       </c>
       <c r="E1889">
-        <f>MONTH(A1889)</f>
+        <f t="shared" si="196"/>
         <v>5</v>
       </c>
       <c r="F1889">
-        <f>YEAR(A1889)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1889">
-        <f>WEEKDAY(A1889, 2)</f>
+        <f t="shared" si="198"/>
         <v>1</v>
       </c>
       <c r="H1889" t="str">
-        <f>CHOOSE(WEEKDAY(A1889, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Monday</v>
       </c>
       <c r="I1889" t="str">
-        <f>TEXT(A1889, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>May</v>
       </c>
       <c r="J1889" t="s">
@@ -78026,23 +78034,23 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="E1890">
-        <f>MONTH(A1890)</f>
+        <f t="shared" si="196"/>
         <v>5</v>
       </c>
       <c r="F1890">
-        <f>YEAR(A1890)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1890">
-        <f>WEEKDAY(A1890, 2)</f>
+        <f t="shared" si="198"/>
         <v>1</v>
       </c>
       <c r="H1890" t="str">
-        <f>CHOOSE(WEEKDAY(A1890, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Monday</v>
       </c>
       <c r="I1890" t="str">
-        <f>TEXT(A1890, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>May</v>
       </c>
       <c r="J1890" t="s">
@@ -78066,23 +78074,23 @@
         <v>1.39</v>
       </c>
       <c r="E1891">
-        <f>MONTH(A1891)</f>
+        <f t="shared" si="196"/>
         <v>5</v>
       </c>
       <c r="F1891">
-        <f>YEAR(A1891)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1891">
-        <f>WEEKDAY(A1891, 2)</f>
+        <f t="shared" si="198"/>
         <v>1</v>
       </c>
       <c r="H1891" t="str">
-        <f>CHOOSE(WEEKDAY(A1891, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Monday</v>
       </c>
       <c r="I1891" t="str">
-        <f>TEXT(A1891, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>May</v>
       </c>
       <c r="J1891" t="s">
@@ -78106,23 +78114,23 @@
         <v>4.99</v>
       </c>
       <c r="E1892">
-        <f>MONTH(A1892)</f>
+        <f t="shared" si="196"/>
         <v>5</v>
       </c>
       <c r="F1892">
-        <f>YEAR(A1892)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1892">
-        <f>WEEKDAY(A1892, 2)</f>
+        <f t="shared" si="198"/>
         <v>6</v>
       </c>
       <c r="H1892" t="str">
-        <f>CHOOSE(WEEKDAY(A1892, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Saturday</v>
       </c>
       <c r="I1892" t="str">
-        <f>TEXT(A1892, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>May</v>
       </c>
       <c r="J1892" t="s">
@@ -78147,23 +78155,23 @@
         <v>0.83</v>
       </c>
       <c r="E1893">
-        <f>MONTH(A1893)</f>
+        <f t="shared" si="196"/>
         <v>5</v>
       </c>
       <c r="F1893">
-        <f>YEAR(A1893)</f>
+        <f t="shared" si="197"/>
         <v>2024</v>
       </c>
       <c r="G1893">
-        <f>WEEKDAY(A1893, 2)</f>
+        <f t="shared" si="198"/>
         <v>6</v>
       </c>
       <c r="H1893" t="str">
-        <f>CHOOSE(WEEKDAY(A1893, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="199"/>
         <v>Saturday</v>
       </c>
       <c r="I1893" t="str">
-        <f>TEXT(A1893, "MMM")</f>
+        <f t="shared" si="200"/>
         <v>May</v>
       </c>
       <c r="J1893" t="s">
@@ -78187,23 +78195,23 @@
         <v>1.79</v>
       </c>
       <c r="E1894">
-        <f t="shared" ref="E1894:E1901" si="196">MONTH(A1894)</f>
+        <f t="shared" ref="E1894:E1901" si="201">MONTH(A1894)</f>
         <v>5</v>
       </c>
       <c r="F1894">
-        <f t="shared" ref="F1894:F1901" si="197">YEAR(A1894)</f>
+        <f t="shared" ref="F1894:F1901" si="202">YEAR(A1894)</f>
         <v>2024</v>
       </c>
       <c r="G1894">
-        <f t="shared" ref="G1894:G1901" si="198">WEEKDAY(A1894, 2)</f>
+        <f t="shared" ref="G1894:G1901" si="203">WEEKDAY(A1894, 2)</f>
         <v>6</v>
       </c>
       <c r="H1894" t="str">
-        <f t="shared" ref="H1894:H1901" si="199">CHOOSE(WEEKDAY(A1894, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1894:H1901" si="204">CHOOSE(WEEKDAY(A1894, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Saturday</v>
       </c>
       <c r="I1894" t="str">
-        <f t="shared" ref="I1894:I1901" si="200">TEXT(A1894, "MMM")</f>
+        <f t="shared" ref="I1894:I1901" si="205">TEXT(A1894, "MMM")</f>
         <v>May</v>
       </c>
       <c r="J1894" t="s">
@@ -78227,23 +78235,23 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="E1895">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>5</v>
       </c>
       <c r="F1895">
-        <f t="shared" si="197"/>
+        <f t="shared" si="202"/>
         <v>2024</v>
       </c>
       <c r="G1895">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>6</v>
       </c>
       <c r="H1895" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>Saturday</v>
       </c>
       <c r="I1895" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>May</v>
       </c>
       <c r="J1895" t="s">
@@ -78267,23 +78275,23 @@
         <v>0.99</v>
       </c>
       <c r="E1896">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>5</v>
       </c>
       <c r="F1896">
-        <f t="shared" si="197"/>
+        <f t="shared" si="202"/>
         <v>2024</v>
       </c>
       <c r="G1896">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>6</v>
       </c>
       <c r="H1896" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>Saturday</v>
       </c>
       <c r="I1896" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>May</v>
       </c>
       <c r="J1896" t="s">
@@ -78307,23 +78315,23 @@
         <v>0.99</v>
       </c>
       <c r="E1897">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>5</v>
       </c>
       <c r="F1897">
-        <f t="shared" si="197"/>
+        <f t="shared" si="202"/>
         <v>2024</v>
       </c>
       <c r="G1897">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>6</v>
       </c>
       <c r="H1897" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>Saturday</v>
       </c>
       <c r="I1897" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>May</v>
       </c>
       <c r="J1897" t="s">
@@ -78347,23 +78355,23 @@
         <v>0.99</v>
       </c>
       <c r="E1898">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>5</v>
       </c>
       <c r="F1898">
-        <f t="shared" si="197"/>
+        <f t="shared" si="202"/>
         <v>2024</v>
       </c>
       <c r="G1898">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>6</v>
       </c>
       <c r="H1898" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>Saturday</v>
       </c>
       <c r="I1898" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>May</v>
       </c>
       <c r="J1898" t="s">
@@ -78387,23 +78395,23 @@
         <v>1.79</v>
       </c>
       <c r="E1899">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>5</v>
       </c>
       <c r="F1899">
-        <f t="shared" si="197"/>
+        <f t="shared" si="202"/>
         <v>2024</v>
       </c>
       <c r="G1899">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>6</v>
       </c>
       <c r="H1899" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>Saturday</v>
       </c>
       <c r="I1899" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>May</v>
       </c>
       <c r="J1899" t="s">
@@ -78427,23 +78435,23 @@
         <v>1.29</v>
       </c>
       <c r="E1900">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>5</v>
       </c>
       <c r="F1900">
-        <f t="shared" si="197"/>
+        <f t="shared" si="202"/>
         <v>2024</v>
       </c>
       <c r="G1900">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>6</v>
       </c>
       <c r="H1900" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>Saturday</v>
       </c>
       <c r="I1900" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>May</v>
       </c>
       <c r="J1900" t="s">
@@ -78467,23 +78475,23 @@
         <v>0.99</v>
       </c>
       <c r="E1901">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>5</v>
       </c>
       <c r="F1901">
-        <f t="shared" si="197"/>
+        <f t="shared" si="202"/>
         <v>2024</v>
       </c>
       <c r="G1901">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>6</v>
       </c>
       <c r="H1901" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>Saturday</v>
       </c>
       <c r="I1901" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>May</v>
       </c>
       <c r="J1901" t="s">
@@ -78507,23 +78515,23 @@
         <v>0.99</v>
       </c>
       <c r="E1902">
-        <f>MONTH(A1902)</f>
+        <f t="shared" ref="E1902:E1916" si="206">MONTH(A1902)</f>
         <v>5</v>
       </c>
       <c r="F1902">
-        <f>YEAR(A1902)</f>
+        <f t="shared" ref="F1902:F1916" si="207">YEAR(A1902)</f>
         <v>2024</v>
       </c>
       <c r="G1902">
-        <f>WEEKDAY(A1902, 2)</f>
+        <f t="shared" ref="G1902:G1916" si="208">WEEKDAY(A1902, 2)</f>
         <v>6</v>
       </c>
       <c r="H1902" t="str">
-        <f>CHOOSE(WEEKDAY(A1902, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1902:H1916" si="209">CHOOSE(WEEKDAY(A1902, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Saturday</v>
       </c>
       <c r="I1902" t="str">
-        <f>TEXT(A1902, "MMM")</f>
+        <f t="shared" ref="I1902:I1916" si="210">TEXT(A1902, "MMM")</f>
         <v>May</v>
       </c>
       <c r="J1902" t="s">
@@ -78547,23 +78555,23 @@
         <v>0.79</v>
       </c>
       <c r="E1903">
-        <f>MONTH(A1903)</f>
+        <f t="shared" si="206"/>
         <v>5</v>
       </c>
       <c r="F1903">
-        <f>YEAR(A1903)</f>
+        <f t="shared" si="207"/>
         <v>2024</v>
       </c>
       <c r="G1903">
-        <f>WEEKDAY(A1903, 2)</f>
+        <f t="shared" si="208"/>
         <v>1</v>
       </c>
       <c r="H1903" t="str">
-        <f>CHOOSE(WEEKDAY(A1903, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="209"/>
         <v>Monday</v>
       </c>
       <c r="I1903" t="str">
-        <f>TEXT(A1903, "MMM")</f>
+        <f t="shared" si="210"/>
         <v>May</v>
       </c>
       <c r="J1903" t="s">
@@ -78587,23 +78595,23 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="E1904">
-        <f>MONTH(A1904)</f>
+        <f t="shared" si="206"/>
         <v>5</v>
       </c>
       <c r="F1904">
-        <f>YEAR(A1904)</f>
+        <f t="shared" si="207"/>
         <v>2024</v>
       </c>
       <c r="G1904">
-        <f>WEEKDAY(A1904, 2)</f>
+        <f t="shared" si="208"/>
         <v>1</v>
       </c>
       <c r="H1904" t="str">
-        <f>CHOOSE(WEEKDAY(A1904, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="209"/>
         <v>Monday</v>
       </c>
       <c r="I1904" t="str">
-        <f>TEXT(A1904, "MMM")</f>
+        <f t="shared" si="210"/>
         <v>May</v>
       </c>
       <c r="J1904" t="s">
@@ -78627,23 +78635,23 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E1905">
-        <f>MONTH(A1905)</f>
+        <f t="shared" si="206"/>
         <v>5</v>
       </c>
       <c r="F1905">
-        <f>YEAR(A1905)</f>
+        <f t="shared" si="207"/>
         <v>2024</v>
       </c>
       <c r="G1905">
-        <f>WEEKDAY(A1905, 2)</f>
+        <f t="shared" si="208"/>
         <v>1</v>
       </c>
       <c r="H1905" t="str">
-        <f>CHOOSE(WEEKDAY(A1905, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="209"/>
         <v>Monday</v>
       </c>
       <c r="I1905" t="str">
-        <f>TEXT(A1905, "MMM")</f>
+        <f t="shared" si="210"/>
         <v>May</v>
       </c>
       <c r="J1905" t="s">
@@ -78667,23 +78675,23 @@
         <v>2.9</v>
       </c>
       <c r="E1906">
-        <f>MONTH(A1906)</f>
+        <f t="shared" si="206"/>
         <v>5</v>
       </c>
       <c r="F1906">
-        <f>YEAR(A1906)</f>
+        <f t="shared" si="207"/>
         <v>2024</v>
       </c>
       <c r="G1906">
-        <f>WEEKDAY(A1906, 2)</f>
+        <f t="shared" si="208"/>
         <v>4</v>
       </c>
       <c r="H1906" t="str">
-        <f>CHOOSE(WEEKDAY(A1906, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="209"/>
         <v>Thursday</v>
       </c>
       <c r="I1906" t="str">
-        <f>TEXT(A1906, "MMM")</f>
+        <f t="shared" si="210"/>
         <v>May</v>
       </c>
       <c r="J1906" t="s">
@@ -78704,23 +78712,23 @@
         <v>0.79</v>
       </c>
       <c r="E1907">
-        <f>MONTH(A1907)</f>
+        <f t="shared" si="206"/>
         <v>5</v>
       </c>
       <c r="F1907">
-        <f>YEAR(A1907)</f>
+        <f t="shared" si="207"/>
         <v>2024</v>
       </c>
       <c r="G1907">
-        <f>WEEKDAY(A1907, 2)</f>
+        <f t="shared" si="208"/>
         <v>4</v>
       </c>
       <c r="H1907" t="str">
-        <f>CHOOSE(WEEKDAY(A1907, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="209"/>
         <v>Thursday</v>
       </c>
       <c r="I1907" t="str">
-        <f>TEXT(A1907, "MMM")</f>
+        <f t="shared" si="210"/>
         <v>May</v>
       </c>
       <c r="J1907" t="s">
@@ -78741,23 +78749,23 @@
         <v>1.5</v>
       </c>
       <c r="E1908">
-        <f>MONTH(A1908)</f>
+        <f t="shared" si="206"/>
         <v>4</v>
       </c>
       <c r="F1908">
-        <f>YEAR(A1908)</f>
+        <f t="shared" si="207"/>
         <v>2024</v>
       </c>
       <c r="G1908">
-        <f>WEEKDAY(A1908, 2)</f>
+        <f t="shared" si="208"/>
         <v>6</v>
       </c>
       <c r="H1908" t="str">
-        <f>CHOOSE(WEEKDAY(A1908, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="209"/>
         <v>Saturday</v>
       </c>
       <c r="I1908" t="str">
-        <f>TEXT(A1908, "MMM")</f>
+        <f t="shared" si="210"/>
         <v>Apr</v>
       </c>
       <c r="J1908" t="s">
@@ -78781,23 +78789,23 @@
         <v>2.9</v>
       </c>
       <c r="E1909">
-        <f>MONTH(A1909)</f>
+        <f t="shared" si="206"/>
         <v>5</v>
       </c>
       <c r="F1909">
-        <f>YEAR(A1909)</f>
+        <f t="shared" si="207"/>
         <v>2024</v>
       </c>
       <c r="G1909">
-        <f>WEEKDAY(A1909, 2)</f>
+        <f t="shared" si="208"/>
         <v>3</v>
       </c>
       <c r="H1909" t="str">
-        <f>CHOOSE(WEEKDAY(A1909, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="209"/>
         <v>Wednesday</v>
       </c>
       <c r="I1909" t="str">
-        <f>TEXT(A1909, "MMM")</f>
+        <f t="shared" si="210"/>
         <v>May</v>
       </c>
       <c r="J1909" t="s">
@@ -78818,23 +78826,23 @@
         <v>1.39</v>
       </c>
       <c r="E1910">
-        <f>MONTH(A1910)</f>
+        <f t="shared" si="206"/>
         <v>5</v>
       </c>
       <c r="F1910">
-        <f>YEAR(A1910)</f>
+        <f t="shared" si="207"/>
         <v>2024</v>
       </c>
       <c r="G1910">
-        <f>WEEKDAY(A1910, 2)</f>
+        <f t="shared" si="208"/>
         <v>3</v>
       </c>
       <c r="H1910" t="str">
-        <f>CHOOSE(WEEKDAY(A1910, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="209"/>
         <v>Wednesday</v>
       </c>
       <c r="I1910" t="str">
-        <f>TEXT(A1910, "MMM")</f>
+        <f t="shared" si="210"/>
         <v>May</v>
       </c>
       <c r="J1910" t="s">
@@ -78858,23 +78866,23 @@
         <v>0.79</v>
       </c>
       <c r="E1911">
-        <f>MONTH(A1911)</f>
+        <f t="shared" si="206"/>
         <v>5</v>
       </c>
       <c r="F1911">
-        <f>YEAR(A1911)</f>
+        <f t="shared" si="207"/>
         <v>2024</v>
       </c>
       <c r="G1911">
-        <f>WEEKDAY(A1911, 2)</f>
+        <f t="shared" si="208"/>
         <v>3</v>
       </c>
       <c r="H1911" t="str">
-        <f>CHOOSE(WEEKDAY(A1911, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="209"/>
         <v>Wednesday</v>
       </c>
       <c r="I1911" t="str">
-        <f>TEXT(A1911, "MMM")</f>
+        <f t="shared" si="210"/>
         <v>May</v>
       </c>
       <c r="J1911" t="s">
@@ -78898,23 +78906,23 @@
         <v>3.49</v>
       </c>
       <c r="E1912">
-        <f>MONTH(A1912)</f>
+        <f t="shared" si="206"/>
         <v>5</v>
       </c>
       <c r="F1912">
-        <f>YEAR(A1912)</f>
+        <f t="shared" si="207"/>
         <v>2024</v>
       </c>
       <c r="G1912">
-        <f>WEEKDAY(A1912, 2)</f>
+        <f t="shared" si="208"/>
         <v>3</v>
       </c>
       <c r="H1912" t="str">
-        <f>CHOOSE(WEEKDAY(A1912, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="209"/>
         <v>Wednesday</v>
       </c>
       <c r="I1912" t="str">
-        <f>TEXT(A1912, "MMM")</f>
+        <f t="shared" si="210"/>
         <v>May</v>
       </c>
       <c r="J1912" t="s">
@@ -78938,23 +78946,23 @@
         <v>3.49</v>
       </c>
       <c r="E1913">
-        <f>MONTH(A1913)</f>
+        <f t="shared" si="206"/>
         <v>5</v>
       </c>
       <c r="F1913">
-        <f>YEAR(A1913)</f>
+        <f t="shared" si="207"/>
         <v>2024</v>
       </c>
       <c r="G1913">
-        <f>WEEKDAY(A1913, 2)</f>
+        <f t="shared" si="208"/>
         <v>6</v>
       </c>
       <c r="H1913" t="str">
-        <f>CHOOSE(WEEKDAY(A1913, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="209"/>
         <v>Saturday</v>
       </c>
       <c r="I1913" t="str">
-        <f>TEXT(A1913, "MMM")</f>
+        <f t="shared" si="210"/>
         <v>May</v>
       </c>
       <c r="J1913" t="s">
@@ -78978,23 +78986,23 @@
         <v>2.9</v>
       </c>
       <c r="E1914">
-        <f>MONTH(A1914)</f>
+        <f t="shared" si="206"/>
         <v>5</v>
       </c>
       <c r="F1914">
-        <f>YEAR(A1914)</f>
+        <f t="shared" si="207"/>
         <v>2024</v>
       </c>
       <c r="G1914">
-        <f>WEEKDAY(A1914, 2)</f>
+        <f t="shared" si="208"/>
         <v>2</v>
       </c>
       <c r="H1914" t="str">
-        <f>CHOOSE(WEEKDAY(A1914, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="209"/>
         <v>Tuesday</v>
       </c>
       <c r="I1914" t="str">
-        <f>TEXT(A1914, "MMM")</f>
+        <f t="shared" si="210"/>
         <v>May</v>
       </c>
       <c r="J1914" t="s">
@@ -79015,23 +79023,23 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E1915">
-        <f>MONTH(A1915)</f>
+        <f t="shared" si="206"/>
         <v>5</v>
       </c>
       <c r="F1915">
-        <f>YEAR(A1915)</f>
+        <f t="shared" si="207"/>
         <v>2024</v>
       </c>
       <c r="G1915">
-        <f>WEEKDAY(A1915, 2)</f>
+        <f t="shared" si="208"/>
         <v>2</v>
       </c>
       <c r="H1915" t="str">
-        <f>CHOOSE(WEEKDAY(A1915, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="209"/>
         <v>Tuesday</v>
       </c>
       <c r="I1915" t="str">
-        <f>TEXT(A1915, "MMM")</f>
+        <f t="shared" si="210"/>
         <v>May</v>
       </c>
       <c r="J1915" t="s">
@@ -79053,23 +79061,23 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E1916">
-        <f>MONTH(A1916)</f>
+        <f t="shared" si="206"/>
         <v>5</v>
       </c>
       <c r="F1916">
-        <f>YEAR(A1916)</f>
+        <f t="shared" si="207"/>
         <v>2024</v>
       </c>
       <c r="G1916">
-        <f>WEEKDAY(A1916, 2)</f>
+        <f t="shared" si="208"/>
         <v>6</v>
       </c>
       <c r="H1916" t="str">
-        <f>CHOOSE(WEEKDAY(A1916, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="209"/>
         <v>Saturday</v>
       </c>
       <c r="I1916" t="str">
-        <f>TEXT(A1916, "MMM")</f>
+        <f t="shared" si="210"/>
         <v>May</v>
       </c>
       <c r="J1916" t="s">
@@ -79093,23 +79101,23 @@
         <v>1.85</v>
       </c>
       <c r="E1917">
-        <f t="shared" ref="E1917:E1921" si="201">MONTH(A1917)</f>
+        <f t="shared" ref="E1917:E1921" si="211">MONTH(A1917)</f>
         <v>5</v>
       </c>
       <c r="F1917">
-        <f t="shared" ref="F1917:F1921" si="202">YEAR(A1917)</f>
+        <f t="shared" ref="F1917:F1921" si="212">YEAR(A1917)</f>
         <v>2024</v>
       </c>
       <c r="G1917">
-        <f t="shared" ref="G1917:G1921" si="203">WEEKDAY(A1917, 2)</f>
+        <f t="shared" ref="G1917:G1921" si="213">WEEKDAY(A1917, 2)</f>
         <v>6</v>
       </c>
       <c r="H1917" t="str">
-        <f t="shared" ref="H1917:H1921" si="204">CHOOSE(WEEKDAY(A1917, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1917:H1921" si="214">CHOOSE(WEEKDAY(A1917, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Saturday</v>
       </c>
       <c r="I1917" t="str">
-        <f t="shared" ref="I1917:I1921" si="205">TEXT(A1917, "MMM")</f>
+        <f t="shared" ref="I1917:I1921" si="215">TEXT(A1917, "MMM")</f>
         <v>May</v>
       </c>
       <c r="J1917" t="s">
@@ -79134,23 +79142,23 @@
         <v>4.49</v>
       </c>
       <c r="E1918">
-        <f t="shared" si="201"/>
+        <f t="shared" si="211"/>
         <v>5</v>
       </c>
       <c r="F1918">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>2024</v>
       </c>
       <c r="G1918">
-        <f t="shared" si="203"/>
+        <f t="shared" si="213"/>
         <v>6</v>
       </c>
       <c r="H1918" t="str">
-        <f t="shared" si="204"/>
+        <f t="shared" si="214"/>
         <v>Saturday</v>
       </c>
       <c r="I1918" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="215"/>
         <v>May</v>
       </c>
       <c r="J1918" t="s">
@@ -79175,23 +79183,23 @@
         <v>1.7900000000000003</v>
       </c>
       <c r="E1919">
-        <f t="shared" si="201"/>
+        <f t="shared" si="211"/>
         <v>5</v>
       </c>
       <c r="F1919">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>2024</v>
       </c>
       <c r="G1919">
-        <f t="shared" si="203"/>
+        <f t="shared" si="213"/>
         <v>6</v>
       </c>
       <c r="H1919" t="str">
-        <f t="shared" si="204"/>
+        <f t="shared" si="214"/>
         <v>Saturday</v>
       </c>
       <c r="I1919" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="215"/>
         <v>May</v>
       </c>
       <c r="J1919" t="s">
@@ -79215,23 +79223,23 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="E1920">
-        <f t="shared" si="201"/>
+        <f t="shared" si="211"/>
         <v>5</v>
       </c>
       <c r="F1920">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>2024</v>
       </c>
       <c r="G1920">
-        <f t="shared" si="203"/>
+        <f t="shared" si="213"/>
         <v>6</v>
       </c>
       <c r="H1920" t="str">
-        <f t="shared" si="204"/>
+        <f t="shared" si="214"/>
         <v>Saturday</v>
       </c>
       <c r="I1920" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="215"/>
         <v>May</v>
       </c>
       <c r="J1920" t="s">
@@ -79256,23 +79264,23 @@
         <v>2.99</v>
       </c>
       <c r="E1921">
-        <f t="shared" si="201"/>
+        <f t="shared" si="211"/>
         <v>5</v>
       </c>
       <c r="F1921">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>2024</v>
       </c>
       <c r="G1921">
-        <f t="shared" si="203"/>
+        <f t="shared" si="213"/>
         <v>6</v>
       </c>
       <c r="H1921" t="str">
-        <f t="shared" si="204"/>
+        <f t="shared" si="214"/>
         <v>Saturday</v>
       </c>
       <c r="I1921" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="215"/>
         <v>May</v>
       </c>
       <c r="J1921" t="s">
@@ -79296,23 +79304,23 @@
         <v>0.75</v>
       </c>
       <c r="E1922">
-        <f>MONTH(A1922)</f>
+        <f t="shared" ref="E1922:E1941" si="216">MONTH(A1922)</f>
         <v>5</v>
       </c>
       <c r="F1922">
-        <f>YEAR(A1922)</f>
+        <f t="shared" ref="F1922:F1941" si="217">YEAR(A1922)</f>
         <v>2024</v>
       </c>
       <c r="G1922">
-        <f>WEEKDAY(A1922, 2)</f>
+        <f t="shared" ref="G1922:G1941" si="218">WEEKDAY(A1922, 2)</f>
         <v>6</v>
       </c>
       <c r="H1922" t="str">
-        <f>CHOOSE(WEEKDAY(A1922, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1922:H1941" si="219">CHOOSE(WEEKDAY(A1922, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Saturday</v>
       </c>
       <c r="I1922" t="str">
-        <f>TEXT(A1922, "MMM")</f>
+        <f t="shared" ref="I1922:I1941" si="220">TEXT(A1922, "MMM")</f>
         <v>May</v>
       </c>
       <c r="J1922" t="s">
@@ -79337,23 +79345,23 @@
         <v>3.74</v>
       </c>
       <c r="E1923">
-        <f>MONTH(A1923)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1923">
-        <f>YEAR(A1923)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1923">
-        <f>WEEKDAY(A1923, 2)</f>
+        <f t="shared" si="218"/>
         <v>6</v>
       </c>
       <c r="H1923" t="str">
-        <f>CHOOSE(WEEKDAY(A1923, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Saturday</v>
       </c>
       <c r="I1923" t="str">
-        <f>TEXT(A1923, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1923" t="s">
@@ -79377,23 +79385,23 @@
         <v>1.7</v>
       </c>
       <c r="E1924">
-        <f>MONTH(A1924)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1924">
-        <f>YEAR(A1924)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1924">
-        <f>WEEKDAY(A1924, 2)</f>
+        <f t="shared" si="218"/>
         <v>1</v>
       </c>
       <c r="H1924" t="str">
-        <f>CHOOSE(WEEKDAY(A1924, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Monday</v>
       </c>
       <c r="I1924" t="str">
-        <f>TEXT(A1924, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1924" t="s">
@@ -79417,23 +79425,23 @@
         <v>1.7</v>
       </c>
       <c r="E1925">
-        <f>MONTH(A1925)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1925">
-        <f>YEAR(A1925)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1925">
-        <f>WEEKDAY(A1925, 2)</f>
+        <f t="shared" si="218"/>
         <v>1</v>
       </c>
       <c r="H1925" t="str">
-        <f>CHOOSE(WEEKDAY(A1925, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Monday</v>
       </c>
       <c r="I1925" t="str">
-        <f>TEXT(A1925, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1925" t="s">
@@ -79457,23 +79465,23 @@
         <v>2.9</v>
       </c>
       <c r="E1926">
-        <f>MONTH(A1926)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1926">
-        <f>YEAR(A1926)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1926">
-        <f>WEEKDAY(A1926, 2)</f>
+        <f t="shared" si="218"/>
         <v>7</v>
       </c>
       <c r="H1926" t="str">
-        <f>CHOOSE(WEEKDAY(A1926, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Sunday</v>
       </c>
       <c r="I1926" t="str">
-        <f>TEXT(A1926, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1926" t="s">
@@ -79497,23 +79505,23 @@
         <v>2.4</v>
       </c>
       <c r="E1927">
-        <f>MONTH(A1927)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1927">
-        <f>YEAR(A1927)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1927">
-        <f>WEEKDAY(A1927, 2)</f>
+        <f t="shared" si="218"/>
         <v>5</v>
       </c>
       <c r="H1927" t="str">
-        <f>CHOOSE(WEEKDAY(A1927, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Friday</v>
       </c>
       <c r="I1927" t="str">
-        <f>TEXT(A1927, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1927" t="s">
@@ -79534,23 +79542,23 @@
         <v>0.79</v>
       </c>
       <c r="E1928">
-        <f>MONTH(A1928)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1928">
-        <f>YEAR(A1928)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1928">
-        <f>WEEKDAY(A1928, 2)</f>
+        <f t="shared" si="218"/>
         <v>5</v>
       </c>
       <c r="H1928" t="str">
-        <f>CHOOSE(WEEKDAY(A1928, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Friday</v>
       </c>
       <c r="I1928" t="str">
-        <f>TEXT(A1928, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1928" t="s">
@@ -79571,23 +79579,23 @@
         <v>15.87</v>
       </c>
       <c r="E1929">
-        <f>MONTH(A1929)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1929">
-        <f>YEAR(A1929)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1929">
-        <f>WEEKDAY(A1929, 2)</f>
+        <f t="shared" si="218"/>
         <v>7</v>
       </c>
       <c r="H1929" t="str">
-        <f>CHOOSE(WEEKDAY(A1929, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Sunday</v>
       </c>
       <c r="I1929" t="str">
-        <f>TEXT(A1929, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1929" t="s">
@@ -79612,23 +79620,23 @@
         <v>1.9</v>
       </c>
       <c r="E1930">
-        <f>MONTH(A1930)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1930">
-        <f>YEAR(A1930)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1930">
-        <f>WEEKDAY(A1930, 2)</f>
+        <f t="shared" si="218"/>
         <v>7</v>
       </c>
       <c r="H1930" t="str">
-        <f>CHOOSE(WEEKDAY(A1930, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Sunday</v>
       </c>
       <c r="I1930" t="str">
-        <f>TEXT(A1930, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1930" t="s">
@@ -79652,23 +79660,23 @@
         <v>2.9</v>
       </c>
       <c r="E1931">
-        <f>MONTH(A1931)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1931">
-        <f>YEAR(A1931)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1931">
-        <f>WEEKDAY(A1931, 2)</f>
+        <f t="shared" si="218"/>
         <v>7</v>
       </c>
       <c r="H1931" t="str">
-        <f>CHOOSE(WEEKDAY(A1931, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Sunday</v>
       </c>
       <c r="I1931" t="str">
-        <f>TEXT(A1931, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1931" t="s">
@@ -79692,23 +79700,23 @@
         <v>13.2</v>
       </c>
       <c r="E1932">
-        <f>MONTH(A1932)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1932">
-        <f>YEAR(A1932)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1932">
-        <f>WEEKDAY(A1932, 2)</f>
+        <f t="shared" si="218"/>
         <v>7</v>
       </c>
       <c r="H1932" t="str">
-        <f>CHOOSE(WEEKDAY(A1932, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Sunday</v>
       </c>
       <c r="I1932" t="str">
-        <f>TEXT(A1932, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1932" t="s">
@@ -79732,23 +79740,23 @@
         <v>10</v>
       </c>
       <c r="E1933">
-        <f>MONTH(A1933)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1933">
-        <f>YEAR(A1933)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1933">
-        <f>WEEKDAY(A1933, 2)</f>
+        <f t="shared" si="218"/>
         <v>7</v>
       </c>
       <c r="H1933" t="str">
-        <f>CHOOSE(WEEKDAY(A1933, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Sunday</v>
       </c>
       <c r="I1933" t="str">
-        <f>TEXT(A1933, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1933" t="s">
@@ -79772,23 +79780,23 @@
         <v>53.61</v>
       </c>
       <c r="E1934">
-        <f>MONTH(A1934)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1934">
-        <f>YEAR(A1934)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1934">
-        <f>WEEKDAY(A1934, 2)</f>
+        <f t="shared" si="218"/>
         <v>2</v>
       </c>
       <c r="H1934" t="str">
-        <f>CHOOSE(WEEKDAY(A1934, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Tuesday</v>
       </c>
       <c r="I1934" t="str">
-        <f>TEXT(A1934, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1934" t="s">
@@ -79812,23 +79820,23 @@
         <v>3.4</v>
       </c>
       <c r="E1935">
-        <f>MONTH(A1935)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1935">
-        <f>YEAR(A1935)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1935">
-        <f>WEEKDAY(A1935, 2)</f>
+        <f t="shared" si="218"/>
         <v>2</v>
       </c>
       <c r="H1935" t="str">
-        <f>CHOOSE(WEEKDAY(A1935, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Tuesday</v>
       </c>
       <c r="I1935" t="str">
-        <f>TEXT(A1935, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1935" t="s">
@@ -79852,23 +79860,23 @@
         <v>2.1</v>
       </c>
       <c r="E1936">
-        <f>MONTH(A1936)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1936">
-        <f>YEAR(A1936)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1936">
-        <f>WEEKDAY(A1936, 2)</f>
+        <f t="shared" si="218"/>
         <v>2</v>
       </c>
       <c r="H1936" t="str">
-        <f>CHOOSE(WEEKDAY(A1936, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Tuesday</v>
       </c>
       <c r="I1936" t="str">
-        <f>TEXT(A1936, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1936" t="s">
@@ -79892,23 +79900,23 @@
         <v>20.010000000000002</v>
       </c>
       <c r="E1937">
-        <f>MONTH(A1937)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1937">
-        <f>YEAR(A1937)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1937">
-        <f>WEEKDAY(A1937, 2)</f>
+        <f t="shared" si="218"/>
         <v>2</v>
       </c>
       <c r="H1937" t="str">
-        <f>CHOOSE(WEEKDAY(A1937, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Tuesday</v>
       </c>
       <c r="I1937" t="str">
-        <f>TEXT(A1937, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1937" t="s">
@@ -79932,23 +79940,23 @@
         <v>2.9</v>
       </c>
       <c r="E1938">
-        <f>MONTH(A1938)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1938">
-        <f>YEAR(A1938)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1938">
-        <f>WEEKDAY(A1938, 2)</f>
+        <f t="shared" si="218"/>
         <v>2</v>
       </c>
       <c r="H1938" t="str">
-        <f>CHOOSE(WEEKDAY(A1938, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Tuesday</v>
       </c>
       <c r="I1938" t="str">
-        <f>TEXT(A1938, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1938" t="s">
@@ -79969,23 +79977,23 @@
         <v>2.9</v>
       </c>
       <c r="E1939">
-        <f>MONTH(A1939)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1939">
-        <f>YEAR(A1939)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1939">
-        <f>WEEKDAY(A1939, 2)</f>
+        <f t="shared" si="218"/>
         <v>3</v>
       </c>
       <c r="H1939" t="str">
-        <f>CHOOSE(WEEKDAY(A1939, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Wednesday</v>
       </c>
       <c r="I1939" t="str">
-        <f>TEXT(A1939, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1939" t="s">
@@ -80006,23 +80014,23 @@
         <v>1.99</v>
       </c>
       <c r="E1940">
-        <f>MONTH(A1940)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1940">
-        <f>YEAR(A1940)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1940">
-        <f>WEEKDAY(A1940, 2)</f>
+        <f t="shared" si="218"/>
         <v>3</v>
       </c>
       <c r="H1940" t="str">
-        <f>CHOOSE(WEEKDAY(A1940, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Wednesday</v>
       </c>
       <c r="I1940" t="str">
-        <f>TEXT(A1940, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1940" t="s">
@@ -80046,23 +80054,23 @@
         <v>1.99</v>
       </c>
       <c r="E1941">
-        <f>MONTH(A1941)</f>
+        <f t="shared" si="216"/>
         <v>5</v>
       </c>
       <c r="F1941">
-        <f>YEAR(A1941)</f>
+        <f t="shared" si="217"/>
         <v>2024</v>
       </c>
       <c r="G1941">
-        <f>WEEKDAY(A1941, 2)</f>
+        <f t="shared" si="218"/>
         <v>3</v>
       </c>
       <c r="H1941" t="str">
-        <f>CHOOSE(WEEKDAY(A1941, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="219"/>
         <v>Wednesday</v>
       </c>
       <c r="I1941" t="str">
-        <f>TEXT(A1941, "MMM")</f>
+        <f t="shared" si="220"/>
         <v>May</v>
       </c>
       <c r="J1941" t="s">
@@ -80086,23 +80094,23 @@
         <v>1.78</v>
       </c>
       <c r="E1942">
-        <f t="shared" ref="E1942:E1943" si="206">MONTH(A1942)</f>
+        <f t="shared" ref="E1942:E1943" si="221">MONTH(A1942)</f>
         <v>5</v>
       </c>
       <c r="F1942">
-        <f t="shared" ref="F1942:F1943" si="207">YEAR(A1942)</f>
+        <f t="shared" ref="F1942:F1943" si="222">YEAR(A1942)</f>
         <v>2024</v>
       </c>
       <c r="G1942">
-        <f t="shared" ref="G1942:G1943" si="208">WEEKDAY(A1942, 2)</f>
+        <f t="shared" ref="G1942:G1943" si="223">WEEKDAY(A1942, 2)</f>
         <v>3</v>
       </c>
       <c r="H1942" t="str">
-        <f t="shared" ref="H1942:H1943" si="209">CHOOSE(WEEKDAY(A1942, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1942:H1943" si="224">CHOOSE(WEEKDAY(A1942, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Wednesday</v>
       </c>
       <c r="I1942" t="str">
-        <f t="shared" ref="I1942:I1943" si="210">TEXT(A1942, "MMM")</f>
+        <f t="shared" ref="I1942:I1943" si="225">TEXT(A1942, "MMM")</f>
         <v>May</v>
       </c>
       <c r="J1942" t="s">
@@ -80126,23 +80134,23 @@
         <v>1.19</v>
       </c>
       <c r="E1943">
-        <f t="shared" si="206"/>
+        <f t="shared" si="221"/>
         <v>5</v>
       </c>
       <c r="F1943">
-        <f t="shared" si="207"/>
+        <f t="shared" si="222"/>
         <v>2024</v>
       </c>
       <c r="G1943">
-        <f t="shared" si="208"/>
+        <f t="shared" si="223"/>
         <v>3</v>
       </c>
       <c r="H1943" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="224"/>
         <v>Wednesday</v>
       </c>
       <c r="I1943" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="225"/>
         <v>May</v>
       </c>
       <c r="J1943" t="s">
@@ -80166,23 +80174,23 @@
         <v>1.19</v>
       </c>
       <c r="E1944">
-        <f>MONTH(A1944)</f>
+        <f t="shared" ref="E1944:E1952" si="226">MONTH(A1944)</f>
         <v>5</v>
       </c>
       <c r="F1944">
-        <f>YEAR(A1944)</f>
+        <f t="shared" ref="F1944:F1952" si="227">YEAR(A1944)</f>
         <v>2024</v>
       </c>
       <c r="G1944">
-        <f>WEEKDAY(A1944, 2)</f>
+        <f t="shared" ref="G1944:G1952" si="228">WEEKDAY(A1944, 2)</f>
         <v>3</v>
       </c>
       <c r="H1944" t="str">
-        <f>CHOOSE(WEEKDAY(A1944, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1944:H1952" si="229">CHOOSE(WEEKDAY(A1944, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Wednesday</v>
       </c>
       <c r="I1944" t="str">
-        <f>TEXT(A1944, "MMM")</f>
+        <f t="shared" ref="I1944:I1952" si="230">TEXT(A1944, "MMM")</f>
         <v>May</v>
       </c>
       <c r="J1944" t="s">
@@ -80206,23 +80214,23 @@
         <v>1.19</v>
       </c>
       <c r="E1945">
-        <f>MONTH(A1945)</f>
+        <f t="shared" si="226"/>
         <v>5</v>
       </c>
       <c r="F1945">
-        <f>YEAR(A1945)</f>
+        <f t="shared" si="227"/>
         <v>2024</v>
       </c>
       <c r="G1945">
-        <f>WEEKDAY(A1945, 2)</f>
+        <f t="shared" si="228"/>
         <v>3</v>
       </c>
       <c r="H1945" t="str">
-        <f>CHOOSE(WEEKDAY(A1945, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="229"/>
         <v>Wednesday</v>
       </c>
       <c r="I1945" t="str">
-        <f>TEXT(A1945, "MMM")</f>
+        <f t="shared" si="230"/>
         <v>May</v>
       </c>
       <c r="J1945" t="s">
@@ -80247,23 +80255,23 @@
         <v>4.49</v>
       </c>
       <c r="E1946">
-        <f>MONTH(A1946)</f>
+        <f t="shared" si="226"/>
         <v>5</v>
       </c>
       <c r="F1946">
-        <f>YEAR(A1946)</f>
+        <f t="shared" si="227"/>
         <v>2024</v>
       </c>
       <c r="G1946">
-        <f>WEEKDAY(A1946, 2)</f>
+        <f t="shared" si="228"/>
         <v>3</v>
       </c>
       <c r="H1946" t="str">
-        <f>CHOOSE(WEEKDAY(A1946, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="229"/>
         <v>Wednesday</v>
       </c>
       <c r="I1946" t="str">
-        <f>TEXT(A1946, "MMM")</f>
+        <f t="shared" si="230"/>
         <v>May</v>
       </c>
       <c r="J1946" t="s">
@@ -80287,23 +80295,23 @@
         <v>4.49</v>
       </c>
       <c r="E1947">
-        <f>MONTH(A1947)</f>
+        <f t="shared" si="226"/>
         <v>5</v>
       </c>
       <c r="F1947">
-        <f>YEAR(A1947)</f>
+        <f t="shared" si="227"/>
         <v>2024</v>
       </c>
       <c r="G1947">
-        <f>WEEKDAY(A1947, 2)</f>
+        <f t="shared" si="228"/>
         <v>3</v>
       </c>
       <c r="H1947" t="str">
-        <f>CHOOSE(WEEKDAY(A1947, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="229"/>
         <v>Wednesday</v>
       </c>
       <c r="I1947" t="str">
-        <f>TEXT(A1947, "MMM")</f>
+        <f t="shared" si="230"/>
         <v>May</v>
       </c>
       <c r="J1947" t="s">
@@ -80327,23 +80335,23 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="E1948">
-        <f>MONTH(A1948)</f>
+        <f t="shared" si="226"/>
         <v>5</v>
       </c>
       <c r="F1948">
-        <f>YEAR(A1948)</f>
+        <f t="shared" si="227"/>
         <v>2024</v>
       </c>
       <c r="G1948">
-        <f>WEEKDAY(A1948, 2)</f>
+        <f t="shared" si="228"/>
         <v>3</v>
       </c>
       <c r="H1948" t="str">
-        <f>CHOOSE(WEEKDAY(A1948, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="229"/>
         <v>Wednesday</v>
       </c>
       <c r="I1948" t="str">
-        <f>TEXT(A1948, "MMM")</f>
+        <f t="shared" si="230"/>
         <v>May</v>
       </c>
       <c r="J1948" t="s">
@@ -80367,23 +80375,23 @@
         <v>1.99</v>
       </c>
       <c r="E1949">
-        <f>MONTH(A1949)</f>
+        <f t="shared" si="226"/>
         <v>5</v>
       </c>
       <c r="F1949">
-        <f>YEAR(A1949)</f>
+        <f t="shared" si="227"/>
         <v>2024</v>
       </c>
       <c r="G1949">
-        <f>WEEKDAY(A1949, 2)</f>
+        <f t="shared" si="228"/>
         <v>3</v>
       </c>
       <c r="H1949" t="str">
-        <f>CHOOSE(WEEKDAY(A1949, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="229"/>
         <v>Wednesday</v>
       </c>
       <c r="I1949" t="str">
-        <f>TEXT(A1949, "MMM")</f>
+        <f t="shared" si="230"/>
         <v>May</v>
       </c>
       <c r="J1949" t="s">
@@ -80407,23 +80415,23 @@
         <v>1.39</v>
       </c>
       <c r="E1950">
-        <f>MONTH(A1950)</f>
+        <f t="shared" si="226"/>
         <v>5</v>
       </c>
       <c r="F1950">
-        <f>YEAR(A1950)</f>
+        <f t="shared" si="227"/>
         <v>2024</v>
       </c>
       <c r="G1950">
-        <f>WEEKDAY(A1950, 2)</f>
+        <f t="shared" si="228"/>
         <v>3</v>
       </c>
       <c r="H1950" t="str">
-        <f>CHOOSE(WEEKDAY(A1950, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="229"/>
         <v>Wednesday</v>
       </c>
       <c r="I1950" t="str">
-        <f>TEXT(A1950, "MMM")</f>
+        <f t="shared" si="230"/>
         <v>May</v>
       </c>
       <c r="J1950" t="s">
@@ -80447,23 +80455,23 @@
         <v>1.19</v>
       </c>
       <c r="E1951">
-        <f>MONTH(A1951)</f>
+        <f t="shared" si="226"/>
         <v>5</v>
       </c>
       <c r="F1951">
-        <f>YEAR(A1951)</f>
+        <f t="shared" si="227"/>
         <v>2024</v>
       </c>
       <c r="G1951">
-        <f>WEEKDAY(A1951, 2)</f>
+        <f t="shared" si="228"/>
         <v>3</v>
       </c>
       <c r="H1951" t="str">
-        <f>CHOOSE(WEEKDAY(A1951, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="229"/>
         <v>Wednesday</v>
       </c>
       <c r="I1951" t="str">
-        <f>TEXT(A1951, "MMM")</f>
+        <f t="shared" si="230"/>
         <v>May</v>
       </c>
       <c r="J1951" t="s">
@@ -80487,23 +80495,23 @@
         <v>1.59</v>
       </c>
       <c r="E1952">
-        <f>MONTH(A1952)</f>
+        <f t="shared" si="226"/>
         <v>5</v>
       </c>
       <c r="F1952">
-        <f>YEAR(A1952)</f>
+        <f t="shared" si="227"/>
         <v>2024</v>
       </c>
       <c r="G1952">
-        <f>WEEKDAY(A1952, 2)</f>
+        <f t="shared" si="228"/>
         <v>3</v>
       </c>
       <c r="H1952" t="str">
-        <f>CHOOSE(WEEKDAY(A1952, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="229"/>
         <v>Wednesday</v>
       </c>
       <c r="I1952" t="str">
-        <f>TEXT(A1952, "MMM")</f>
+        <f t="shared" si="230"/>
         <v>May</v>
       </c>
       <c r="J1952" t="s">
@@ -80527,23 +80535,23 @@
         <v>5.49</v>
       </c>
       <c r="E1953">
-        <f t="shared" ref="E1953:E1959" si="211">MONTH(A1953)</f>
+        <f t="shared" ref="E1953:E1959" si="231">MONTH(A1953)</f>
         <v>5</v>
       </c>
       <c r="F1953">
-        <f t="shared" ref="F1953:F1959" si="212">YEAR(A1953)</f>
+        <f t="shared" ref="F1953:F1959" si="232">YEAR(A1953)</f>
         <v>2024</v>
       </c>
       <c r="G1953">
-        <f t="shared" ref="G1953:G1959" si="213">WEEKDAY(A1953, 2)</f>
+        <f t="shared" ref="G1953:G1959" si="233">WEEKDAY(A1953, 2)</f>
         <v>3</v>
       </c>
       <c r="H1953" t="str">
-        <f t="shared" ref="H1953:H1959" si="214">CHOOSE(WEEKDAY(A1953, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1953:H1959" si="234">CHOOSE(WEEKDAY(A1953, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Wednesday</v>
       </c>
       <c r="I1953" t="str">
-        <f t="shared" ref="I1953:I1959" si="215">TEXT(A1953, "MMM")</f>
+        <f t="shared" ref="I1953:I1959" si="235">TEXT(A1953, "MMM")</f>
         <v>May</v>
       </c>
       <c r="J1953" t="s">
@@ -80568,23 +80576,23 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="E1954">
-        <f t="shared" si="211"/>
+        <f t="shared" si="231"/>
         <v>5</v>
       </c>
       <c r="F1954">
-        <f t="shared" si="212"/>
+        <f t="shared" si="232"/>
         <v>2024</v>
       </c>
       <c r="G1954">
-        <f t="shared" si="213"/>
+        <f t="shared" si="233"/>
         <v>3</v>
       </c>
       <c r="H1954" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="234"/>
         <v>Wednesday</v>
       </c>
       <c r="I1954" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="235"/>
         <v>May</v>
       </c>
       <c r="J1954" t="s">
@@ -80608,23 +80616,23 @@
         <v>1.49</v>
       </c>
       <c r="E1955">
-        <f t="shared" si="211"/>
+        <f t="shared" si="231"/>
         <v>5</v>
       </c>
       <c r="F1955">
-        <f t="shared" si="212"/>
+        <f t="shared" si="232"/>
         <v>2024</v>
       </c>
       <c r="G1955">
-        <f t="shared" si="213"/>
+        <f t="shared" si="233"/>
         <v>3</v>
       </c>
       <c r="H1955" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="234"/>
         <v>Wednesday</v>
       </c>
       <c r="I1955" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="235"/>
         <v>May</v>
       </c>
       <c r="J1955" t="s">
@@ -80649,23 +80657,23 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="E1956">
-        <f t="shared" si="211"/>
+        <f t="shared" si="231"/>
         <v>5</v>
       </c>
       <c r="F1956">
-        <f t="shared" si="212"/>
+        <f t="shared" si="232"/>
         <v>2024</v>
       </c>
       <c r="G1956">
-        <f t="shared" si="213"/>
+        <f t="shared" si="233"/>
         <v>3</v>
       </c>
       <c r="H1956" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="234"/>
         <v>Wednesday</v>
       </c>
       <c r="I1956" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="235"/>
         <v>May</v>
       </c>
       <c r="J1956" t="s">
@@ -80690,23 +80698,23 @@
         <v>1.1950000000000001</v>
       </c>
       <c r="E1957">
-        <f t="shared" si="211"/>
+        <f t="shared" si="231"/>
         <v>5</v>
       </c>
       <c r="F1957">
-        <f t="shared" si="212"/>
+        <f t="shared" si="232"/>
         <v>2024</v>
       </c>
       <c r="G1957">
-        <f t="shared" si="213"/>
+        <f t="shared" si="233"/>
         <v>3</v>
       </c>
       <c r="H1957" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="234"/>
         <v>Wednesday</v>
       </c>
       <c r="I1957" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="235"/>
         <v>May</v>
       </c>
       <c r="J1957" t="s">
@@ -80730,23 +80738,23 @@
         <v>2.39</v>
       </c>
       <c r="E1958">
-        <f t="shared" si="211"/>
+        <f t="shared" si="231"/>
         <v>5</v>
       </c>
       <c r="F1958">
-        <f t="shared" si="212"/>
+        <f t="shared" si="232"/>
         <v>2024</v>
       </c>
       <c r="G1958">
-        <f t="shared" si="213"/>
+        <f t="shared" si="233"/>
         <v>3</v>
       </c>
       <c r="H1958" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="234"/>
         <v>Wednesday</v>
       </c>
       <c r="I1958" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="235"/>
         <v>May</v>
       </c>
       <c r="J1958" t="s">
@@ -80770,23 +80778,23 @@
         <v>0.99</v>
       </c>
       <c r="E1959">
-        <f t="shared" si="211"/>
+        <f t="shared" si="231"/>
         <v>5</v>
       </c>
       <c r="F1959">
-        <f t="shared" si="212"/>
+        <f t="shared" si="232"/>
         <v>2024</v>
       </c>
       <c r="G1959">
-        <f t="shared" si="213"/>
+        <f t="shared" si="233"/>
         <v>3</v>
       </c>
       <c r="H1959" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="234"/>
         <v>Wednesday</v>
       </c>
       <c r="I1959" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="235"/>
         <v>May</v>
       </c>
       <c r="J1959" t="s">
@@ -80931,23 +80939,23 @@
         <v>4.49</v>
       </c>
       <c r="E1963">
-        <f t="shared" ref="E1963:E1967" si="216">MONTH(A1963)</f>
+        <f t="shared" ref="E1963:E1967" si="236">MONTH(A1963)</f>
         <v>5</v>
       </c>
       <c r="F1963">
-        <f t="shared" ref="F1963:F1967" si="217">YEAR(A1963)</f>
+        <f t="shared" ref="F1963:F1967" si="237">YEAR(A1963)</f>
         <v>2024</v>
       </c>
       <c r="G1963">
-        <f t="shared" ref="G1963:G1967" si="218">WEEKDAY(A1963, 2)</f>
+        <f t="shared" ref="G1963:G1967" si="238">WEEKDAY(A1963, 2)</f>
         <v>3</v>
       </c>
       <c r="H1963" t="str">
-        <f t="shared" ref="H1963:H1967" si="219">CHOOSE(WEEKDAY(A1963, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1963:H1967" si="239">CHOOSE(WEEKDAY(A1963, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Wednesday</v>
       </c>
       <c r="I1963" t="str">
-        <f t="shared" ref="I1963:I1967" si="220">TEXT(A1963, "MMM")</f>
+        <f t="shared" ref="I1963:I1967" si="240">TEXT(A1963, "MMM")</f>
         <v>May</v>
       </c>
       <c r="J1963" t="s">
@@ -80971,23 +80979,23 @@
         <v>2.89</v>
       </c>
       <c r="E1964">
-        <f t="shared" si="216"/>
+        <f t="shared" si="236"/>
         <v>5</v>
       </c>
       <c r="F1964">
-        <f t="shared" si="217"/>
+        <f t="shared" si="237"/>
         <v>2024</v>
       </c>
       <c r="G1964">
-        <f t="shared" si="218"/>
+        <f t="shared" si="238"/>
         <v>3</v>
       </c>
       <c r="H1964" t="str">
-        <f t="shared" si="219"/>
+        <f t="shared" si="239"/>
         <v>Wednesday</v>
       </c>
       <c r="I1964" t="str">
-        <f t="shared" si="220"/>
+        <f t="shared" si="240"/>
         <v>May</v>
       </c>
       <c r="J1964" t="s">
@@ -81011,23 +81019,23 @@
         <v>1.99</v>
       </c>
       <c r="E1965">
-        <f t="shared" si="216"/>
+        <f t="shared" si="236"/>
         <v>5</v>
       </c>
       <c r="F1965">
-        <f t="shared" si="217"/>
+        <f t="shared" si="237"/>
         <v>2024</v>
       </c>
       <c r="G1965">
-        <f t="shared" si="218"/>
+        <f t="shared" si="238"/>
         <v>3</v>
       </c>
       <c r="H1965" t="str">
-        <f t="shared" si="219"/>
+        <f t="shared" si="239"/>
         <v>Wednesday</v>
       </c>
       <c r="I1965" t="str">
-        <f t="shared" si="220"/>
+        <f t="shared" si="240"/>
         <v>May</v>
       </c>
       <c r="J1965" t="s">
@@ -81052,23 +81060,23 @@
         <v>4.49</v>
       </c>
       <c r="E1966">
-        <f t="shared" si="216"/>
+        <f t="shared" si="236"/>
         <v>5</v>
       </c>
       <c r="F1966">
-        <f t="shared" si="217"/>
+        <f t="shared" si="237"/>
         <v>2024</v>
       </c>
       <c r="G1966">
-        <f t="shared" si="218"/>
+        <f t="shared" si="238"/>
         <v>3</v>
       </c>
       <c r="H1966" t="str">
-        <f t="shared" si="219"/>
+        <f t="shared" si="239"/>
         <v>Wednesday</v>
       </c>
       <c r="I1966" t="str">
-        <f t="shared" si="220"/>
+        <f t="shared" si="240"/>
         <v>May</v>
       </c>
       <c r="J1966" t="s">
@@ -81092,23 +81100,23 @@
         <v>0.59</v>
       </c>
       <c r="E1967">
-        <f t="shared" si="216"/>
+        <f t="shared" si="236"/>
         <v>6</v>
       </c>
       <c r="F1967">
-        <f t="shared" si="217"/>
+        <f t="shared" si="237"/>
         <v>2024</v>
       </c>
       <c r="G1967">
-        <f t="shared" si="218"/>
+        <f t="shared" si="238"/>
         <v>1</v>
       </c>
       <c r="H1967" t="str">
-        <f t="shared" si="219"/>
+        <f t="shared" si="239"/>
         <v>Monday</v>
       </c>
       <c r="I1967" t="str">
-        <f t="shared" si="220"/>
+        <f t="shared" si="240"/>
         <v>Jun</v>
       </c>
       <c r="J1967" t="s">
@@ -81132,23 +81140,23 @@
         <v>0.59</v>
       </c>
       <c r="E1968">
-        <f>MONTH(A1968)</f>
+        <f t="shared" ref="E1968:E1982" si="241">MONTH(A1968)</f>
         <v>6</v>
       </c>
       <c r="F1968">
-        <f>YEAR(A1968)</f>
+        <f t="shared" ref="F1968:F1982" si="242">YEAR(A1968)</f>
         <v>2024</v>
       </c>
       <c r="G1968">
-        <f>WEEKDAY(A1968, 2)</f>
+        <f t="shared" ref="G1968:G1982" si="243">WEEKDAY(A1968, 2)</f>
         <v>1</v>
       </c>
       <c r="H1968" t="str">
-        <f>CHOOSE(WEEKDAY(A1968, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1968:H1982" si="244">CHOOSE(WEEKDAY(A1968, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Monday</v>
       </c>
       <c r="I1968" t="str">
-        <f>TEXT(A1968, "MMM")</f>
+        <f t="shared" ref="I1968:I1982" si="245">TEXT(A1968, "MMM")</f>
         <v>Jun</v>
       </c>
       <c r="J1968" t="s">
@@ -81172,23 +81180,23 @@
         <v>2.4</v>
       </c>
       <c r="E1969">
-        <f>MONTH(A1969)</f>
+        <f t="shared" si="241"/>
         <v>6</v>
       </c>
       <c r="F1969">
-        <f>YEAR(A1969)</f>
+        <f t="shared" si="242"/>
         <v>2024</v>
       </c>
       <c r="G1969">
-        <f>WEEKDAY(A1969, 2)</f>
+        <f t="shared" si="243"/>
         <v>1</v>
       </c>
       <c r="H1969" t="str">
-        <f>CHOOSE(WEEKDAY(A1969, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="244"/>
         <v>Monday</v>
       </c>
       <c r="I1969" t="str">
-        <f>TEXT(A1969, "MMM")</f>
+        <f t="shared" si="245"/>
         <v>Jun</v>
       </c>
       <c r="J1969" t="s">
@@ -81209,23 +81217,23 @@
         <v>0.79</v>
       </c>
       <c r="E1970">
-        <f>MONTH(A1970)</f>
+        <f t="shared" si="241"/>
         <v>6</v>
       </c>
       <c r="F1970">
-        <f>YEAR(A1970)</f>
+        <f t="shared" si="242"/>
         <v>2024</v>
       </c>
       <c r="G1970">
-        <f>WEEKDAY(A1970, 2)</f>
+        <f t="shared" si="243"/>
         <v>1</v>
       </c>
       <c r="H1970" t="str">
-        <f>CHOOSE(WEEKDAY(A1970, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="244"/>
         <v>Monday</v>
       </c>
       <c r="I1970" t="str">
-        <f>TEXT(A1970, "MMM")</f>
+        <f t="shared" si="245"/>
         <v>Jun</v>
       </c>
       <c r="J1970" t="s">
@@ -81246,23 +81254,23 @@
         <v>2.9</v>
       </c>
       <c r="E1971">
-        <f>MONTH(A1971)</f>
+        <f t="shared" si="241"/>
         <v>6</v>
       </c>
       <c r="F1971">
-        <f>YEAR(A1971)</f>
+        <f t="shared" si="242"/>
         <v>2024</v>
       </c>
       <c r="G1971">
-        <f>WEEKDAY(A1971, 2)</f>
+        <f t="shared" si="243"/>
         <v>1</v>
       </c>
       <c r="H1971" t="str">
-        <f>CHOOSE(WEEKDAY(A1971, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="244"/>
         <v>Monday</v>
       </c>
       <c r="I1971" t="str">
-        <f>TEXT(A1971, "MMM")</f>
+        <f t="shared" si="245"/>
         <v>Jun</v>
       </c>
       <c r="J1971" t="s">
@@ -81284,23 +81292,23 @@
         <v>0.75</v>
       </c>
       <c r="E1972">
-        <f>MONTH(A1972)</f>
+        <f t="shared" si="241"/>
         <v>6</v>
       </c>
       <c r="F1972">
-        <f>YEAR(A1972)</f>
+        <f t="shared" si="242"/>
         <v>2024</v>
       </c>
       <c r="G1972">
-        <f>WEEKDAY(A1972, 2)</f>
+        <f t="shared" si="243"/>
         <v>7</v>
       </c>
       <c r="H1972" t="str">
-        <f>CHOOSE(WEEKDAY(A1972, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="244"/>
         <v>Sunday</v>
       </c>
       <c r="I1972" t="str">
-        <f>TEXT(A1972, "MMM")</f>
+        <f t="shared" si="245"/>
         <v>Jun</v>
       </c>
       <c r="J1972" t="s">
@@ -81325,23 +81333,23 @@
         <v>0.8</v>
       </c>
       <c r="E1973">
-        <f>MONTH(A1973)</f>
+        <f t="shared" si="241"/>
         <v>6</v>
       </c>
       <c r="F1973">
-        <f>YEAR(A1973)</f>
+        <f t="shared" si="242"/>
         <v>2024</v>
       </c>
       <c r="G1973">
-        <f>WEEKDAY(A1973, 2)</f>
+        <f t="shared" si="243"/>
         <v>6</v>
       </c>
       <c r="H1973" t="str">
-        <f>CHOOSE(WEEKDAY(A1973, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="244"/>
         <v>Saturday</v>
       </c>
       <c r="I1973" t="str">
-        <f>TEXT(A1973, "MMM")</f>
+        <f t="shared" si="245"/>
         <v>Jun</v>
       </c>
       <c r="J1973" t="s">
@@ -81365,23 +81373,23 @@
         <v>0.85</v>
       </c>
       <c r="E1974">
-        <f>MONTH(A1974)</f>
+        <f t="shared" si="241"/>
         <v>6</v>
       </c>
       <c r="F1974">
-        <f>YEAR(A1974)</f>
+        <f t="shared" si="242"/>
         <v>2024</v>
       </c>
       <c r="G1974">
-        <f>WEEKDAY(A1974, 2)</f>
+        <f t="shared" si="243"/>
         <v>6</v>
       </c>
       <c r="H1974" t="str">
-        <f>CHOOSE(WEEKDAY(A1974, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="244"/>
         <v>Saturday</v>
       </c>
       <c r="I1974" t="str">
-        <f>TEXT(A1974, "MMM")</f>
+        <f t="shared" si="245"/>
         <v>Jun</v>
       </c>
       <c r="J1974" t="s">
@@ -81405,23 +81413,23 @@
         <v>2.99</v>
       </c>
       <c r="E1975">
-        <f>MONTH(A1975)</f>
+        <f t="shared" si="241"/>
         <v>6</v>
       </c>
       <c r="F1975">
-        <f>YEAR(A1975)</f>
+        <f t="shared" si="242"/>
         <v>2024</v>
       </c>
       <c r="G1975">
-        <f>WEEKDAY(A1975, 2)</f>
+        <f t="shared" si="243"/>
         <v>6</v>
       </c>
       <c r="H1975" t="str">
-        <f>CHOOSE(WEEKDAY(A1975, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="244"/>
         <v>Saturday</v>
       </c>
       <c r="I1975" t="str">
-        <f>TEXT(A1975, "MMM")</f>
+        <f t="shared" si="245"/>
         <v>Jun</v>
       </c>
       <c r="J1975" t="s">
@@ -81445,23 +81453,23 @@
         <v>1.19</v>
       </c>
       <c r="E1976">
-        <f>MONTH(A1976)</f>
+        <f t="shared" si="241"/>
         <v>6</v>
       </c>
       <c r="F1976">
-        <f>YEAR(A1976)</f>
+        <f t="shared" si="242"/>
         <v>2024</v>
       </c>
       <c r="G1976">
-        <f>WEEKDAY(A1976, 2)</f>
+        <f t="shared" si="243"/>
         <v>6</v>
       </c>
       <c r="H1976" t="str">
-        <f>CHOOSE(WEEKDAY(A1976, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="244"/>
         <v>Saturday</v>
       </c>
       <c r="I1976" t="str">
-        <f>TEXT(A1976, "MMM")</f>
+        <f t="shared" si="245"/>
         <v>Jun</v>
       </c>
       <c r="J1976" t="s">
@@ -81485,23 +81493,23 @@
         <v>1.59</v>
       </c>
       <c r="E1977">
-        <f>MONTH(A1977)</f>
+        <f t="shared" si="241"/>
         <v>6</v>
       </c>
       <c r="F1977">
-        <f>YEAR(A1977)</f>
+        <f t="shared" si="242"/>
         <v>2024</v>
       </c>
       <c r="G1977">
-        <f>WEEKDAY(A1977, 2)</f>
+        <f t="shared" si="243"/>
         <v>6</v>
       </c>
       <c r="H1977" t="str">
-        <f>CHOOSE(WEEKDAY(A1977, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="244"/>
         <v>Saturday</v>
       </c>
       <c r="I1977" t="str">
-        <f>TEXT(A1977, "MMM")</f>
+        <f t="shared" si="245"/>
         <v>Jun</v>
       </c>
       <c r="J1977" t="s">
@@ -81525,23 +81533,23 @@
         <v>1.59</v>
       </c>
       <c r="E1978">
-        <f>MONTH(A1978)</f>
+        <f t="shared" si="241"/>
         <v>6</v>
       </c>
       <c r="F1978">
-        <f>YEAR(A1978)</f>
+        <f t="shared" si="242"/>
         <v>2024</v>
       </c>
       <c r="G1978">
-        <f>WEEKDAY(A1978, 2)</f>
+        <f t="shared" si="243"/>
         <v>6</v>
       </c>
       <c r="H1978" t="str">
-        <f>CHOOSE(WEEKDAY(A1978, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="244"/>
         <v>Saturday</v>
       </c>
       <c r="I1978" t="str">
-        <f>TEXT(A1978, "MMM")</f>
+        <f t="shared" si="245"/>
         <v>Jun</v>
       </c>
       <c r="J1978" t="s">
@@ -81565,23 +81573,23 @@
         <v>3.59</v>
       </c>
       <c r="E1979">
-        <f>MONTH(A1979)</f>
+        <f t="shared" si="241"/>
         <v>6</v>
       </c>
       <c r="F1979">
-        <f>YEAR(A1979)</f>
+        <f t="shared" si="242"/>
         <v>2024</v>
       </c>
       <c r="G1979">
-        <f>WEEKDAY(A1979, 2)</f>
+        <f t="shared" si="243"/>
         <v>6</v>
       </c>
       <c r="H1979" t="str">
-        <f>CHOOSE(WEEKDAY(A1979, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="244"/>
         <v>Saturday</v>
       </c>
       <c r="I1979" t="str">
-        <f>TEXT(A1979, "MMM")</f>
+        <f t="shared" si="245"/>
         <v>Jun</v>
       </c>
       <c r="J1979" t="s">
@@ -81605,23 +81613,23 @@
         <v>0.39</v>
       </c>
       <c r="E1980">
-        <f>MONTH(A1980)</f>
+        <f t="shared" si="241"/>
         <v>6</v>
       </c>
       <c r="F1980">
-        <f>YEAR(A1980)</f>
+        <f t="shared" si="242"/>
         <v>2024</v>
       </c>
       <c r="G1980">
-        <f>WEEKDAY(A1980, 2)</f>
+        <f t="shared" si="243"/>
         <v>6</v>
       </c>
       <c r="H1980" t="str">
-        <f>CHOOSE(WEEKDAY(A1980, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="244"/>
         <v>Saturday</v>
       </c>
       <c r="I1980" t="str">
-        <f>TEXT(A1980, "MMM")</f>
+        <f t="shared" si="245"/>
         <v>Jun</v>
       </c>
       <c r="J1980" t="s">
@@ -81645,23 +81653,23 @@
         <v>0.39</v>
       </c>
       <c r="E1981">
-        <f>MONTH(A1981)</f>
+        <f t="shared" si="241"/>
         <v>6</v>
       </c>
       <c r="F1981">
-        <f>YEAR(A1981)</f>
+        <f t="shared" si="242"/>
         <v>2024</v>
       </c>
       <c r="G1981">
-        <f>WEEKDAY(A1981, 2)</f>
+        <f t="shared" si="243"/>
         <v>6</v>
       </c>
       <c r="H1981" t="str">
-        <f>CHOOSE(WEEKDAY(A1981, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="244"/>
         <v>Saturday</v>
       </c>
       <c r="I1981" t="str">
-        <f>TEXT(A1981, "MMM")</f>
+        <f t="shared" si="245"/>
         <v>Jun</v>
       </c>
       <c r="J1981" t="s">
@@ -81685,23 +81693,23 @@
         <v>0.39</v>
       </c>
       <c r="E1982">
-        <f>MONTH(A1982)</f>
+        <f t="shared" si="241"/>
         <v>6</v>
       </c>
       <c r="F1982">
-        <f>YEAR(A1982)</f>
+        <f t="shared" si="242"/>
         <v>2024</v>
       </c>
       <c r="G1982">
-        <f>WEEKDAY(A1982, 2)</f>
+        <f t="shared" si="243"/>
         <v>6</v>
       </c>
       <c r="H1982" t="str">
-        <f>CHOOSE(WEEKDAY(A1982, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="244"/>
         <v>Saturday</v>
       </c>
       <c r="I1982" t="str">
-        <f>TEXT(A1982, "MMM")</f>
+        <f t="shared" si="245"/>
         <v>Jun</v>
       </c>
       <c r="J1982" t="s">
@@ -81726,23 +81734,23 @@
         <v>1.6950000000000001</v>
       </c>
       <c r="E1983">
-        <f t="shared" ref="E1983:E1990" si="221">MONTH(A1983)</f>
+        <f t="shared" ref="E1983:E1990" si="246">MONTH(A1983)</f>
         <v>6</v>
       </c>
       <c r="F1983">
-        <f t="shared" ref="F1983:F1990" si="222">YEAR(A1983)</f>
+        <f t="shared" ref="F1983:F1990" si="247">YEAR(A1983)</f>
         <v>2024</v>
       </c>
       <c r="G1983">
-        <f t="shared" ref="G1983:G1990" si="223">WEEKDAY(A1983, 2)</f>
+        <f t="shared" ref="G1983:G1990" si="248">WEEKDAY(A1983, 2)</f>
         <v>6</v>
       </c>
       <c r="H1983" t="str">
-        <f t="shared" ref="H1983:H1990" si="224">CHOOSE(WEEKDAY(A1983, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1983:H1990" si="249">CHOOSE(WEEKDAY(A1983, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Saturday</v>
       </c>
       <c r="I1983" t="str">
-        <f t="shared" ref="I1983:I1990" si="225">TEXT(A1983, "MMM")</f>
+        <f t="shared" ref="I1983:I1990" si="250">TEXT(A1983, "MMM")</f>
         <v>Jun</v>
       </c>
       <c r="J1983" t="s">
@@ -81767,23 +81775,23 @@
         <v>2.9449999999999998</v>
       </c>
       <c r="E1984">
-        <f t="shared" si="221"/>
+        <f t="shared" si="246"/>
         <v>6</v>
       </c>
       <c r="F1984">
-        <f t="shared" si="222"/>
+        <f t="shared" si="247"/>
         <v>2024</v>
       </c>
       <c r="G1984">
-        <f t="shared" si="223"/>
+        <f t="shared" si="248"/>
         <v>6</v>
       </c>
       <c r="H1984" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="249"/>
         <v>Saturday</v>
       </c>
       <c r="I1984" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="250"/>
         <v>Jun</v>
       </c>
       <c r="J1984" t="s">
@@ -81807,23 +81815,23 @@
         <v>4.5</v>
       </c>
       <c r="E1985">
-        <f t="shared" si="221"/>
+        <f t="shared" si="246"/>
         <v>6</v>
       </c>
       <c r="F1985">
-        <f t="shared" si="222"/>
+        <f t="shared" si="247"/>
         <v>2024</v>
       </c>
       <c r="G1985">
-        <f t="shared" si="223"/>
+        <f t="shared" si="248"/>
         <v>6</v>
       </c>
       <c r="H1985" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="249"/>
         <v>Saturday</v>
       </c>
       <c r="I1985" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="250"/>
         <v>Jun</v>
       </c>
       <c r="J1985" t="s">
@@ -81847,23 +81855,23 @@
         <v>0.85</v>
       </c>
       <c r="E1986">
-        <f t="shared" si="221"/>
+        <f t="shared" si="246"/>
         <v>6</v>
       </c>
       <c r="F1986">
-        <f t="shared" si="222"/>
+        <f t="shared" si="247"/>
         <v>2024</v>
       </c>
       <c r="G1986">
-        <f t="shared" si="223"/>
+        <f t="shared" si="248"/>
         <v>5</v>
       </c>
       <c r="H1986" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="249"/>
         <v>Friday</v>
       </c>
       <c r="I1986" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="250"/>
         <v>Jun</v>
       </c>
       <c r="J1986" t="s">
@@ -81887,23 +81895,23 @@
         <v>2.4</v>
       </c>
       <c r="E1987">
-        <f t="shared" si="221"/>
+        <f t="shared" si="246"/>
         <v>6</v>
       </c>
       <c r="F1987">
-        <f t="shared" si="222"/>
+        <f t="shared" si="247"/>
         <v>2024</v>
       </c>
       <c r="G1987">
-        <f t="shared" si="223"/>
+        <f t="shared" si="248"/>
         <v>5</v>
       </c>
       <c r="H1987" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="249"/>
         <v>Friday</v>
       </c>
       <c r="I1987" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="250"/>
         <v>Jun</v>
       </c>
       <c r="J1987" t="s">
@@ -81924,23 +81932,23 @@
         <v>1.69</v>
       </c>
       <c r="E1988">
-        <f t="shared" si="221"/>
+        <f t="shared" si="246"/>
         <v>6</v>
       </c>
       <c r="F1988">
-        <f t="shared" si="222"/>
+        <f t="shared" si="247"/>
         <v>2024</v>
       </c>
       <c r="G1988">
-        <f t="shared" si="223"/>
+        <f t="shared" si="248"/>
         <v>5</v>
       </c>
       <c r="H1988" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="249"/>
         <v>Friday</v>
       </c>
       <c r="I1988" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="250"/>
         <v>Jun</v>
       </c>
       <c r="J1988" t="s">
@@ -81964,23 +81972,23 @@
         <v>2.4</v>
       </c>
       <c r="E1989">
-        <f t="shared" si="221"/>
+        <f t="shared" si="246"/>
         <v>6</v>
       </c>
       <c r="F1989">
-        <f t="shared" si="222"/>
+        <f t="shared" si="247"/>
         <v>2024</v>
       </c>
       <c r="G1989">
-        <f t="shared" si="223"/>
+        <f t="shared" si="248"/>
         <v>4</v>
       </c>
       <c r="H1989" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="249"/>
         <v>Thursday</v>
       </c>
       <c r="I1989" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="250"/>
         <v>Jun</v>
       </c>
       <c r="J1989" t="s">
@@ -82001,23 +82009,23 @@
         <v>0.79</v>
       </c>
       <c r="E1990">
-        <f t="shared" si="221"/>
+        <f t="shared" si="246"/>
         <v>6</v>
       </c>
       <c r="F1990">
-        <f t="shared" si="222"/>
+        <f t="shared" si="247"/>
         <v>2024</v>
       </c>
       <c r="G1990">
-        <f t="shared" si="223"/>
+        <f t="shared" si="248"/>
         <v>4</v>
       </c>
       <c r="H1990" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="249"/>
         <v>Thursday</v>
       </c>
       <c r="I1990" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="250"/>
         <v>Jun</v>
       </c>
       <c r="J1990" t="s">
@@ -82038,23 +82046,23 @@
         <v>2.9</v>
       </c>
       <c r="E1991">
-        <f>MONTH(A1991)</f>
+        <f t="shared" ref="E1991:E2005" si="251">MONTH(A1991)</f>
         <v>6</v>
       </c>
       <c r="F1991">
-        <f>YEAR(A1991)</f>
+        <f t="shared" ref="F1991:F2005" si="252">YEAR(A1991)</f>
         <v>2024</v>
       </c>
       <c r="G1991">
-        <f>WEEKDAY(A1991, 2)</f>
+        <f t="shared" ref="G1991:G2005" si="253">WEEKDAY(A1991, 2)</f>
         <v>3</v>
       </c>
       <c r="H1991" t="str">
-        <f>CHOOSE(WEEKDAY(A1991, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H1991:H2005" si="254">CHOOSE(WEEKDAY(A1991, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Wednesday</v>
       </c>
       <c r="I1991" t="str">
-        <f>TEXT(A1991, "MMM")</f>
+        <f t="shared" ref="I1991:I2005" si="255">TEXT(A1991, "MMM")</f>
         <v>Jun</v>
       </c>
       <c r="J1991" t="s">
@@ -82075,23 +82083,23 @@
         <v>1.69</v>
       </c>
       <c r="E1992">
-        <f>MONTH(A1992)</f>
+        <f t="shared" si="251"/>
         <v>6</v>
       </c>
       <c r="F1992">
-        <f>YEAR(A1992)</f>
+        <f t="shared" si="252"/>
         <v>2024</v>
       </c>
       <c r="G1992">
-        <f>WEEKDAY(A1992, 2)</f>
+        <f t="shared" si="253"/>
         <v>2</v>
       </c>
       <c r="H1992" t="str">
-        <f>CHOOSE(WEEKDAY(A1992, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="254"/>
         <v>Tuesday</v>
       </c>
       <c r="I1992" t="str">
-        <f>TEXT(A1992, "MMM")</f>
+        <f t="shared" si="255"/>
         <v>Jun</v>
       </c>
       <c r="J1992" t="s">
@@ -82115,23 +82123,23 @@
         <v>2.9</v>
       </c>
       <c r="E1993">
-        <f>MONTH(A1993)</f>
+        <f t="shared" si="251"/>
         <v>6</v>
       </c>
       <c r="F1993">
-        <f>YEAR(A1993)</f>
+        <f t="shared" si="252"/>
         <v>2024</v>
       </c>
       <c r="G1993">
-        <f>WEEKDAY(A1993, 2)</f>
+        <f t="shared" si="253"/>
         <v>2</v>
       </c>
       <c r="H1993" t="str">
-        <f>CHOOSE(WEEKDAY(A1993, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="254"/>
         <v>Tuesday</v>
       </c>
       <c r="I1993" t="str">
-        <f>TEXT(A1993, "MMM")</f>
+        <f t="shared" si="255"/>
         <v>Jun</v>
       </c>
       <c r="J1993" t="s">
@@ -82152,23 +82160,23 @@
         <v>0.79</v>
       </c>
       <c r="E1994">
-        <f>MONTH(A1994)</f>
+        <f t="shared" si="251"/>
         <v>6</v>
       </c>
       <c r="F1994">
-        <f>YEAR(A1994)</f>
+        <f t="shared" si="252"/>
         <v>2024</v>
       </c>
       <c r="G1994">
-        <f>WEEKDAY(A1994, 2)</f>
+        <f t="shared" si="253"/>
         <v>1</v>
       </c>
       <c r="H1994" t="str">
-        <f>CHOOSE(WEEKDAY(A1994, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="254"/>
         <v>Monday</v>
       </c>
       <c r="I1994" t="str">
-        <f>TEXT(A1994, "MMM")</f>
+        <f t="shared" si="255"/>
         <v>Jun</v>
       </c>
       <c r="J1994" t="s">
@@ -82189,23 +82197,23 @@
         <v>2.4</v>
       </c>
       <c r="E1995">
-        <f>MONTH(A1995)</f>
+        <f t="shared" si="251"/>
         <v>6</v>
       </c>
       <c r="F1995">
-        <f>YEAR(A1995)</f>
+        <f t="shared" si="252"/>
         <v>2024</v>
       </c>
       <c r="G1995">
-        <f>WEEKDAY(A1995, 2)</f>
+        <f t="shared" si="253"/>
         <v>1</v>
       </c>
       <c r="H1995" t="str">
-        <f>CHOOSE(WEEKDAY(A1995, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="254"/>
         <v>Monday</v>
       </c>
       <c r="I1995" t="str">
-        <f>TEXT(A1995, "MMM")</f>
+        <f t="shared" si="255"/>
         <v>Jun</v>
       </c>
       <c r="J1995" t="s">
@@ -82226,23 +82234,23 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="E1996">
-        <f>MONTH(A1996)</f>
+        <f t="shared" si="251"/>
         <v>6</v>
       </c>
       <c r="F1996">
-        <f>YEAR(A1996)</f>
+        <f t="shared" si="252"/>
         <v>2024</v>
       </c>
       <c r="G1996">
-        <f>WEEKDAY(A1996, 2)</f>
+        <f t="shared" si="253"/>
         <v>1</v>
       </c>
       <c r="H1996" t="str">
-        <f>CHOOSE(WEEKDAY(A1996, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="254"/>
         <v>Monday</v>
       </c>
       <c r="I1996" t="str">
-        <f>TEXT(A1996, "MMM")</f>
+        <f t="shared" si="255"/>
         <v>Jun</v>
       </c>
       <c r="J1996" t="s">
@@ -82266,23 +82274,23 @@
         <v>2.19</v>
       </c>
       <c r="E1997">
-        <f>MONTH(A1997)</f>
+        <f t="shared" si="251"/>
         <v>6</v>
       </c>
       <c r="F1997">
-        <f>YEAR(A1997)</f>
+        <f t="shared" si="252"/>
         <v>2024</v>
       </c>
       <c r="G1997">
-        <f>WEEKDAY(A1997, 2)</f>
+        <f t="shared" si="253"/>
         <v>6</v>
       </c>
       <c r="H1997" t="str">
-        <f>CHOOSE(WEEKDAY(A1997, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="254"/>
         <v>Saturday</v>
       </c>
       <c r="I1997" t="str">
-        <f>TEXT(A1997, "MMM")</f>
+        <f t="shared" si="255"/>
         <v>Jun</v>
       </c>
       <c r="J1997" t="s">
@@ -82306,23 +82314,23 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="E1998">
-        <f>MONTH(A1998)</f>
+        <f t="shared" si="251"/>
         <v>6</v>
       </c>
       <c r="F1998">
-        <f>YEAR(A1998)</f>
+        <f t="shared" si="252"/>
         <v>2024</v>
       </c>
       <c r="G1998">
-        <f>WEEKDAY(A1998, 2)</f>
+        <f t="shared" si="253"/>
         <v>6</v>
       </c>
       <c r="H1998" t="str">
-        <f>CHOOSE(WEEKDAY(A1998, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="254"/>
         <v>Saturday</v>
       </c>
       <c r="I1998" t="str">
-        <f>TEXT(A1998, "MMM")</f>
+        <f t="shared" si="255"/>
         <v>Jun</v>
       </c>
       <c r="J1998" t="s">
@@ -82346,23 +82354,23 @@
         <v>0.59</v>
       </c>
       <c r="E1999">
-        <f>MONTH(A1999)</f>
+        <f t="shared" si="251"/>
         <v>6</v>
       </c>
       <c r="F1999">
-        <f>YEAR(A1999)</f>
+        <f t="shared" si="252"/>
         <v>2024</v>
       </c>
       <c r="G1999">
-        <f>WEEKDAY(A1999, 2)</f>
+        <f t="shared" si="253"/>
         <v>6</v>
       </c>
       <c r="H1999" t="str">
-        <f>CHOOSE(WEEKDAY(A1999, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="254"/>
         <v>Saturday</v>
       </c>
       <c r="I1999" t="str">
-        <f>TEXT(A1999, "MMM")</f>
+        <f t="shared" si="255"/>
         <v>Jun</v>
       </c>
       <c r="J1999" t="s">
@@ -82386,23 +82394,23 @@
         <v>0.59</v>
       </c>
       <c r="E2000">
-        <f>MONTH(A2000)</f>
+        <f t="shared" si="251"/>
         <v>6</v>
       </c>
       <c r="F2000">
-        <f>YEAR(A2000)</f>
+        <f t="shared" si="252"/>
         <v>2024</v>
       </c>
       <c r="G2000">
-        <f>WEEKDAY(A2000, 2)</f>
+        <f t="shared" si="253"/>
         <v>6</v>
       </c>
       <c r="H2000" t="str">
-        <f>CHOOSE(WEEKDAY(A2000, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="254"/>
         <v>Saturday</v>
       </c>
       <c r="I2000" t="str">
-        <f>TEXT(A2000, "MMM")</f>
+        <f t="shared" si="255"/>
         <v>Jun</v>
       </c>
       <c r="J2000" t="s">
@@ -82426,23 +82434,23 @@
         <v>1.49</v>
       </c>
       <c r="E2001">
-        <f>MONTH(A2001)</f>
+        <f t="shared" si="251"/>
         <v>6</v>
       </c>
       <c r="F2001">
-        <f>YEAR(A2001)</f>
+        <f t="shared" si="252"/>
         <v>2024</v>
       </c>
       <c r="G2001">
-        <f>WEEKDAY(A2001, 2)</f>
+        <f t="shared" si="253"/>
         <v>6</v>
       </c>
       <c r="H2001" t="str">
-        <f>CHOOSE(WEEKDAY(A2001, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="254"/>
         <v>Saturday</v>
       </c>
       <c r="I2001" t="str">
-        <f>TEXT(A2001, "MMM")</f>
+        <f t="shared" si="255"/>
         <v>Jun</v>
       </c>
       <c r="J2001" t="s">
@@ -82466,23 +82474,23 @@
         <v>1.49</v>
       </c>
       <c r="E2002">
-        <f>MONTH(A2002)</f>
+        <f t="shared" si="251"/>
         <v>6</v>
       </c>
       <c r="F2002">
-        <f>YEAR(A2002)</f>
+        <f t="shared" si="252"/>
         <v>2024</v>
       </c>
       <c r="G2002">
-        <f>WEEKDAY(A2002, 2)</f>
+        <f t="shared" si="253"/>
         <v>6</v>
       </c>
       <c r="H2002" t="str">
-        <f>CHOOSE(WEEKDAY(A2002, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="254"/>
         <v>Saturday</v>
       </c>
       <c r="I2002" t="str">
-        <f>TEXT(A2002, "MMM")</f>
+        <f t="shared" si="255"/>
         <v>Jun</v>
       </c>
       <c r="J2002" t="s">
@@ -82506,23 +82514,23 @@
         <v>0.99</v>
       </c>
       <c r="E2003">
-        <f>MONTH(A2003)</f>
+        <f t="shared" si="251"/>
         <v>6</v>
       </c>
       <c r="F2003">
-        <f>YEAR(A2003)</f>
+        <f t="shared" si="252"/>
         <v>2024</v>
       </c>
       <c r="G2003">
-        <f>WEEKDAY(A2003, 2)</f>
+        <f t="shared" si="253"/>
         <v>6</v>
       </c>
       <c r="H2003" t="str">
-        <f>CHOOSE(WEEKDAY(A2003, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="254"/>
         <v>Saturday</v>
       </c>
       <c r="I2003" t="str">
-        <f>TEXT(A2003, "MMM")</f>
+        <f t="shared" si="255"/>
         <v>Jun</v>
       </c>
       <c r="J2003" t="s">
@@ -82546,23 +82554,23 @@
         <v>2.19</v>
       </c>
       <c r="E2004">
-        <f>MONTH(A2004)</f>
+        <f t="shared" si="251"/>
         <v>6</v>
       </c>
       <c r="F2004">
-        <f>YEAR(A2004)</f>
+        <f t="shared" si="252"/>
         <v>2024</v>
       </c>
       <c r="G2004">
-        <f>WEEKDAY(A2004, 2)</f>
+        <f t="shared" si="253"/>
         <v>6</v>
       </c>
       <c r="H2004" t="str">
-        <f>CHOOSE(WEEKDAY(A2004, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="254"/>
         <v>Saturday</v>
       </c>
       <c r="I2004" t="str">
-        <f>TEXT(A2004, "MMM")</f>
+        <f t="shared" si="255"/>
         <v>Jun</v>
       </c>
       <c r="J2004" t="s">
@@ -82586,23 +82594,23 @@
         <v>3.19</v>
       </c>
       <c r="E2005">
-        <f>MONTH(A2005)</f>
+        <f t="shared" si="251"/>
         <v>6</v>
       </c>
       <c r="F2005">
-        <f>YEAR(A2005)</f>
+        <f t="shared" si="252"/>
         <v>2024</v>
       </c>
       <c r="G2005">
-        <f>WEEKDAY(A2005, 2)</f>
+        <f t="shared" si="253"/>
         <v>3</v>
       </c>
       <c r="H2005" t="str">
-        <f>CHOOSE(WEEKDAY(A2005, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="254"/>
         <v>Wednesday</v>
       </c>
       <c r="I2005" t="str">
-        <f>TEXT(A2005, "MMM")</f>
+        <f t="shared" si="255"/>
         <v>Jun</v>
       </c>
       <c r="J2005" t="s">
@@ -82627,23 +82635,23 @@
         <v>1.1950000000000001</v>
       </c>
       <c r="E2006">
-        <f t="shared" ref="E2006:E2012" si="226">MONTH(A2006)</f>
+        <f t="shared" ref="E2006:E2012" si="256">MONTH(A2006)</f>
         <v>6</v>
       </c>
       <c r="F2006">
-        <f t="shared" ref="F2006:F2012" si="227">YEAR(A2006)</f>
+        <f t="shared" ref="F2006:F2012" si="257">YEAR(A2006)</f>
         <v>2024</v>
       </c>
       <c r="G2006">
-        <f t="shared" ref="G2006:G2012" si="228">WEEKDAY(A2006, 2)</f>
+        <f t="shared" ref="G2006:G2012" si="258">WEEKDAY(A2006, 2)</f>
         <v>3</v>
       </c>
       <c r="H2006" t="str">
-        <f t="shared" ref="H2006:H2012" si="229">CHOOSE(WEEKDAY(A2006, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H2006:H2012" si="259">CHOOSE(WEEKDAY(A2006, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Wednesday</v>
       </c>
       <c r="I2006" t="str">
-        <f t="shared" ref="I2006:I2012" si="230">TEXT(A2006, "MMM")</f>
+        <f t="shared" ref="I2006:I2012" si="260">TEXT(A2006, "MMM")</f>
         <v>Jun</v>
       </c>
       <c r="J2006" t="s">
@@ -82668,23 +82676,23 @@
         <v>1.4950000000000001</v>
       </c>
       <c r="E2007">
-        <f t="shared" si="226"/>
+        <f t="shared" si="256"/>
         <v>6</v>
       </c>
       <c r="F2007">
-        <f t="shared" si="227"/>
+        <f t="shared" si="257"/>
         <v>2024</v>
       </c>
       <c r="G2007">
-        <f t="shared" si="228"/>
+        <f t="shared" si="258"/>
         <v>3</v>
       </c>
       <c r="H2007" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="259"/>
         <v>Wednesday</v>
       </c>
       <c r="I2007" t="str">
-        <f t="shared" si="230"/>
+        <f t="shared" si="260"/>
         <v>Jun</v>
       </c>
       <c r="J2007" t="s">
@@ -82709,23 +82717,23 @@
         <v>4.3949999999999996</v>
       </c>
       <c r="E2008">
-        <f t="shared" si="226"/>
+        <f t="shared" si="256"/>
         <v>6</v>
       </c>
       <c r="F2008">
-        <f t="shared" si="227"/>
+        <f t="shared" si="257"/>
         <v>2024</v>
       </c>
       <c r="G2008">
-        <f t="shared" si="228"/>
+        <f t="shared" si="258"/>
         <v>3</v>
       </c>
       <c r="H2008" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="259"/>
         <v>Wednesday</v>
       </c>
       <c r="I2008" t="str">
-        <f t="shared" si="230"/>
+        <f t="shared" si="260"/>
         <v>Jun</v>
       </c>
       <c r="J2008" t="s">
@@ -82749,23 +82757,23 @@
         <v>1.29</v>
       </c>
       <c r="E2009">
-        <f t="shared" si="226"/>
+        <f t="shared" si="256"/>
         <v>6</v>
       </c>
       <c r="F2009">
-        <f t="shared" si="227"/>
+        <f t="shared" si="257"/>
         <v>2024</v>
       </c>
       <c r="G2009">
-        <f t="shared" si="228"/>
+        <f t="shared" si="258"/>
         <v>3</v>
       </c>
       <c r="H2009" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="259"/>
         <v>Wednesday</v>
       </c>
       <c r="I2009" t="str">
-        <f t="shared" si="230"/>
+        <f t="shared" si="260"/>
         <v>Jun</v>
       </c>
       <c r="J2009" t="s">
@@ -82790,23 +82798,23 @@
         <v>0.74</v>
       </c>
       <c r="E2010">
-        <f t="shared" si="226"/>
+        <f t="shared" si="256"/>
         <v>6</v>
       </c>
       <c r="F2010">
-        <f t="shared" si="227"/>
+        <f t="shared" si="257"/>
         <v>2024</v>
       </c>
       <c r="G2010">
-        <f t="shared" si="228"/>
+        <f t="shared" si="258"/>
         <v>3</v>
       </c>
       <c r="H2010" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="259"/>
         <v>Wednesday</v>
       </c>
       <c r="I2010" t="str">
-        <f t="shared" si="230"/>
+        <f t="shared" si="260"/>
         <v>Jun</v>
       </c>
       <c r="J2010" t="s">
@@ -82831,23 +82839,23 @@
         <v>0.69499999999999995</v>
       </c>
       <c r="E2011">
-        <f t="shared" si="226"/>
+        <f t="shared" si="256"/>
         <v>6</v>
       </c>
       <c r="F2011">
-        <f t="shared" si="227"/>
+        <f t="shared" si="257"/>
         <v>2024</v>
       </c>
       <c r="G2011">
-        <f t="shared" si="228"/>
+        <f t="shared" si="258"/>
         <v>3</v>
       </c>
       <c r="H2011" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="259"/>
         <v>Wednesday</v>
       </c>
       <c r="I2011" t="str">
-        <f t="shared" si="230"/>
+        <f t="shared" si="260"/>
         <v>Jun</v>
       </c>
       <c r="J2011" t="s">
@@ -82872,23 +82880,23 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="E2012">
-        <f t="shared" si="226"/>
+        <f t="shared" si="256"/>
         <v>6</v>
       </c>
       <c r="F2012">
-        <f t="shared" si="227"/>
+        <f t="shared" si="257"/>
         <v>2024</v>
       </c>
       <c r="G2012">
-        <f t="shared" si="228"/>
+        <f t="shared" si="258"/>
         <v>3</v>
       </c>
       <c r="H2012" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="259"/>
         <v>Wednesday</v>
       </c>
       <c r="I2012" t="str">
-        <f t="shared" si="230"/>
+        <f t="shared" si="260"/>
         <v>Jun</v>
       </c>
       <c r="J2012" t="s">
@@ -82912,23 +82920,23 @@
         <v>2.4</v>
       </c>
       <c r="E2013">
-        <f>MONTH(A2013)</f>
+        <f t="shared" ref="E2013:E2060" si="261">MONTH(A2013)</f>
         <v>6</v>
       </c>
       <c r="F2013">
-        <f>YEAR(A2013)</f>
+        <f t="shared" ref="F2013:F2060" si="262">YEAR(A2013)</f>
         <v>2024</v>
       </c>
       <c r="G2013">
-        <f>WEEKDAY(A2013, 2)</f>
+        <f t="shared" ref="G2013:G2060" si="263">WEEKDAY(A2013, 2)</f>
         <v>3</v>
       </c>
       <c r="H2013" t="str">
-        <f>CHOOSE(WEEKDAY(A2013, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H2013:H2060" si="264">CHOOSE(WEEKDAY(A2013, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Wednesday</v>
       </c>
       <c r="I2013" t="str">
-        <f>TEXT(A2013, "MMM")</f>
+        <f t="shared" ref="I2013:I2060" si="265">TEXT(A2013, "MMM")</f>
         <v>Jun</v>
       </c>
       <c r="J2013" t="s">
@@ -82950,23 +82958,23 @@
         <v>2</v>
       </c>
       <c r="E2014">
-        <f>MONTH(A2014)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2014">
-        <f>YEAR(A2014)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2014">
-        <f>WEEKDAY(A2014, 2)</f>
+        <f t="shared" si="263"/>
         <v>5</v>
       </c>
       <c r="H2014" t="str">
-        <f>CHOOSE(WEEKDAY(A2014, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Friday</v>
       </c>
       <c r="I2014" t="str">
-        <f>TEXT(A2014, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2014" t="s">
@@ -82990,23 +82998,23 @@
         <v>1.69</v>
       </c>
       <c r="E2015">
-        <f>MONTH(A2015)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2015">
-        <f>YEAR(A2015)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2015">
-        <f>WEEKDAY(A2015, 2)</f>
+        <f t="shared" si="263"/>
         <v>5</v>
       </c>
       <c r="H2015" t="str">
-        <f>CHOOSE(WEEKDAY(A2015, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Friday</v>
       </c>
       <c r="I2015" t="str">
-        <f>TEXT(A2015, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2015" t="s">
@@ -83030,23 +83038,23 @@
         <v>2.4</v>
       </c>
       <c r="E2016">
-        <f>MONTH(A2016)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2016">
-        <f>YEAR(A2016)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2016">
-        <f>WEEKDAY(A2016, 2)</f>
+        <f t="shared" si="263"/>
         <v>4</v>
       </c>
       <c r="H2016" t="str">
-        <f>CHOOSE(WEEKDAY(A2016, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Thursday</v>
       </c>
       <c r="I2016" t="str">
-        <f>TEXT(A2016, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2016" t="s">
@@ -83067,23 +83075,23 @@
         <v>2.4</v>
       </c>
       <c r="E2017">
-        <f>MONTH(A2017)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2017">
-        <f>YEAR(A2017)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2017">
-        <f>WEEKDAY(A2017, 2)</f>
+        <f t="shared" si="263"/>
         <v>5</v>
       </c>
       <c r="H2017" t="str">
-        <f>CHOOSE(WEEKDAY(A2017, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Friday</v>
       </c>
       <c r="I2017" t="str">
-        <f>TEXT(A2017, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2017" t="s">
@@ -83105,23 +83113,23 @@
         <v>0.69499999999999995</v>
       </c>
       <c r="E2018">
-        <f>MONTH(A2018)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2018">
-        <f>YEAR(A2018)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2018">
-        <f>WEEKDAY(A2018, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2018" t="str">
-        <f>CHOOSE(WEEKDAY(A2018, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2018" t="str">
-        <f>TEXT(A2018, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2018" t="s">
@@ -83146,23 +83154,23 @@
         <v>0.74</v>
       </c>
       <c r="E2019">
-        <f>MONTH(A2019)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2019">
-        <f>YEAR(A2019)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2019">
-        <f>WEEKDAY(A2019, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2019" t="str">
-        <f>CHOOSE(WEEKDAY(A2019, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2019" t="str">
-        <f>TEXT(A2019, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2019" t="s">
@@ -83186,23 +83194,23 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E2020">
-        <f>MONTH(A2020)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2020">
-        <f>YEAR(A2020)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2020">
-        <f>WEEKDAY(A2020, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2020" t="str">
-        <f>CHOOSE(WEEKDAY(A2020, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2020" t="str">
-        <f>TEXT(A2020, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2020" t="s">
@@ -83226,23 +83234,23 @@
         <v>1.69</v>
       </c>
       <c r="E2021">
-        <f>MONTH(A2021)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2021">
-        <f>YEAR(A2021)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2021">
-        <f>WEEKDAY(A2021, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2021" t="str">
-        <f>CHOOSE(WEEKDAY(A2021, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2021" t="str">
-        <f>TEXT(A2021, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2021" t="s">
@@ -83266,23 +83274,23 @@
         <v>1.79</v>
       </c>
       <c r="E2022">
-        <f>MONTH(A2022)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2022">
-        <f>YEAR(A2022)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2022">
-        <f>WEEKDAY(A2022, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2022" t="str">
-        <f>CHOOSE(WEEKDAY(A2022, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2022" t="str">
-        <f>TEXT(A2022, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2022" t="s">
@@ -83306,23 +83314,23 @@
         <v>1.79</v>
       </c>
       <c r="E2023">
-        <f>MONTH(A2023)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2023">
-        <f>YEAR(A2023)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2023">
-        <f>WEEKDAY(A2023, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2023" t="str">
-        <f>CHOOSE(WEEKDAY(A2023, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2023" t="str">
-        <f>TEXT(A2023, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2023" t="s">
@@ -83346,23 +83354,23 @@
         <v>3.19</v>
       </c>
       <c r="E2024">
-        <f>MONTH(A2024)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2024">
-        <f>YEAR(A2024)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2024">
-        <f>WEEKDAY(A2024, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2024" t="str">
-        <f>CHOOSE(WEEKDAY(A2024, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2024" t="str">
-        <f>TEXT(A2024, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2024" t="s">
@@ -83386,23 +83394,23 @@
         <v>1.49</v>
       </c>
       <c r="E2025">
-        <f>MONTH(A2025)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2025">
-        <f>YEAR(A2025)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2025">
-        <f>WEEKDAY(A2025, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2025" t="str">
-        <f>CHOOSE(WEEKDAY(A2025, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2025" t="str">
-        <f>TEXT(A2025, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2025" t="s">
@@ -83426,23 +83434,23 @@
         <v>0.99</v>
       </c>
       <c r="E2026">
-        <f>MONTH(A2026)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2026">
-        <f>YEAR(A2026)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2026">
-        <f>WEEKDAY(A2026, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2026" t="str">
-        <f>CHOOSE(WEEKDAY(A2026, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2026" t="str">
-        <f>TEXT(A2026, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2026" t="s">
@@ -83466,23 +83474,23 @@
         <v>0.99</v>
       </c>
       <c r="E2027">
-        <f>MONTH(A2027)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2027">
-        <f>YEAR(A2027)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2027">
-        <f>WEEKDAY(A2027, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2027" t="str">
-        <f>CHOOSE(WEEKDAY(A2027, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2027" t="str">
-        <f>TEXT(A2027, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2027" t="s">
@@ -83506,23 +83514,23 @@
         <v>0.99</v>
       </c>
       <c r="E2028">
-        <f>MONTH(A2028)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2028">
-        <f>YEAR(A2028)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2028">
-        <f>WEEKDAY(A2028, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2028" t="str">
-        <f>CHOOSE(WEEKDAY(A2028, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2028" t="str">
-        <f>TEXT(A2028, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2028" t="s">
@@ -83546,23 +83554,23 @@
         <v>0.99</v>
       </c>
       <c r="E2029">
-        <f>MONTH(A2029)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2029">
-        <f>YEAR(A2029)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2029">
-        <f>WEEKDAY(A2029, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2029" t="str">
-        <f>CHOOSE(WEEKDAY(A2029, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2029" t="str">
-        <f>TEXT(A2029, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2029" t="s">
@@ -83586,23 +83594,23 @@
         <v>2.79</v>
       </c>
       <c r="E2030">
-        <f>MONTH(A2030)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2030">
-        <f>YEAR(A2030)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2030">
-        <f>WEEKDAY(A2030, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2030" t="str">
-        <f>CHOOSE(WEEKDAY(A2030, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2030" t="str">
-        <f>TEXT(A2030, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2030" t="s">
@@ -83626,23 +83634,23 @@
         <v>1.49</v>
       </c>
       <c r="E2031">
-        <f>MONTH(A2031)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2031">
-        <f>YEAR(A2031)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2031">
-        <f>WEEKDAY(A2031, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2031" t="str">
-        <f>CHOOSE(WEEKDAY(A2031, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2031" t="str">
-        <f>TEXT(A2031, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2031" t="s">
@@ -83666,23 +83674,23 @@
         <v>0.99</v>
       </c>
       <c r="E2032">
-        <f>MONTH(A2032)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2032">
-        <f>YEAR(A2032)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2032">
-        <f>WEEKDAY(A2032, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2032" t="str">
-        <f>CHOOSE(WEEKDAY(A2032, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2032" t="str">
-        <f>TEXT(A2032, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2032" t="s">
@@ -83706,23 +83714,23 @@
         <v>2.99</v>
       </c>
       <c r="E2033">
-        <f>MONTH(A2033)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2033">
-        <f>YEAR(A2033)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2033">
-        <f>WEEKDAY(A2033, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2033" t="str">
-        <f>CHOOSE(WEEKDAY(A2033, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2033" t="str">
-        <f>TEXT(A2033, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2033" t="s">
@@ -83746,23 +83754,23 @@
         <v>0.99</v>
       </c>
       <c r="E2034">
-        <f>MONTH(A2034)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2034">
-        <f>YEAR(A2034)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2034">
-        <f>WEEKDAY(A2034, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2034" t="str">
-        <f>CHOOSE(WEEKDAY(A2034, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2034" t="str">
-        <f>TEXT(A2034, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2034" t="s">
@@ -83786,23 +83794,23 @@
         <v>2.4</v>
       </c>
       <c r="E2035">
-        <f>MONTH(A2035)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2035">
-        <f>YEAR(A2035)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2035">
-        <f>WEEKDAY(A2035, 2)</f>
+        <f t="shared" si="263"/>
         <v>2</v>
       </c>
       <c r="H2035" t="str">
-        <f>CHOOSE(WEEKDAY(A2035, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Tuesday</v>
       </c>
       <c r="I2035" t="str">
-        <f>TEXT(A2035, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2035" t="s">
@@ -83823,23 +83831,23 @@
         <v>2.4</v>
       </c>
       <c r="E2036">
-        <f>MONTH(A2036)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2036">
-        <f>YEAR(A2036)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2036">
-        <f>WEEKDAY(A2036, 2)</f>
+        <f t="shared" si="263"/>
         <v>1</v>
       </c>
       <c r="H2036" t="str">
-        <f>CHOOSE(WEEKDAY(A2036, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Monday</v>
       </c>
       <c r="I2036" t="str">
-        <f>TEXT(A2036, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2036" t="s">
@@ -83861,23 +83869,23 @@
         <v>2.9750000000000001</v>
       </c>
       <c r="E2037">
-        <f>MONTH(A2037)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2037">
-        <f>YEAR(A2037)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2037">
-        <f>WEEKDAY(A2037, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2037" t="str">
-        <f>CHOOSE(WEEKDAY(A2037, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2037" t="str">
-        <f>TEXT(A2037, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2037" t="s">
@@ -83902,23 +83910,23 @@
         <v>1.9750000000000001</v>
       </c>
       <c r="E2038">
-        <f>MONTH(A2038)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2038">
-        <f>YEAR(A2038)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2038">
-        <f>WEEKDAY(A2038, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2038" t="str">
-        <f>CHOOSE(WEEKDAY(A2038, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2038" t="str">
-        <f>TEXT(A2038, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2038" t="s">
@@ -83943,23 +83951,23 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="E2039">
-        <f>MONTH(A2039)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2039">
-        <f>YEAR(A2039)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2039">
-        <f>WEEKDAY(A2039, 2)</f>
+        <f t="shared" si="263"/>
         <v>3</v>
       </c>
       <c r="H2039" t="str">
-        <f>CHOOSE(WEEKDAY(A2039, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Wednesday</v>
       </c>
       <c r="I2039" t="str">
-        <f>TEXT(A2039, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2039" t="s">
@@ -83984,23 +83992,23 @@
         <v>0.63</v>
       </c>
       <c r="E2040">
-        <f>MONTH(A2040)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2040">
-        <f>YEAR(A2040)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2040">
-        <f>WEEKDAY(A2040, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2040" t="str">
-        <f>CHOOSE(WEEKDAY(A2040, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2040" t="str">
-        <f>TEXT(A2040, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2040" t="s">
@@ -84025,23 +84033,23 @@
         <v>1.4950000000000001</v>
       </c>
       <c r="E2041">
-        <f>MONTH(A2041)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2041">
-        <f>YEAR(A2041)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2041">
-        <f>WEEKDAY(A2041, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2041" t="str">
-        <f>CHOOSE(WEEKDAY(A2041, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2041" t="str">
-        <f>TEXT(A2041, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2041" t="s">
@@ -84065,23 +84073,23 @@
         <v>4.99</v>
       </c>
       <c r="E2042">
-        <f>MONTH(A2042)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2042">
-        <f>YEAR(A2042)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2042">
-        <f>WEEKDAY(A2042, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2042" t="str">
-        <f>CHOOSE(WEEKDAY(A2042, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2042" t="str">
-        <f>TEXT(A2042, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2042" t="s">
@@ -84105,23 +84113,23 @@
         <v>4.99</v>
       </c>
       <c r="E2043">
-        <f>MONTH(A2043)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2043">
-        <f>YEAR(A2043)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2043">
-        <f>WEEKDAY(A2043, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2043" t="str">
-        <f>CHOOSE(WEEKDAY(A2043, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2043" t="str">
-        <f>TEXT(A2043, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2043" t="s">
@@ -84145,23 +84153,23 @@
         <v>1.59</v>
       </c>
       <c r="E2044">
-        <f>MONTH(A2044)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2044">
-        <f>YEAR(A2044)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2044">
-        <f>WEEKDAY(A2044, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2044" t="str">
-        <f>CHOOSE(WEEKDAY(A2044, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2044" t="str">
-        <f>TEXT(A2044, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2044" t="s">
@@ -84185,23 +84193,23 @@
         <v>1.99</v>
       </c>
       <c r="E2045">
-        <f>MONTH(A2045)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2045">
-        <f>YEAR(A2045)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2045">
-        <f>WEEKDAY(A2045, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2045" t="str">
-        <f>CHOOSE(WEEKDAY(A2045, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2045" t="str">
-        <f>TEXT(A2045, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2045" t="s">
@@ -84225,23 +84233,23 @@
         <v>1.19</v>
       </c>
       <c r="E2046">
-        <f>MONTH(A2046)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2046">
-        <f>YEAR(A2046)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2046">
-        <f>WEEKDAY(A2046, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2046" t="str">
-        <f>CHOOSE(WEEKDAY(A2046, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2046" t="str">
-        <f>TEXT(A2046, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2046" t="s">
@@ -84266,23 +84274,23 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E2047">
-        <f>MONTH(A2047)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2047">
-        <f>YEAR(A2047)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2047">
-        <f>WEEKDAY(A2047, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2047" t="str">
-        <f>CHOOSE(WEEKDAY(A2047, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2047" t="str">
-        <f>TEXT(A2047, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2047" t="s">
@@ -84307,23 +84315,23 @@
         <v>3.99</v>
       </c>
       <c r="E2048">
-        <f>MONTH(A2048)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2048">
-        <f>YEAR(A2048)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2048">
-        <f>WEEKDAY(A2048, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2048" t="str">
-        <f>CHOOSE(WEEKDAY(A2048, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2048" t="str">
-        <f>TEXT(A2048, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2048" t="s">
@@ -84348,23 +84356,23 @@
         <v>3.49</v>
       </c>
       <c r="E2049">
-        <f>MONTH(A2049)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2049">
-        <f>YEAR(A2049)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2049">
-        <f>WEEKDAY(A2049, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2049" t="str">
-        <f>CHOOSE(WEEKDAY(A2049, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2049" t="str">
-        <f>TEXT(A2049, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2049" t="s">
@@ -84388,23 +84396,23 @@
         <v>0.79</v>
       </c>
       <c r="E2050">
-        <f>MONTH(A2050)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2050">
-        <f>YEAR(A2050)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2050">
-        <f>WEEKDAY(A2050, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2050" t="str">
-        <f>CHOOSE(WEEKDAY(A2050, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2050" t="str">
-        <f>TEXT(A2050, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2050" t="s">
@@ -84428,23 +84436,23 @@
         <v>0.79</v>
       </c>
       <c r="E2051">
-        <f>MONTH(A2051)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2051">
-        <f>YEAR(A2051)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2051">
-        <f>WEEKDAY(A2051, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2051" t="str">
-        <f>CHOOSE(WEEKDAY(A2051, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2051" t="str">
-        <f>TEXT(A2051, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2051" t="s">
@@ -84468,23 +84476,23 @@
         <v>1.69</v>
       </c>
       <c r="E2052">
-        <f>MONTH(A2052)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2052">
-        <f>YEAR(A2052)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2052">
-        <f>WEEKDAY(A2052, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2052" t="str">
-        <f>CHOOSE(WEEKDAY(A2052, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2052" t="str">
-        <f>TEXT(A2052, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2052" t="s">
@@ -84508,23 +84516,23 @@
         <v>1.59</v>
       </c>
       <c r="E2053">
-        <f>MONTH(A2053)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2053">
-        <f>YEAR(A2053)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2053">
-        <f>WEEKDAY(A2053, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2053" t="str">
-        <f>CHOOSE(WEEKDAY(A2053, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2053" t="str">
-        <f>TEXT(A2053, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2053" t="s">
@@ -84548,23 +84556,23 @@
         <v>4.99</v>
       </c>
       <c r="E2054">
-        <f>MONTH(A2054)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2054">
-        <f>YEAR(A2054)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2054">
-        <f>WEEKDAY(A2054, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2054" t="str">
-        <f>CHOOSE(WEEKDAY(A2054, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2054" t="str">
-        <f>TEXT(A2054, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2054" t="s">
@@ -84588,23 +84596,23 @@
         <v>2.99</v>
       </c>
       <c r="E2055">
-        <f>MONTH(A2055)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2055">
-        <f>YEAR(A2055)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2055">
-        <f>WEEKDAY(A2055, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2055" t="str">
-        <f>CHOOSE(WEEKDAY(A2055, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2055" t="str">
-        <f>TEXT(A2055, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2055" t="s">
@@ -84628,23 +84636,23 @@
         <v>1.49</v>
       </c>
       <c r="E2056">
-        <f>MONTH(A2056)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2056">
-        <f>YEAR(A2056)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2056">
-        <f>WEEKDAY(A2056, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2056" t="str">
-        <f>CHOOSE(WEEKDAY(A2056, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2056" t="str">
-        <f>TEXT(A2056, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2056" t="s">
@@ -84668,23 +84676,23 @@
         <v>0.99</v>
       </c>
       <c r="E2057">
-        <f>MONTH(A2057)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2057">
-        <f>YEAR(A2057)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2057">
-        <f>WEEKDAY(A2057, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2057" t="str">
-        <f>CHOOSE(WEEKDAY(A2057, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2057" t="str">
-        <f>TEXT(A2057, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2057" t="s">
@@ -84708,23 +84716,23 @@
         <v>0.49</v>
       </c>
       <c r="E2058">
-        <f>MONTH(A2058)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2058">
-        <f>YEAR(A2058)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2058">
-        <f>WEEKDAY(A2058, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2058" t="str">
-        <f>CHOOSE(WEEKDAY(A2058, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2058" t="str">
-        <f>TEXT(A2058, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2058" t="s">
@@ -84748,23 +84756,23 @@
         <v>0.79</v>
       </c>
       <c r="E2059">
-        <f>MONTH(A2059)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2059">
-        <f>YEAR(A2059)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2059">
-        <f>WEEKDAY(A2059, 2)</f>
+        <f t="shared" si="263"/>
         <v>6</v>
       </c>
       <c r="H2059" t="str">
-        <f>CHOOSE(WEEKDAY(A2059, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Saturday</v>
       </c>
       <c r="I2059" t="str">
-        <f>TEXT(A2059, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2059" t="s">
@@ -84788,23 +84796,23 @@
         <v>3.95</v>
       </c>
       <c r="E2060">
-        <f>MONTH(A2060)</f>
+        <f t="shared" si="261"/>
         <v>6</v>
       </c>
       <c r="F2060">
-        <f>YEAR(A2060)</f>
+        <f t="shared" si="262"/>
         <v>2024</v>
       </c>
       <c r="G2060">
-        <f>WEEKDAY(A2060, 2)</f>
+        <f t="shared" si="263"/>
         <v>7</v>
       </c>
       <c r="H2060" t="str">
-        <f>CHOOSE(WEEKDAY(A2060, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="264"/>
         <v>Sunday</v>
       </c>
       <c r="I2060" t="str">
-        <f>TEXT(A2060, "MMM")</f>
+        <f t="shared" si="265"/>
         <v>Jun</v>
       </c>
       <c r="J2060" t="s">
@@ -84828,23 +84836,23 @@
         <v>3.95</v>
       </c>
       <c r="E2061">
-        <f t="shared" ref="E2061:E2065" si="231">MONTH(A2061)</f>
+        <f t="shared" ref="E2061:E2065" si="266">MONTH(A2061)</f>
         <v>6</v>
       </c>
       <c r="F2061">
-        <f t="shared" ref="F2061:F2065" si="232">YEAR(A2061)</f>
+        <f t="shared" ref="F2061:F2065" si="267">YEAR(A2061)</f>
         <v>2024</v>
       </c>
       <c r="G2061">
-        <f t="shared" ref="G2061:G2065" si="233">WEEKDAY(A2061, 2)</f>
+        <f t="shared" ref="G2061:G2065" si="268">WEEKDAY(A2061, 2)</f>
         <v>7</v>
       </c>
       <c r="H2061" t="str">
-        <f t="shared" ref="H2061:H2065" si="234">CHOOSE(WEEKDAY(A2061, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H2061:H2065" si="269">CHOOSE(WEEKDAY(A2061, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Sunday</v>
       </c>
       <c r="I2061" t="str">
-        <f t="shared" ref="I2061:I2065" si="235">TEXT(A2061, "MMM")</f>
+        <f t="shared" ref="I2061:I2065" si="270">TEXT(A2061, "MMM")</f>
         <v>Jun</v>
       </c>
       <c r="J2061" t="s">
@@ -84868,23 +84876,23 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="E2062">
-        <f t="shared" si="231"/>
+        <f t="shared" si="266"/>
         <v>6</v>
       </c>
       <c r="F2062">
-        <f t="shared" si="232"/>
+        <f t="shared" si="267"/>
         <v>2024</v>
       </c>
       <c r="G2062">
-        <f t="shared" si="233"/>
+        <f t="shared" si="268"/>
         <v>7</v>
       </c>
       <c r="H2062" t="str">
-        <f t="shared" si="234"/>
+        <f t="shared" si="269"/>
         <v>Sunday</v>
       </c>
       <c r="I2062" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" si="270"/>
         <v>Jun</v>
       </c>
       <c r="J2062" t="s">
@@ -84908,23 +84916,23 @@
         <v>2.4</v>
       </c>
       <c r="E2063">
-        <f t="shared" si="231"/>
+        <f t="shared" si="266"/>
         <v>6</v>
       </c>
       <c r="F2063">
-        <f t="shared" si="232"/>
+        <f t="shared" si="267"/>
         <v>2024</v>
       </c>
       <c r="G2063">
-        <f t="shared" si="233"/>
+        <f t="shared" si="268"/>
         <v>5</v>
       </c>
       <c r="H2063" t="str">
-        <f t="shared" si="234"/>
+        <f t="shared" si="269"/>
         <v>Friday</v>
       </c>
       <c r="I2063" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" si="270"/>
         <v>Jun</v>
       </c>
       <c r="J2063" t="s">
@@ -84945,23 +84953,23 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="E2064">
-        <f t="shared" si="231"/>
+        <f t="shared" si="266"/>
         <v>6</v>
       </c>
       <c r="F2064">
-        <f t="shared" si="232"/>
+        <f t="shared" si="267"/>
         <v>2024</v>
       </c>
       <c r="G2064">
-        <f t="shared" si="233"/>
+        <f t="shared" si="268"/>
         <v>5</v>
       </c>
       <c r="H2064" t="str">
-        <f t="shared" si="234"/>
+        <f t="shared" si="269"/>
         <v>Friday</v>
       </c>
       <c r="I2064" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" si="270"/>
         <v>Jun</v>
       </c>
       <c r="J2064" t="s">
@@ -84985,23 +84993,23 @@
         <v>2.4</v>
       </c>
       <c r="E2065">
-        <f t="shared" si="231"/>
+        <f t="shared" si="266"/>
         <v>5</v>
       </c>
       <c r="F2065">
-        <f t="shared" si="232"/>
+        <f t="shared" si="267"/>
         <v>2024</v>
       </c>
       <c r="G2065">
-        <f t="shared" si="233"/>
+        <f t="shared" si="268"/>
         <v>5</v>
       </c>
       <c r="H2065" t="str">
-        <f t="shared" si="234"/>
+        <f t="shared" si="269"/>
         <v>Friday</v>
       </c>
       <c r="I2065" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" si="270"/>
         <v>May</v>
       </c>
       <c r="J2065" t="s">
@@ -85023,23 +85031,23 @@
         <v>20</v>
       </c>
       <c r="E2066">
-        <f>MONTH(A2066)</f>
+        <f t="shared" ref="E2066:E2098" si="271">MONTH(A2066)</f>
         <v>5</v>
       </c>
       <c r="F2066">
-        <f>YEAR(A2066)</f>
+        <f t="shared" ref="F2066:F2098" si="272">YEAR(A2066)</f>
         <v>2024</v>
       </c>
       <c r="G2066">
-        <f>WEEKDAY(A2066, 2)</f>
+        <f t="shared" ref="G2066:G2098" si="273">WEEKDAY(A2066, 2)</f>
         <v>5</v>
       </c>
       <c r="H2066" t="str">
-        <f>CHOOSE(WEEKDAY(A2066, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H2066:H2098" si="274">CHOOSE(WEEKDAY(A2066, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Friday</v>
       </c>
       <c r="I2066" t="str">
-        <f>TEXT(A2066, "MMM")</f>
+        <f t="shared" ref="I2066:I2098" si="275">TEXT(A2066, "MMM")</f>
         <v>May</v>
       </c>
       <c r="J2066" t="s">
@@ -85063,23 +85071,23 @@
         <v>2.4</v>
       </c>
       <c r="E2067">
-        <f>MONTH(A2067)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2067">
-        <f>YEAR(A2067)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2067">
-        <f>WEEKDAY(A2067, 2)</f>
+        <f t="shared" si="273"/>
         <v>4</v>
       </c>
       <c r="H2067" t="str">
-        <f>CHOOSE(WEEKDAY(A2067, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Thursday</v>
       </c>
       <c r="I2067" t="str">
-        <f>TEXT(A2067, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2067" t="s">
@@ -85100,23 +85108,23 @@
         <v>2.4</v>
       </c>
       <c r="E2068">
-        <f>MONTH(A2068)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2068">
-        <f>YEAR(A2068)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2068">
-        <f>WEEKDAY(A2068, 2)</f>
+        <f t="shared" si="273"/>
         <v>3</v>
       </c>
       <c r="H2068" t="str">
-        <f>CHOOSE(WEEKDAY(A2068, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Wednesday</v>
       </c>
       <c r="I2068" t="str">
-        <f>TEXT(A2068, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2068" t="s">
@@ -85137,23 +85145,23 @@
         <v>2.9</v>
       </c>
       <c r="E2069">
-        <f>MONTH(A2069)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2069">
-        <f>YEAR(A2069)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2069">
-        <f>WEEKDAY(A2069, 2)</f>
+        <f t="shared" si="273"/>
         <v>2</v>
       </c>
       <c r="H2069" t="str">
-        <f>CHOOSE(WEEKDAY(A2069, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Tuesday</v>
       </c>
       <c r="I2069" t="str">
-        <f>TEXT(A2069, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2069" t="s">
@@ -85174,23 +85182,23 @@
         <v>0.79</v>
       </c>
       <c r="E2070">
-        <f>MONTH(A2070)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2070">
-        <f>YEAR(A2070)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2070">
-        <f>WEEKDAY(A2070, 2)</f>
+        <f t="shared" si="273"/>
         <v>2</v>
       </c>
       <c r="H2070" t="str">
-        <f>CHOOSE(WEEKDAY(A2070, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Tuesday</v>
       </c>
       <c r="I2070" t="str">
-        <f>TEXT(A2070, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2070" t="s">
@@ -85212,23 +85220,23 @@
         <v>44.61</v>
       </c>
       <c r="E2071">
-        <f>MONTH(A2071)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2071">
-        <f>YEAR(A2071)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2071">
-        <f>WEEKDAY(A2071, 2)</f>
+        <f t="shared" si="273"/>
         <v>6</v>
       </c>
       <c r="H2071" t="str">
-        <f>CHOOSE(WEEKDAY(A2071, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
       <c r="I2071" t="str">
-        <f>TEXT(A2071, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2071" t="s">
@@ -85252,23 +85260,23 @@
         <v>3.6</v>
       </c>
       <c r="E2072">
-        <f>MONTH(A2072)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2072">
-        <f>YEAR(A2072)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2072">
-        <f>WEEKDAY(A2072, 2)</f>
+        <f t="shared" si="273"/>
         <v>6</v>
       </c>
       <c r="H2072" t="str">
-        <f>CHOOSE(WEEKDAY(A2072, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
       <c r="I2072" t="str">
-        <f>TEXT(A2072, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2072" t="s">
@@ -85292,23 +85300,23 @@
         <v>2.8</v>
       </c>
       <c r="E2073">
-        <f>MONTH(A2073)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2073">
-        <f>YEAR(A2073)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2073">
-        <f>WEEKDAY(A2073, 2)</f>
+        <f t="shared" si="273"/>
         <v>6</v>
       </c>
       <c r="H2073" t="str">
-        <f>CHOOSE(WEEKDAY(A2073, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
       <c r="I2073" t="str">
-        <f>TEXT(A2073, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2073" t="s">
@@ -85332,23 +85340,23 @@
         <v>1.9</v>
       </c>
       <c r="E2074">
-        <f>MONTH(A2074)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2074">
-        <f>YEAR(A2074)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2074">
-        <f>WEEKDAY(A2074, 2)</f>
+        <f t="shared" si="273"/>
         <v>6</v>
       </c>
       <c r="H2074" t="str">
-        <f>CHOOSE(WEEKDAY(A2074, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
       <c r="I2074" t="str">
-        <f>TEXT(A2074, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2074" t="s">
@@ -85372,23 +85380,23 @@
         <v>1.7</v>
       </c>
       <c r="E2075">
-        <f>MONTH(A2075)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2075">
-        <f>YEAR(A2075)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2075">
-        <f>WEEKDAY(A2075, 2)</f>
+        <f t="shared" si="273"/>
         <v>6</v>
       </c>
       <c r="H2075" t="str">
-        <f>CHOOSE(WEEKDAY(A2075, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
       <c r="I2075" t="str">
-        <f>TEXT(A2075, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2075" t="s">
@@ -85412,23 +85420,23 @@
         <v>1.5</v>
       </c>
       <c r="E2076">
-        <f>MONTH(A2076)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2076">
-        <f>YEAR(A2076)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2076">
-        <f>WEEKDAY(A2076, 2)</f>
+        <f t="shared" si="273"/>
         <v>6</v>
       </c>
       <c r="H2076" t="str">
-        <f>CHOOSE(WEEKDAY(A2076, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
       <c r="I2076" t="str">
-        <f>TEXT(A2076, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2076" t="s">
@@ -85452,23 +85460,23 @@
         <v>1.5</v>
       </c>
       <c r="E2077">
-        <f>MONTH(A2077)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2077">
-        <f>YEAR(A2077)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2077">
-        <f>WEEKDAY(A2077, 2)</f>
+        <f t="shared" si="273"/>
         <v>6</v>
       </c>
       <c r="H2077" t="str">
-        <f>CHOOSE(WEEKDAY(A2077, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
       <c r="I2077" t="str">
-        <f>TEXT(A2077, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2077" t="s">
@@ -85492,23 +85500,23 @@
         <v>1.5</v>
       </c>
       <c r="E2078">
-        <f>MONTH(A2078)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2078">
-        <f>YEAR(A2078)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2078">
-        <f>WEEKDAY(A2078, 2)</f>
+        <f t="shared" si="273"/>
         <v>6</v>
       </c>
       <c r="H2078" t="str">
-        <f>CHOOSE(WEEKDAY(A2078, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
       <c r="I2078" t="str">
-        <f>TEXT(A2078, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2078" t="s">
@@ -85532,23 +85540,23 @@
         <v>1.3</v>
       </c>
       <c r="E2079">
-        <f>MONTH(A2079)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2079">
-        <f>YEAR(A2079)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2079">
-        <f>WEEKDAY(A2079, 2)</f>
+        <f t="shared" si="273"/>
         <v>6</v>
       </c>
       <c r="H2079" t="str">
-        <f>CHOOSE(WEEKDAY(A2079, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
       <c r="I2079" t="str">
-        <f>TEXT(A2079, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2079" t="s">
@@ -85572,23 +85580,23 @@
         <v>18.989999999999998</v>
       </c>
       <c r="E2080">
-        <f>MONTH(A2080)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2080">
-        <f>YEAR(A2080)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2080">
-        <f>WEEKDAY(A2080, 2)</f>
+        <f t="shared" si="273"/>
         <v>6</v>
       </c>
       <c r="H2080" t="str">
-        <f>CHOOSE(WEEKDAY(A2080, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
       <c r="I2080" t="str">
-        <f>TEXT(A2080, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2080" t="s">
@@ -85612,23 +85620,23 @@
         <v>3.99</v>
       </c>
       <c r="E2081">
-        <f>MONTH(A2081)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2081">
-        <f>YEAR(A2081)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2081">
-        <f>WEEKDAY(A2081, 2)</f>
+        <f t="shared" si="273"/>
         <v>6</v>
       </c>
       <c r="H2081" t="str">
-        <f>CHOOSE(WEEKDAY(A2081, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
       <c r="I2081" t="str">
-        <f>TEXT(A2081, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2081" t="s">
@@ -85652,23 +85660,23 @@
         <v>4.99</v>
       </c>
       <c r="E2082">
-        <f>MONTH(A2082)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2082">
-        <f>YEAR(A2082)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2082">
-        <f>WEEKDAY(A2082, 2)</f>
+        <f t="shared" si="273"/>
         <v>6</v>
       </c>
       <c r="H2082" t="str">
-        <f>CHOOSE(WEEKDAY(A2082, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
       <c r="I2082" t="str">
-        <f>TEXT(A2082, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2082" t="s">
@@ -85692,23 +85700,23 @@
         <v>0.46</v>
       </c>
       <c r="E2083">
-        <f>MONTH(A2083)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2083">
-        <f>YEAR(A2083)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2083">
-        <f>WEEKDAY(A2083, 2)</f>
+        <f t="shared" si="273"/>
         <v>6</v>
       </c>
       <c r="H2083" t="str">
-        <f>CHOOSE(WEEKDAY(A2083, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
       <c r="I2083" t="str">
-        <f>TEXT(A2083, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2083" t="s">
@@ -85732,23 +85740,23 @@
         <v>0.68</v>
       </c>
       <c r="E2084">
-        <f>MONTH(A2084)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2084">
-        <f>YEAR(A2084)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2084">
-        <f>WEEKDAY(A2084, 2)</f>
+        <f t="shared" si="273"/>
         <v>6</v>
       </c>
       <c r="H2084" t="str">
-        <f>CHOOSE(WEEKDAY(A2084, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
       <c r="I2084" t="str">
-        <f>TEXT(A2084, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2084" t="s">
@@ -85772,23 +85780,23 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E2085">
-        <f>MONTH(A2085)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2085">
-        <f>YEAR(A2085)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2085">
-        <f>WEEKDAY(A2085, 2)</f>
+        <f t="shared" si="273"/>
         <v>6</v>
       </c>
       <c r="H2085" t="str">
-        <f>CHOOSE(WEEKDAY(A2085, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
       <c r="I2085" t="str">
-        <f>TEXT(A2085, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2085" t="s">
@@ -85802,40 +85810,40 @@
       <c r="A2086" s="1">
         <v>45444</v>
       </c>
-      <c r="B2086" s="2" t="s">
+      <c r="B2086" t="s">
         <v>96</v>
       </c>
-      <c r="C2086" s="2" t="s">
+      <c r="C2086" t="s">
         <v>96</v>
       </c>
-      <c r="D2086" s="2">
+      <c r="D2086">
         <f>26.06/2</f>
         <v>13.03</v>
       </c>
-      <c r="E2086" s="2">
-        <f>MONTH(A2086)</f>
-        <v>6</v>
-      </c>
-      <c r="F2086" s="2">
-        <f>YEAR(A2086)</f>
-        <v>2024</v>
-      </c>
-      <c r="G2086" s="2">
-        <f>WEEKDAY(A2086, 2)</f>
-        <v>6</v>
-      </c>
-      <c r="H2086" s="2" t="str">
-        <f>CHOOSE(WEEKDAY(A2086, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+      <c r="E2086">
+        <f t="shared" si="271"/>
+        <v>6</v>
+      </c>
+      <c r="F2086">
+        <f t="shared" si="272"/>
+        <v>2024</v>
+      </c>
+      <c r="G2086">
+        <f t="shared" si="273"/>
+        <v>6</v>
+      </c>
+      <c r="H2086" t="str">
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
-      <c r="I2086" s="2" t="str">
-        <f>TEXT(A2086, "MMM")</f>
+      <c r="I2086" t="str">
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
-      <c r="J2086" s="2" t="s">
+      <c r="J2086" t="s">
         <v>1144</v>
       </c>
-      <c r="K2086" s="2" t="s">
+      <c r="K2086" t="s">
         <v>1145</v>
       </c>
     </row>
@@ -85843,39 +85851,39 @@
       <c r="A2087" s="1">
         <v>45445</v>
       </c>
-      <c r="B2087" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2087" s="2" t="s">
+      <c r="B2087" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2087" t="s">
         <v>1146</v>
       </c>
-      <c r="D2087" s="2">
+      <c r="D2087">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E2087" s="2">
-        <f>MONTH(A2087)</f>
-        <v>6</v>
-      </c>
-      <c r="F2087" s="2">
-        <f>YEAR(A2087)</f>
-        <v>2024</v>
-      </c>
-      <c r="G2087" s="2">
-        <f>WEEKDAY(A2087, 2)</f>
+      <c r="E2087">
+        <f t="shared" si="271"/>
+        <v>6</v>
+      </c>
+      <c r="F2087">
+        <f t="shared" si="272"/>
+        <v>2024</v>
+      </c>
+      <c r="G2087">
+        <f t="shared" si="273"/>
         <v>7</v>
       </c>
-      <c r="H2087" s="2" t="str">
-        <f>CHOOSE(WEEKDAY(A2087, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+      <c r="H2087" t="str">
+        <f t="shared" si="274"/>
         <v>Sunday</v>
       </c>
-      <c r="I2087" s="2" t="str">
-        <f>TEXT(A2087, "MMM")</f>
+      <c r="I2087" t="str">
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
-      <c r="J2087" s="2" t="s">
+      <c r="J2087" t="s">
         <v>1147</v>
       </c>
-      <c r="K2087" s="2" t="s">
+      <c r="K2087" t="s">
         <v>1148</v>
       </c>
     </row>
@@ -85883,39 +85891,39 @@
       <c r="A2088" s="1">
         <v>45437</v>
       </c>
-      <c r="B2088" s="2" t="s">
+      <c r="B2088" t="s">
         <v>7</v>
       </c>
-      <c r="C2088" s="2" t="s">
+      <c r="C2088" t="s">
         <v>1149</v>
       </c>
-      <c r="D2088" s="2">
+      <c r="D2088">
         <v>356.27</v>
       </c>
-      <c r="E2088" s="2">
-        <f>MONTH(A2088)</f>
+      <c r="E2088">
+        <f t="shared" si="271"/>
         <v>5</v>
       </c>
-      <c r="F2088" s="2">
-        <f>YEAR(A2088)</f>
-        <v>2024</v>
-      </c>
-      <c r="G2088" s="2">
-        <f>WEEKDAY(A2088, 2)</f>
-        <v>6</v>
-      </c>
-      <c r="H2088" s="2" t="str">
-        <f>CHOOSE(WEEKDAY(A2088, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+      <c r="F2088">
+        <f t="shared" si="272"/>
+        <v>2024</v>
+      </c>
+      <c r="G2088">
+        <f t="shared" si="273"/>
+        <v>6</v>
+      </c>
+      <c r="H2088" t="str">
+        <f t="shared" si="274"/>
         <v>Saturday</v>
       </c>
-      <c r="I2088" s="2" t="str">
-        <f>TEXT(A2088, "MMM")</f>
+      <c r="I2088" t="str">
+        <f t="shared" si="275"/>
         <v>May</v>
       </c>
-      <c r="J2088" s="2" t="s">
+      <c r="J2088" t="s">
         <v>1150</v>
       </c>
-      <c r="K2088" s="2" t="s">
+      <c r="K2088" t="s">
         <v>743</v>
       </c>
     </row>
@@ -85933,23 +85941,23 @@
         <v>2.4</v>
       </c>
       <c r="E2089">
-        <f>MONTH(A2089)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2089">
-        <f>YEAR(A2089)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2089">
-        <f>WEEKDAY(A2089, 2)</f>
+        <f t="shared" si="273"/>
         <v>5</v>
       </c>
       <c r="H2089" t="str">
-        <f>CHOOSE(WEEKDAY(A2089, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Friday</v>
       </c>
       <c r="I2089" t="str">
-        <f>TEXT(A2089, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2089" t="s">
@@ -85970,23 +85978,23 @@
         <v>0.79</v>
       </c>
       <c r="E2090">
-        <f>MONTH(A2090)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2090">
-        <f>YEAR(A2090)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2090">
-        <f>WEEKDAY(A2090, 2)</f>
+        <f t="shared" si="273"/>
         <v>5</v>
       </c>
       <c r="H2090" t="str">
-        <f>CHOOSE(WEEKDAY(A2090, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Friday</v>
       </c>
       <c r="I2090" t="str">
-        <f>TEXT(A2090, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2090" t="s">
@@ -86008,23 +86016,23 @@
         <v>1.1950000000000001</v>
       </c>
       <c r="E2091">
-        <f>MONTH(A2091)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2091">
-        <f>YEAR(A2091)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2091">
-        <f>WEEKDAY(A2091, 2)</f>
+        <f t="shared" si="273"/>
         <v>4</v>
       </c>
       <c r="H2091" t="str">
-        <f>CHOOSE(WEEKDAY(A2091, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Thursday</v>
       </c>
       <c r="I2091" t="str">
-        <f>TEXT(A2091, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2091" t="s">
@@ -86049,23 +86057,23 @@
         <v>4.49</v>
       </c>
       <c r="E2092">
-        <f>MONTH(A2092)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2092">
-        <f>YEAR(A2092)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2092">
-        <f>WEEKDAY(A2092, 2)</f>
+        <f t="shared" si="273"/>
         <v>4</v>
       </c>
       <c r="H2092" t="str">
-        <f>CHOOSE(WEEKDAY(A2092, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Thursday</v>
       </c>
       <c r="I2092" t="str">
-        <f>TEXT(A2092, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2092" t="s">
@@ -86090,23 +86098,23 @@
         <v>4.49</v>
       </c>
       <c r="E2093">
-        <f>MONTH(A2093)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2093">
-        <f>YEAR(A2093)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2093">
-        <f>WEEKDAY(A2093, 2)</f>
+        <f t="shared" si="273"/>
         <v>4</v>
       </c>
       <c r="H2093" t="str">
-        <f>CHOOSE(WEEKDAY(A2093, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Thursday</v>
       </c>
       <c r="I2093" t="str">
-        <f>TEXT(A2093, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2093" t="s">
@@ -86131,23 +86139,23 @@
         <v>4.49</v>
       </c>
       <c r="E2094">
-        <f>MONTH(A2094)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2094">
-        <f>YEAR(A2094)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2094">
-        <f>WEEKDAY(A2094, 2)</f>
+        <f t="shared" si="273"/>
         <v>4</v>
       </c>
       <c r="H2094" t="str">
-        <f>CHOOSE(WEEKDAY(A2094, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Thursday</v>
       </c>
       <c r="I2094" t="str">
-        <f>TEXT(A2094, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2094" t="s">
@@ -86172,23 +86180,23 @@
         <v>1.4950000000000001</v>
       </c>
       <c r="E2095">
-        <f>MONTH(A2095)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2095">
-        <f>YEAR(A2095)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2095">
-        <f>WEEKDAY(A2095, 2)</f>
+        <f t="shared" si="273"/>
         <v>4</v>
       </c>
       <c r="H2095" t="str">
-        <f>CHOOSE(WEEKDAY(A2095, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Thursday</v>
       </c>
       <c r="I2095" t="str">
-        <f>TEXT(A2095, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2095" t="s">
@@ -86213,23 +86221,23 @@
         <v>2.395</v>
       </c>
       <c r="E2096">
-        <f>MONTH(A2096)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2096">
-        <f>YEAR(A2096)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2096">
-        <f>WEEKDAY(A2096, 2)</f>
+        <f t="shared" si="273"/>
         <v>4</v>
       </c>
       <c r="H2096" t="str">
-        <f>CHOOSE(WEEKDAY(A2096, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Thursday</v>
       </c>
       <c r="I2096" t="str">
-        <f>TEXT(A2096, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2096" t="s">
@@ -86254,23 +86262,23 @@
         <v>1.4950000000000001</v>
       </c>
       <c r="E2097">
-        <f>MONTH(A2097)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2097">
-        <f>YEAR(A2097)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2097">
-        <f>WEEKDAY(A2097, 2)</f>
+        <f t="shared" si="273"/>
         <v>4</v>
       </c>
       <c r="H2097" t="str">
-        <f>CHOOSE(WEEKDAY(A2097, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Thursday</v>
       </c>
       <c r="I2097" t="str">
-        <f>TEXT(A2097, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2097" t="s">
@@ -86294,23 +86302,23 @@
         <v>9.99</v>
       </c>
       <c r="E2098">
-        <f>MONTH(A2098)</f>
+        <f t="shared" si="271"/>
         <v>6</v>
       </c>
       <c r="F2098">
-        <f>YEAR(A2098)</f>
+        <f t="shared" si="272"/>
         <v>2024</v>
       </c>
       <c r="G2098">
-        <f>WEEKDAY(A2098, 2)</f>
+        <f t="shared" si="273"/>
         <v>3</v>
       </c>
       <c r="H2098" t="str">
-        <f>CHOOSE(WEEKDAY(A2098, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="274"/>
         <v>Wednesday</v>
       </c>
       <c r="I2098" t="str">
-        <f>TEXT(A2098, "MMM")</f>
+        <f t="shared" si="275"/>
         <v>Jun</v>
       </c>
       <c r="J2098" t="s">
@@ -86334,23 +86342,23 @@
         <v>3.99</v>
       </c>
       <c r="E2099">
-        <f t="shared" ref="E2099:E2105" si="236">MONTH(A2099)</f>
+        <f t="shared" ref="E2099:E2105" si="276">MONTH(A2099)</f>
         <v>6</v>
       </c>
       <c r="F2099">
-        <f t="shared" ref="F2099:F2105" si="237">YEAR(A2099)</f>
+        <f t="shared" ref="F2099:F2105" si="277">YEAR(A2099)</f>
         <v>2024</v>
       </c>
       <c r="G2099">
-        <f t="shared" ref="G2099:G2105" si="238">WEEKDAY(A2099, 2)</f>
+        <f t="shared" ref="G2099:G2105" si="278">WEEKDAY(A2099, 2)</f>
         <v>3</v>
       </c>
       <c r="H2099" t="str">
-        <f t="shared" ref="H2099:H2105" si="239">CHOOSE(WEEKDAY(A2099, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H2099:H2105" si="279">CHOOSE(WEEKDAY(A2099, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Wednesday</v>
       </c>
       <c r="I2099" t="str">
-        <f t="shared" ref="I2099:I2105" si="240">TEXT(A2099, "MMM")</f>
+        <f t="shared" ref="I2099:I2105" si="280">TEXT(A2099, "MMM")</f>
         <v>Jun</v>
       </c>
       <c r="J2099" t="s">
@@ -86374,23 +86382,23 @@
         <v>6.99</v>
       </c>
       <c r="E2100">
-        <f t="shared" si="236"/>
+        <f t="shared" si="276"/>
         <v>6</v>
       </c>
       <c r="F2100">
-        <f t="shared" si="237"/>
+        <f t="shared" si="277"/>
         <v>2024</v>
       </c>
       <c r="G2100">
-        <f t="shared" si="238"/>
+        <f t="shared" si="278"/>
         <v>4</v>
       </c>
       <c r="H2100" t="str">
-        <f t="shared" si="239"/>
+        <f t="shared" si="279"/>
         <v>Thursday</v>
       </c>
       <c r="I2100" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" si="280"/>
         <v>Jun</v>
       </c>
       <c r="J2100" t="s">
@@ -86414,23 +86422,23 @@
         <v>4.5</v>
       </c>
       <c r="E2101">
-        <f t="shared" si="236"/>
+        <f t="shared" si="276"/>
         <v>6</v>
       </c>
       <c r="F2101">
-        <f t="shared" si="237"/>
+        <f t="shared" si="277"/>
         <v>2024</v>
       </c>
       <c r="G2101">
-        <f t="shared" si="238"/>
+        <f t="shared" si="278"/>
         <v>7</v>
       </c>
       <c r="H2101" t="str">
-        <f t="shared" si="239"/>
+        <f t="shared" si="279"/>
         <v>Sunday</v>
       </c>
       <c r="I2101" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" si="280"/>
         <v>Jun</v>
       </c>
       <c r="J2101" t="s">
@@ -86454,23 +86462,23 @@
         <v>2.4</v>
       </c>
       <c r="E2102">
-        <f t="shared" si="236"/>
+        <f t="shared" si="276"/>
         <v>7</v>
       </c>
       <c r="F2102">
-        <f t="shared" si="237"/>
+        <f t="shared" si="277"/>
         <v>2024</v>
       </c>
       <c r="G2102">
-        <f t="shared" si="238"/>
+        <f t="shared" si="278"/>
         <v>1</v>
       </c>
       <c r="H2102" t="str">
-        <f t="shared" si="239"/>
+        <f t="shared" si="279"/>
         <v>Monday</v>
       </c>
       <c r="I2102" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" si="280"/>
         <v>Jul</v>
       </c>
       <c r="J2102" t="s">
@@ -86491,23 +86499,23 @@
         <v>0.79</v>
       </c>
       <c r="E2103">
-        <f t="shared" si="236"/>
+        <f t="shared" si="276"/>
         <v>7</v>
       </c>
       <c r="F2103">
-        <f t="shared" si="237"/>
+        <f t="shared" si="277"/>
         <v>2024</v>
       </c>
       <c r="G2103">
-        <f t="shared" si="238"/>
+        <f t="shared" si="278"/>
         <v>1</v>
       </c>
       <c r="H2103" t="str">
-        <f t="shared" si="239"/>
+        <f t="shared" si="279"/>
         <v>Monday</v>
       </c>
       <c r="I2103" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" si="280"/>
         <v>Jul</v>
       </c>
       <c r="J2103" t="s">
@@ -86528,23 +86536,23 @@
         <v>2.09</v>
       </c>
       <c r="E2104">
-        <f t="shared" si="236"/>
+        <f t="shared" si="276"/>
         <v>7</v>
       </c>
       <c r="F2104">
-        <f t="shared" si="237"/>
+        <f t="shared" si="277"/>
         <v>2024</v>
       </c>
       <c r="G2104">
-        <f t="shared" si="238"/>
+        <f t="shared" si="278"/>
         <v>1</v>
       </c>
       <c r="H2104" t="str">
-        <f t="shared" si="239"/>
+        <f t="shared" si="279"/>
         <v>Monday</v>
       </c>
       <c r="I2104" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" si="280"/>
         <v>Jul</v>
       </c>
       <c r="J2104" t="s">
@@ -86568,23 +86576,23 @@
         <v>0.99</v>
       </c>
       <c r="E2105">
-        <f t="shared" si="236"/>
+        <f t="shared" si="276"/>
         <v>7</v>
       </c>
       <c r="F2105">
-        <f t="shared" si="237"/>
+        <f t="shared" si="277"/>
         <v>2024</v>
       </c>
       <c r="G2105">
-        <f t="shared" si="238"/>
+        <f t="shared" si="278"/>
         <v>1</v>
       </c>
       <c r="H2105" t="str">
-        <f t="shared" si="239"/>
+        <f t="shared" si="279"/>
         <v>Monday</v>
       </c>
       <c r="I2105" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" si="280"/>
         <v>Jul</v>
       </c>
       <c r="J2105" t="s">
@@ -86608,23 +86616,23 @@
         <v>0.99</v>
       </c>
       <c r="E2106">
-        <f>MONTH(A2106)</f>
+        <f t="shared" ref="E2106:E2118" si="281">MONTH(A2106)</f>
         <v>7</v>
       </c>
       <c r="F2106">
-        <f>YEAR(A2106)</f>
+        <f t="shared" ref="F2106:F2118" si="282">YEAR(A2106)</f>
         <v>2024</v>
       </c>
       <c r="G2106">
-        <f>WEEKDAY(A2106, 2)</f>
+        <f t="shared" ref="G2106:G2118" si="283">WEEKDAY(A2106, 2)</f>
         <v>1</v>
       </c>
       <c r="H2106" t="str">
-        <f>CHOOSE(WEEKDAY(A2106, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H2106:H2118" si="284">CHOOSE(WEEKDAY(A2106, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Monday</v>
       </c>
       <c r="I2106" t="str">
-        <f>TEXT(A2106, "MMM")</f>
+        <f t="shared" ref="I2106:I2118" si="285">TEXT(A2106, "MMM")</f>
         <v>Jul</v>
       </c>
       <c r="J2106" t="s">
@@ -86648,23 +86656,23 @@
         <v>2.4</v>
       </c>
       <c r="E2107">
-        <f>MONTH(A2107)</f>
+        <f t="shared" si="281"/>
         <v>7</v>
       </c>
       <c r="F2107">
-        <f>YEAR(A2107)</f>
+        <f t="shared" si="282"/>
         <v>2024</v>
       </c>
       <c r="G2107">
-        <f>WEEKDAY(A2107, 2)</f>
+        <f t="shared" si="283"/>
         <v>2</v>
       </c>
       <c r="H2107" t="str">
-        <f>CHOOSE(WEEKDAY(A2107, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="284"/>
         <v>Tuesday</v>
       </c>
       <c r="I2107" t="str">
-        <f>TEXT(A2107, "MMM")</f>
+        <f t="shared" si="285"/>
         <v>Jul</v>
       </c>
       <c r="J2107" t="s">
@@ -86685,23 +86693,23 @@
         <v>2.4</v>
       </c>
       <c r="E2108">
-        <f>MONTH(A2108)</f>
+        <f t="shared" si="281"/>
         <v>7</v>
       </c>
       <c r="F2108">
-        <f>YEAR(A2108)</f>
+        <f t="shared" si="282"/>
         <v>2024</v>
       </c>
       <c r="G2108">
-        <f>WEEKDAY(A2108, 2)</f>
+        <f t="shared" si="283"/>
         <v>3</v>
       </c>
       <c r="H2108" t="str">
-        <f>CHOOSE(WEEKDAY(A2108, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="284"/>
         <v>Wednesday</v>
       </c>
       <c r="I2108" t="str">
-        <f>TEXT(A2108, "MMM")</f>
+        <f t="shared" si="285"/>
         <v>Jul</v>
       </c>
       <c r="J2108" t="s">
@@ -86722,23 +86730,23 @@
         <v>0.79</v>
       </c>
       <c r="E2109">
-        <f>MONTH(A2109)</f>
+        <f t="shared" si="281"/>
         <v>7</v>
       </c>
       <c r="F2109">
-        <f>YEAR(A2109)</f>
+        <f t="shared" si="282"/>
         <v>2024</v>
       </c>
       <c r="G2109">
-        <f>WEEKDAY(A2109, 2)</f>
+        <f t="shared" si="283"/>
         <v>3</v>
       </c>
       <c r="H2109" t="str">
-        <f>CHOOSE(WEEKDAY(A2109, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="284"/>
         <v>Wednesday</v>
       </c>
       <c r="I2109" t="str">
-        <f>TEXT(A2109, "MMM")</f>
+        <f t="shared" si="285"/>
         <v>Jul</v>
       </c>
       <c r="J2109" t="s">
@@ -86759,23 +86767,23 @@
         <v>0.59</v>
       </c>
       <c r="E2110">
-        <f>MONTH(A2110)</f>
+        <f t="shared" si="281"/>
         <v>7</v>
       </c>
       <c r="F2110">
-        <f>YEAR(A2110)</f>
+        <f t="shared" si="282"/>
         <v>2024</v>
       </c>
       <c r="G2110">
-        <f>WEEKDAY(A2110, 2)</f>
+        <f t="shared" si="283"/>
         <v>4</v>
       </c>
       <c r="H2110" t="str">
-        <f>CHOOSE(WEEKDAY(A2110, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="284"/>
         <v>Thursday</v>
       </c>
       <c r="I2110" t="str">
-        <f>TEXT(A2110, "MMM")</f>
+        <f t="shared" si="285"/>
         <v>Jul</v>
       </c>
       <c r="J2110" t="s">
@@ -86799,23 +86807,23 @@
         <v>0.59</v>
       </c>
       <c r="E2111">
-        <f>MONTH(A2111)</f>
+        <f t="shared" si="281"/>
         <v>7</v>
       </c>
       <c r="F2111">
-        <f>YEAR(A2111)</f>
+        <f t="shared" si="282"/>
         <v>2024</v>
       </c>
       <c r="G2111">
-        <f>WEEKDAY(A2111, 2)</f>
+        <f t="shared" si="283"/>
         <v>4</v>
       </c>
       <c r="H2111" t="str">
-        <f>CHOOSE(WEEKDAY(A2111, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="284"/>
         <v>Thursday</v>
       </c>
       <c r="I2111" t="str">
-        <f>TEXT(A2111, "MMM")</f>
+        <f t="shared" si="285"/>
         <v>Jul</v>
       </c>
       <c r="J2111" t="s">
@@ -86839,23 +86847,23 @@
         <v>2.4</v>
       </c>
       <c r="E2112">
-        <f>MONTH(A2112)</f>
+        <f t="shared" si="281"/>
         <v>7</v>
       </c>
       <c r="F2112">
-        <f>YEAR(A2112)</f>
+        <f t="shared" si="282"/>
         <v>2024</v>
       </c>
       <c r="G2112">
-        <f>WEEKDAY(A2112, 2)</f>
+        <f t="shared" si="283"/>
         <v>4</v>
       </c>
       <c r="H2112" t="str">
-        <f>CHOOSE(WEEKDAY(A2112, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="284"/>
         <v>Thursday</v>
       </c>
       <c r="I2112" t="str">
-        <f>TEXT(A2112, "MMM")</f>
+        <f t="shared" si="285"/>
         <v>Jul</v>
       </c>
       <c r="J2112" t="s">
@@ -86876,23 +86884,23 @@
         <v>0.79</v>
       </c>
       <c r="E2113">
-        <f>MONTH(A2113)</f>
+        <f t="shared" si="281"/>
         <v>7</v>
       </c>
       <c r="F2113">
-        <f>YEAR(A2113)</f>
+        <f t="shared" si="282"/>
         <v>2024</v>
       </c>
       <c r="G2113">
-        <f>WEEKDAY(A2113, 2)</f>
+        <f t="shared" si="283"/>
         <v>4</v>
       </c>
       <c r="H2113" t="str">
-        <f>CHOOSE(WEEKDAY(A2113, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="284"/>
         <v>Thursday</v>
       </c>
       <c r="I2113" t="str">
-        <f>TEXT(A2113, "MMM")</f>
+        <f t="shared" si="285"/>
         <v>Jul</v>
       </c>
       <c r="J2113" t="s">
@@ -86913,23 +86921,23 @@
         <v>2.4</v>
       </c>
       <c r="E2114">
-        <f>MONTH(A2114)</f>
+        <f t="shared" si="281"/>
         <v>7</v>
       </c>
       <c r="F2114">
-        <f>YEAR(A2114)</f>
+        <f t="shared" si="282"/>
         <v>2024</v>
       </c>
       <c r="G2114">
-        <f>WEEKDAY(A2114, 2)</f>
+        <f t="shared" si="283"/>
         <v>5</v>
       </c>
       <c r="H2114" t="str">
-        <f>CHOOSE(WEEKDAY(A2114, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="284"/>
         <v>Friday</v>
       </c>
       <c r="I2114" t="str">
-        <f>TEXT(A2114, "MMM")</f>
+        <f t="shared" si="285"/>
         <v>Jul</v>
       </c>
       <c r="J2114" t="s">
@@ -86950,23 +86958,23 @@
         <v>4.2</v>
       </c>
       <c r="E2115">
-        <f>MONTH(A2115)</f>
+        <f t="shared" si="281"/>
         <v>7</v>
       </c>
       <c r="F2115">
-        <f>YEAR(A2115)</f>
+        <f t="shared" si="282"/>
         <v>2024</v>
       </c>
       <c r="G2115">
-        <f>WEEKDAY(A2115, 2)</f>
+        <f t="shared" si="283"/>
         <v>5</v>
       </c>
       <c r="H2115" t="str">
-        <f>CHOOSE(WEEKDAY(A2115, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="284"/>
         <v>Friday</v>
       </c>
       <c r="I2115" t="str">
-        <f>TEXT(A2115, "MMM")</f>
+        <f t="shared" si="285"/>
         <v>Jul</v>
       </c>
       <c r="J2115" t="s">
@@ -86990,23 +86998,23 @@
         <v>6.2</v>
       </c>
       <c r="E2116">
-        <f>MONTH(A2116)</f>
+        <f t="shared" si="281"/>
         <v>7</v>
       </c>
       <c r="F2116">
-        <f>YEAR(A2116)</f>
+        <f t="shared" si="282"/>
         <v>2024</v>
       </c>
       <c r="G2116">
-        <f>WEEKDAY(A2116, 2)</f>
+        <f t="shared" si="283"/>
         <v>5</v>
       </c>
       <c r="H2116" t="str">
-        <f>CHOOSE(WEEKDAY(A2116, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="284"/>
         <v>Friday</v>
       </c>
       <c r="I2116" t="str">
-        <f>TEXT(A2116, "MMM")</f>
+        <f t="shared" si="285"/>
         <v>Jul</v>
       </c>
       <c r="J2116" t="s">
@@ -87030,23 +87038,23 @@
         <v>1.6</v>
       </c>
       <c r="E2117">
-        <f>MONTH(A2117)</f>
+        <f t="shared" si="281"/>
         <v>7</v>
       </c>
       <c r="F2117">
-        <f>YEAR(A2117)</f>
+        <f t="shared" si="282"/>
         <v>2024</v>
       </c>
       <c r="G2117">
-        <f>WEEKDAY(A2117, 2)</f>
+        <f t="shared" si="283"/>
         <v>5</v>
       </c>
       <c r="H2117" t="str">
-        <f>CHOOSE(WEEKDAY(A2117, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="284"/>
         <v>Friday</v>
       </c>
       <c r="I2117" t="str">
-        <f>TEXT(A2117, "MMM")</f>
+        <f t="shared" si="285"/>
         <v>Jul</v>
       </c>
       <c r="J2117" t="s">
@@ -87071,23 +87079,23 @@
         <v>1.6</v>
       </c>
       <c r="E2118">
-        <f>MONTH(A2118)</f>
+        <f t="shared" si="281"/>
         <v>7</v>
       </c>
       <c r="F2118">
-        <f>YEAR(A2118)</f>
+        <f t="shared" si="282"/>
         <v>2024</v>
       </c>
       <c r="G2118">
-        <f>WEEKDAY(A2118, 2)</f>
+        <f t="shared" si="283"/>
         <v>6</v>
       </c>
       <c r="H2118" t="str">
-        <f>CHOOSE(WEEKDAY(A2118, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="284"/>
         <v>Saturday</v>
       </c>
       <c r="I2118" t="str">
-        <f>TEXT(A2118, "MMM")</f>
+        <f t="shared" si="285"/>
         <v>Jul</v>
       </c>
       <c r="J2118" t="s">
@@ -87112,23 +87120,23 @@
         <v>0.79</v>
       </c>
       <c r="E2119">
-        <f t="shared" ref="E2119:E2132" si="241">MONTH(A2119)</f>
+        <f t="shared" ref="E2119:E2132" si="286">MONTH(A2119)</f>
         <v>7</v>
       </c>
       <c r="F2119">
-        <f t="shared" ref="F2119:F2132" si="242">YEAR(A2119)</f>
+        <f t="shared" ref="F2119:F2132" si="287">YEAR(A2119)</f>
         <v>2024</v>
       </c>
       <c r="G2119">
-        <f t="shared" ref="G2119:G2132" si="243">WEEKDAY(A2119, 2)</f>
+        <f t="shared" ref="G2119:G2132" si="288">WEEKDAY(A2119, 2)</f>
         <v>6</v>
       </c>
       <c r="H2119" t="str">
-        <f t="shared" ref="H2119:H2132" si="244">CHOOSE(WEEKDAY(A2119, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H2119:H2132" si="289">CHOOSE(WEEKDAY(A2119, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Saturday</v>
       </c>
       <c r="I2119" t="str">
-        <f t="shared" ref="I2119:I2132" si="245">TEXT(A2119, "MMM")</f>
+        <f t="shared" ref="I2119:I2132" si="290">TEXT(A2119, "MMM")</f>
         <v>Jul</v>
       </c>
       <c r="J2119" t="s">
@@ -87153,23 +87161,23 @@
         <v>0.79</v>
       </c>
       <c r="E2120">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>7</v>
       </c>
       <c r="F2120">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>2024</v>
       </c>
       <c r="G2120">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>6</v>
       </c>
       <c r="H2120" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="289"/>
         <v>Saturday</v>
       </c>
       <c r="I2120" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>Jul</v>
       </c>
       <c r="J2120" t="s">
@@ -87194,23 +87202,23 @@
         <v>1.3199999999999998</v>
       </c>
       <c r="E2121">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>7</v>
       </c>
       <c r="F2121">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>2024</v>
       </c>
       <c r="G2121">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>6</v>
       </c>
       <c r="H2121" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="289"/>
         <v>Saturday</v>
       </c>
       <c r="I2121" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>Jul</v>
       </c>
       <c r="J2121" t="s">
@@ -87235,23 +87243,23 @@
         <v>1.19</v>
       </c>
       <c r="E2122">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>7</v>
       </c>
       <c r="F2122">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>2024</v>
       </c>
       <c r="G2122">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>6</v>
       </c>
       <c r="H2122" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="289"/>
         <v>Saturday</v>
       </c>
       <c r="I2122" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>Jul</v>
       </c>
       <c r="J2122" t="s">
@@ -87275,23 +87283,23 @@
         <v>1.25</v>
       </c>
       <c r="E2123">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>7</v>
       </c>
       <c r="F2123">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>2024</v>
       </c>
       <c r="G2123">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>6</v>
       </c>
       <c r="H2123" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="289"/>
         <v>Saturday</v>
       </c>
       <c r="I2123" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>Jul</v>
       </c>
       <c r="J2123" t="s">
@@ -87315,23 +87323,23 @@
         <v>1.45</v>
       </c>
       <c r="E2124">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>7</v>
       </c>
       <c r="F2124">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>2024</v>
       </c>
       <c r="G2124">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>6</v>
       </c>
       <c r="H2124" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="289"/>
         <v>Saturday</v>
       </c>
       <c r="I2124" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>Jul</v>
       </c>
       <c r="J2124" t="s">
@@ -87355,23 +87363,23 @@
         <v>1.45</v>
       </c>
       <c r="E2125">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>7</v>
       </c>
       <c r="F2125">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>2024</v>
       </c>
       <c r="G2125">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>6</v>
       </c>
       <c r="H2125" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="289"/>
         <v>Saturday</v>
       </c>
       <c r="I2125" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>Jul</v>
       </c>
       <c r="J2125" t="s">
@@ -87395,23 +87403,23 @@
         <v>5.99</v>
       </c>
       <c r="E2126">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>7</v>
       </c>
       <c r="F2126">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>2024</v>
       </c>
       <c r="G2126">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>6</v>
       </c>
       <c r="H2126" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="289"/>
         <v>Saturday</v>
       </c>
       <c r="I2126" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>Jul</v>
       </c>
       <c r="J2126" t="s">
@@ -87435,23 +87443,23 @@
         <v>0.85</v>
       </c>
       <c r="E2127">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>7</v>
       </c>
       <c r="F2127">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>2024</v>
       </c>
       <c r="G2127">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>6</v>
       </c>
       <c r="H2127" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="289"/>
         <v>Saturday</v>
       </c>
       <c r="I2127" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>Jul</v>
       </c>
       <c r="J2127" t="s">
@@ -87475,23 +87483,23 @@
         <v>0.85</v>
       </c>
       <c r="E2128">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>7</v>
       </c>
       <c r="F2128">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>2024</v>
       </c>
       <c r="G2128">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>6</v>
       </c>
       <c r="H2128" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="289"/>
         <v>Saturday</v>
       </c>
       <c r="I2128" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>Jul</v>
       </c>
       <c r="J2128" t="s">
@@ -87515,23 +87523,23 @@
         <v>5.49</v>
       </c>
       <c r="E2129">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>7</v>
       </c>
       <c r="F2129">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>2024</v>
       </c>
       <c r="G2129">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>6</v>
       </c>
       <c r="H2129" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="289"/>
         <v>Saturday</v>
       </c>
       <c r="I2129" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>Jul</v>
       </c>
       <c r="J2129" t="s">
@@ -87555,23 +87563,23 @@
         <v>0.75</v>
       </c>
       <c r="E2130">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>7</v>
       </c>
       <c r="F2130">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>2024</v>
       </c>
       <c r="G2130">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>6</v>
       </c>
       <c r="H2130" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="289"/>
         <v>Saturday</v>
       </c>
       <c r="I2130" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>Jul</v>
       </c>
       <c r="J2130" t="s">
@@ -87596,23 +87604,23 @@
         <v>1.4450000000000001</v>
       </c>
       <c r="E2131">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>7</v>
       </c>
       <c r="F2131">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>2024</v>
       </c>
       <c r="G2131">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>6</v>
       </c>
       <c r="H2131" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="289"/>
         <v>Saturday</v>
       </c>
       <c r="I2131" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>Jul</v>
       </c>
       <c r="J2131" t="s">
@@ -87636,23 +87644,23 @@
         <v>3.59</v>
       </c>
       <c r="E2132">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>7</v>
       </c>
       <c r="F2132">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>2024</v>
       </c>
       <c r="G2132">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>6</v>
       </c>
       <c r="H2132" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="289"/>
         <v>Saturday</v>
       </c>
       <c r="I2132" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>Jul</v>
       </c>
       <c r="J2132" t="s">
@@ -87676,23 +87684,23 @@
         <v>3.19</v>
       </c>
       <c r="E2133">
-        <f>MONTH(A2133)</f>
+        <f t="shared" ref="E2133:E2142" si="291">MONTH(A2133)</f>
         <v>7</v>
       </c>
       <c r="F2133">
-        <f>YEAR(A2133)</f>
+        <f t="shared" ref="F2133:F2142" si="292">YEAR(A2133)</f>
         <v>2024</v>
       </c>
       <c r="G2133">
-        <f>WEEKDAY(A2133, 2)</f>
+        <f t="shared" ref="G2133:G2142" si="293">WEEKDAY(A2133, 2)</f>
         <v>6</v>
       </c>
       <c r="H2133" t="str">
-        <f>CHOOSE(WEEKDAY(A2133, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" ref="H2133:H2142" si="294">CHOOSE(WEEKDAY(A2133, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
         <v>Saturday</v>
       </c>
       <c r="I2133" t="str">
-        <f>TEXT(A2133, "MMM")</f>
+        <f t="shared" ref="I2133:I2142" si="295">TEXT(A2133, "MMM")</f>
         <v>Jul</v>
       </c>
       <c r="J2133" t="s">
@@ -87716,23 +87724,23 @@
         <v>3.59</v>
       </c>
       <c r="E2134">
-        <f>MONTH(A2134)</f>
+        <f t="shared" si="291"/>
         <v>7</v>
       </c>
       <c r="F2134">
-        <f>YEAR(A2134)</f>
+        <f t="shared" si="292"/>
         <v>2024</v>
       </c>
       <c r="G2134">
-        <f>WEEKDAY(A2134, 2)</f>
+        <f t="shared" si="293"/>
         <v>6</v>
       </c>
       <c r="H2134" t="str">
-        <f>CHOOSE(WEEKDAY(A2134, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="294"/>
         <v>Saturday</v>
       </c>
       <c r="I2134" t="str">
-        <f>TEXT(A2134, "MMM")</f>
+        <f t="shared" si="295"/>
         <v>Jul</v>
       </c>
       <c r="J2134" t="s">
@@ -87756,23 +87764,23 @@
         <v>3.19</v>
       </c>
       <c r="E2135">
-        <f>MONTH(A2135)</f>
+        <f t="shared" si="291"/>
         <v>7</v>
       </c>
       <c r="F2135">
-        <f>YEAR(A2135)</f>
+        <f t="shared" si="292"/>
         <v>2024</v>
       </c>
       <c r="G2135">
-        <f>WEEKDAY(A2135, 2)</f>
+        <f t="shared" si="293"/>
         <v>6</v>
       </c>
       <c r="H2135" t="str">
-        <f>CHOOSE(WEEKDAY(A2135, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="294"/>
         <v>Saturday</v>
       </c>
       <c r="I2135" t="str">
-        <f>TEXT(A2135, "MMM")</f>
+        <f t="shared" si="295"/>
         <v>Jul</v>
       </c>
       <c r="J2135" t="s">
@@ -87796,23 +87804,23 @@
         <v>0.99</v>
       </c>
       <c r="E2136">
-        <f>MONTH(A2136)</f>
+        <f t="shared" si="291"/>
         <v>7</v>
       </c>
       <c r="F2136">
-        <f>YEAR(A2136)</f>
+        <f t="shared" si="292"/>
         <v>2024</v>
       </c>
       <c r="G2136">
-        <f>WEEKDAY(A2136, 2)</f>
+        <f t="shared" si="293"/>
         <v>6</v>
       </c>
       <c r="H2136" t="str">
-        <f>CHOOSE(WEEKDAY(A2136, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="294"/>
         <v>Saturday</v>
       </c>
       <c r="I2136" t="str">
-        <f>TEXT(A2136, "MMM")</f>
+        <f t="shared" si="295"/>
         <v>Jul</v>
       </c>
       <c r="J2136" t="s">
@@ -87836,23 +87844,23 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E2137">
-        <f>MONTH(A2137)</f>
+        <f t="shared" si="291"/>
         <v>7</v>
       </c>
       <c r="F2137">
-        <f>YEAR(A2137)</f>
+        <f t="shared" si="292"/>
         <v>2024</v>
       </c>
       <c r="G2137">
-        <f>WEEKDAY(A2137, 2)</f>
+        <f t="shared" si="293"/>
         <v>6</v>
       </c>
       <c r="H2137" t="str">
-        <f>CHOOSE(WEEKDAY(A2137, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="294"/>
         <v>Saturday</v>
       </c>
       <c r="I2137" t="str">
-        <f>TEXT(A2137, "MMM")</f>
+        <f t="shared" si="295"/>
         <v>Jul</v>
       </c>
       <c r="J2137" t="s">
@@ -87876,23 +87884,23 @@
         <v>4.99</v>
       </c>
       <c r="E2138">
-        <f>MONTH(A2138)</f>
+        <f t="shared" si="291"/>
         <v>7</v>
       </c>
       <c r="F2138">
-        <f>YEAR(A2138)</f>
+        <f t="shared" si="292"/>
         <v>2024</v>
       </c>
       <c r="G2138">
-        <f>WEEKDAY(A2138, 2)</f>
+        <f t="shared" si="293"/>
         <v>6</v>
       </c>
       <c r="H2138" t="str">
-        <f>CHOOSE(WEEKDAY(A2138, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="294"/>
         <v>Saturday</v>
       </c>
       <c r="I2138" t="str">
-        <f>TEXT(A2138, "MMM")</f>
+        <f t="shared" si="295"/>
         <v>Jul</v>
       </c>
       <c r="J2138" t="s">
@@ -87916,23 +87924,23 @@
         <v>2.99</v>
       </c>
       <c r="E2139">
-        <f>MONTH(A2139)</f>
+        <f t="shared" si="291"/>
         <v>7</v>
       </c>
       <c r="F2139">
-        <f>YEAR(A2139)</f>
+        <f t="shared" si="292"/>
         <v>2024</v>
       </c>
       <c r="G2139">
-        <f>WEEKDAY(A2139, 2)</f>
+        <f t="shared" si="293"/>
         <v>6</v>
       </c>
       <c r="H2139" t="str">
-        <f>CHOOSE(WEEKDAY(A2139, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="294"/>
         <v>Saturday</v>
       </c>
       <c r="I2139" t="str">
-        <f>TEXT(A2139, "MMM")</f>
+        <f t="shared" si="295"/>
         <v>Jul</v>
       </c>
       <c r="J2139" t="s">
@@ -87956,23 +87964,23 @@
         <v>0.45</v>
       </c>
       <c r="E2140">
-        <f>MONTH(A2140)</f>
+        <f t="shared" si="291"/>
         <v>7</v>
       </c>
       <c r="F2140">
-        <f>YEAR(A2140)</f>
+        <f t="shared" si="292"/>
         <v>2024</v>
       </c>
       <c r="G2140">
-        <f>WEEKDAY(A2140, 2)</f>
+        <f t="shared" si="293"/>
         <v>6</v>
       </c>
       <c r="H2140" t="str">
-        <f>CHOOSE(WEEKDAY(A2140, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="294"/>
         <v>Saturday</v>
       </c>
       <c r="I2140" t="str">
-        <f>TEXT(A2140, "MMM")</f>
+        <f t="shared" si="295"/>
         <v>Jul</v>
       </c>
       <c r="J2140" t="s">
@@ -87997,23 +88005,23 @@
         <v>1.6950000000000001</v>
       </c>
       <c r="E2141">
-        <f>MONTH(A2141)</f>
+        <f t="shared" si="291"/>
         <v>7</v>
       </c>
       <c r="F2141">
-        <f>YEAR(A2141)</f>
+        <f t="shared" si="292"/>
         <v>2024</v>
       </c>
       <c r="G2141">
-        <f>WEEKDAY(A2141, 2)</f>
+        <f t="shared" si="293"/>
         <v>6</v>
       </c>
       <c r="H2141" t="str">
-        <f>CHOOSE(WEEKDAY(A2141, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="294"/>
         <v>Saturday</v>
       </c>
       <c r="I2141" t="str">
-        <f>TEXT(A2141, "MMM")</f>
+        <f t="shared" si="295"/>
         <v>Jul</v>
       </c>
       <c r="J2141" t="s">
@@ -88034,27 +88042,27 @@
         <v>96</v>
       </c>
       <c r="D2142">
-        <f>47.42/2</f>
-        <v>23.71</v>
+        <f>56.9/2</f>
+        <v>28.45</v>
       </c>
       <c r="E2142">
-        <f>MONTH(A2142)</f>
+        <f t="shared" si="291"/>
         <v>7</v>
       </c>
       <c r="F2142">
-        <f>YEAR(A2142)</f>
+        <f t="shared" si="292"/>
         <v>2024</v>
       </c>
       <c r="G2142">
-        <f>WEEKDAY(A2142, 2)</f>
+        <f t="shared" si="293"/>
         <v>3</v>
       </c>
       <c r="H2142" t="str">
-        <f>CHOOSE(WEEKDAY(A2142, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <f t="shared" si="294"/>
         <v>Wednesday</v>
       </c>
       <c r="I2142" t="str">
-        <f>TEXT(A2142, "MMM")</f>
+        <f t="shared" si="295"/>
         <v>Jul</v>
       </c>
       <c r="J2142" t="s">
@@ -88062,6 +88070,526 @@
       </c>
       <c r="K2142" t="s">
         <v>743</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2143" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D2143">
+        <v>29</v>
+      </c>
+      <c r="E2143">
+        <f>MONTH(A2143)</f>
+        <v>6</v>
+      </c>
+      <c r="F2143">
+        <f>YEAR(A2143)</f>
+        <v>2023</v>
+      </c>
+      <c r="G2143">
+        <f>WEEKDAY(A2143, 2)</f>
+        <v>4</v>
+      </c>
+      <c r="H2143" t="str">
+        <f>CHOOSE(WEEKDAY(A2143, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="I2143" t="str">
+        <f>TEXT(A2143, "MMM")</f>
+        <v>Jun</v>
+      </c>
+      <c r="J2143" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K2143" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2144" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D2144">
+        <v>29</v>
+      </c>
+      <c r="E2144">
+        <f>MONTH(A2144)</f>
+        <v>7</v>
+      </c>
+      <c r="F2144">
+        <f>YEAR(A2144)</f>
+        <v>2023</v>
+      </c>
+      <c r="G2144">
+        <f>WEEKDAY(A2144, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="H2144" t="str">
+        <f>CHOOSE(WEEKDAY(A2144, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I2144" t="str">
+        <f>TEXT(A2144, "MMM")</f>
+        <v>Jul</v>
+      </c>
+      <c r="J2144" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K2144" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2145" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D2145">
+        <v>29</v>
+      </c>
+      <c r="E2145">
+        <f t="shared" ref="E2145:E2155" si="296">MONTH(A2145)</f>
+        <v>8</v>
+      </c>
+      <c r="F2145">
+        <f t="shared" ref="F2145:F2155" si="297">YEAR(A2145)</f>
+        <v>2023</v>
+      </c>
+      <c r="G2145">
+        <f t="shared" ref="G2145:G2155" si="298">WEEKDAY(A2145, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H2145" t="str">
+        <f t="shared" ref="H2145:H2155" si="299">CHOOSE(WEEKDAY(A2145, 2), "Monday", "Tuesday","Wednesday", "Thursday", "Friday", "Saturday","Sunday")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="I2145" t="str">
+        <f t="shared" ref="I2145:I2155" si="300">TEXT(A2145, "MMM")</f>
+        <v>Aug</v>
+      </c>
+      <c r="J2145" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K2145" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2146" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D2146">
+        <v>29</v>
+      </c>
+      <c r="E2146">
+        <f t="shared" si="296"/>
+        <v>9</v>
+      </c>
+      <c r="F2146">
+        <f t="shared" si="297"/>
+        <v>2023</v>
+      </c>
+      <c r="G2146">
+        <f t="shared" si="298"/>
+        <v>5</v>
+      </c>
+      <c r="H2146" t="str">
+        <f t="shared" si="299"/>
+        <v>Friday</v>
+      </c>
+      <c r="I2146" t="str">
+        <f t="shared" si="300"/>
+        <v>Sep</v>
+      </c>
+      <c r="J2146" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K2146" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2147" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D2147">
+        <v>29</v>
+      </c>
+      <c r="E2147">
+        <f t="shared" si="296"/>
+        <v>10</v>
+      </c>
+      <c r="F2147">
+        <f t="shared" si="297"/>
+        <v>2023</v>
+      </c>
+      <c r="G2147">
+        <f t="shared" si="298"/>
+        <v>7</v>
+      </c>
+      <c r="H2147" t="str">
+        <f t="shared" si="299"/>
+        <v>Sunday</v>
+      </c>
+      <c r="I2147" t="str">
+        <f t="shared" si="300"/>
+        <v>Oct</v>
+      </c>
+      <c r="J2147" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K2147" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2148" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D2148">
+        <v>29</v>
+      </c>
+      <c r="E2148">
+        <f t="shared" si="296"/>
+        <v>11</v>
+      </c>
+      <c r="F2148">
+        <f t="shared" si="297"/>
+        <v>2023</v>
+      </c>
+      <c r="G2148">
+        <f t="shared" si="298"/>
+        <v>3</v>
+      </c>
+      <c r="H2148" t="str">
+        <f t="shared" si="299"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="I2148" t="str">
+        <f t="shared" si="300"/>
+        <v>Nov</v>
+      </c>
+      <c r="J2148" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K2148" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2149" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D2149">
+        <v>29</v>
+      </c>
+      <c r="E2149">
+        <f t="shared" si="296"/>
+        <v>12</v>
+      </c>
+      <c r="F2149">
+        <f t="shared" si="297"/>
+        <v>2023</v>
+      </c>
+      <c r="G2149">
+        <f t="shared" si="298"/>
+        <v>5</v>
+      </c>
+      <c r="H2149" t="str">
+        <f t="shared" si="299"/>
+        <v>Friday</v>
+      </c>
+      <c r="I2149" t="str">
+        <f t="shared" si="300"/>
+        <v>Dec</v>
+      </c>
+      <c r="J2149" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K2149" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2150" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D2150">
+        <v>29</v>
+      </c>
+      <c r="E2150">
+        <f t="shared" si="296"/>
+        <v>1</v>
+      </c>
+      <c r="F2150">
+        <f t="shared" si="297"/>
+        <v>2024</v>
+      </c>
+      <c r="G2150">
+        <f t="shared" si="298"/>
+        <v>1</v>
+      </c>
+      <c r="H2150" t="str">
+        <f t="shared" si="299"/>
+        <v>Monday</v>
+      </c>
+      <c r="I2150" t="str">
+        <f t="shared" si="300"/>
+        <v>Jan</v>
+      </c>
+      <c r="J2150" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K2150" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2151" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D2151">
+        <v>29</v>
+      </c>
+      <c r="E2151">
+        <f t="shared" si="296"/>
+        <v>2</v>
+      </c>
+      <c r="F2151">
+        <f t="shared" si="297"/>
+        <v>2024</v>
+      </c>
+      <c r="G2151">
+        <f t="shared" si="298"/>
+        <v>4</v>
+      </c>
+      <c r="H2151" t="str">
+        <f t="shared" si="299"/>
+        <v>Thursday</v>
+      </c>
+      <c r="I2151" t="str">
+        <f t="shared" si="300"/>
+        <v>Feb</v>
+      </c>
+      <c r="J2151" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K2151" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2152" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C2152" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D2152">
+        <v>29</v>
+      </c>
+      <c r="E2152">
+        <f t="shared" si="296"/>
+        <v>3</v>
+      </c>
+      <c r="F2152">
+        <f t="shared" si="297"/>
+        <v>2024</v>
+      </c>
+      <c r="G2152">
+        <f t="shared" si="298"/>
+        <v>5</v>
+      </c>
+      <c r="H2152" t="str">
+        <f t="shared" si="299"/>
+        <v>Friday</v>
+      </c>
+      <c r="I2152" t="str">
+        <f t="shared" si="300"/>
+        <v>Mar</v>
+      </c>
+      <c r="J2152" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K2152" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2153" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C2153" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D2153">
+        <v>29</v>
+      </c>
+      <c r="E2153">
+        <f t="shared" si="296"/>
+        <v>4</v>
+      </c>
+      <c r="F2153">
+        <f t="shared" si="297"/>
+        <v>2024</v>
+      </c>
+      <c r="G2153">
+        <f t="shared" si="298"/>
+        <v>1</v>
+      </c>
+      <c r="H2153" t="str">
+        <f t="shared" si="299"/>
+        <v>Monday</v>
+      </c>
+      <c r="I2153" t="str">
+        <f t="shared" si="300"/>
+        <v>Apr</v>
+      </c>
+      <c r="J2153" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K2153" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2154" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D2154">
+        <v>29</v>
+      </c>
+      <c r="E2154">
+        <f t="shared" si="296"/>
+        <v>5</v>
+      </c>
+      <c r="F2154">
+        <f t="shared" si="297"/>
+        <v>2024</v>
+      </c>
+      <c r="G2154">
+        <f t="shared" si="298"/>
+        <v>3</v>
+      </c>
+      <c r="H2154" t="str">
+        <f t="shared" si="299"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="I2154" t="str">
+        <f t="shared" si="300"/>
+        <v>May</v>
+      </c>
+      <c r="J2154" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K2154" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2155" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D2155">
+        <v>29</v>
+      </c>
+      <c r="E2155">
+        <f t="shared" si="296"/>
+        <v>6</v>
+      </c>
+      <c r="F2155">
+        <f t="shared" si="297"/>
+        <v>2024</v>
+      </c>
+      <c r="G2155">
+        <f t="shared" si="298"/>
+        <v>6</v>
+      </c>
+      <c r="H2155" t="str">
+        <f t="shared" si="299"/>
+        <v>Saturday</v>
+      </c>
+      <c r="I2155" t="str">
+        <f t="shared" si="300"/>
+        <v>Jun</v>
+      </c>
+      <c r="J2155" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K2155" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>
